--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R204"/>
+  <dimension ref="A1:R206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,29 +7053,29 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K93" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L93" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M93" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>840</v>
+        <v>1100</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K94" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L94" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M94" t="n">
-        <v>33000</v>
+        <v>35500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1320</v>
+        <v>1420</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,29 +7197,29 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K95" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L95" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M95" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1400</v>
+        <v>840</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K96" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L96" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M96" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1040</v>
+        <v>1320</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K97" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L97" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M97" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K98" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L98" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M98" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K99" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L99" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M99" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K100" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L100" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K101" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L101" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M101" t="n">
-        <v>34520</v>
+        <v>27000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1381</v>
+        <v>1080</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K102" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L102" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M102" t="n">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K103" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L103" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M103" t="n">
-        <v>21023</v>
+        <v>34520</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>841</v>
+        <v>1381</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K104" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L104" t="n">
         <v>30000</v>
       </c>
       <c r="M104" t="n">
-        <v>29556</v>
+        <v>30000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K105" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L105" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M105" t="n">
-        <v>34625</v>
+        <v>21023</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1385</v>
+        <v>841</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,29 +7989,29 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K106" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="L106" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="M106" t="n">
-        <v>42500</v>
+        <v>29556</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1700</v>
+        <v>1182</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,29 +8061,29 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K107" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L107" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M107" t="n">
-        <v>40000</v>
+        <v>34625</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1600</v>
+        <v>1385</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K108" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="L108" t="n">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="M108" t="n">
-        <v>25500</v>
+        <v>42500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1020</v>
+        <v>1700</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,29 +8205,29 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K109" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L109" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M109" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,29 +8277,29 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K110" t="n">
         <v>25000</v>
       </c>
       <c r="L110" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M110" t="n">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K111" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L111" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M111" t="n">
-        <v>34500</v>
+        <v>25000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1380</v>
+        <v>1000</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,29 +8421,29 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K112" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L112" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M112" t="n">
-        <v>33500</v>
+        <v>25000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,29 +8493,29 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K113" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L113" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M113" t="n">
-        <v>22000</v>
+        <v>34500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>880</v>
+        <v>1380</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K114" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L114" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M114" t="n">
-        <v>25000</v>
+        <v>33500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1000</v>
+        <v>1340</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8628,38 +8628,38 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K115" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L115" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M115" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K116" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L116" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K117" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L117" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="M117" t="n">
-        <v>35500</v>
+        <v>20000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1420</v>
+        <v>800</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K118" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L118" t="n">
         <v>28000</v>
       </c>
-      <c r="L118" t="n">
-        <v>30000</v>
-      </c>
       <c r="M118" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K119" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L119" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M119" t="n">
-        <v>34000</v>
+        <v>35500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1360</v>
+        <v>1420</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K120" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="L120" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M120" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1480</v>
+        <v>1160</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K121" t="n">
         <v>34000</v>
       </c>
       <c r="L121" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M121" t="n">
-        <v>34480</v>
+        <v>34000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1379</v>
+        <v>1360</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K122" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L122" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M122" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1000</v>
+        <v>1480</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K123" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L123" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M123" t="n">
-        <v>21000</v>
+        <v>34480</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>840</v>
+        <v>1379</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K124" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L124" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M124" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K125" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L125" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M125" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K126" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L126" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M126" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,29 +9501,29 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K127" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L127" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M127" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K128" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L128" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M128" t="n">
-        <v>21512</v>
+        <v>30000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,29 +9645,29 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K129" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L129" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M129" t="n">
-        <v>33000</v>
+        <v>25500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1320</v>
+        <v>1020</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="K130" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L130" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M130" t="n">
-        <v>30000</v>
+        <v>21512</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1200</v>
+        <v>860</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K131" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L131" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M131" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>720</v>
+        <v>1320</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K132" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L132" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M132" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K133" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L133" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M133" t="n">
-        <v>29333</v>
+        <v>18000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1173</v>
+        <v>720</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K134" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L134" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="M134" t="n">
-        <v>31125</v>
+        <v>31000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K135" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L135" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M135" t="n">
-        <v>22545</v>
+        <v>29333</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>902</v>
+        <v>1173</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K136" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L136" t="n">
         <v>33000</v>
       </c>
       <c r="M136" t="n">
-        <v>33000</v>
+        <v>31125</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1320</v>
+        <v>1245</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K137" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L137" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M137" t="n">
-        <v>27000</v>
+        <v>22545</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1080</v>
+        <v>902</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="K138" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L138" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M138" t="n">
-        <v>30500</v>
+        <v>33000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1220</v>
+        <v>1320</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K139" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="L139" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M139" t="n">
-        <v>24500</v>
+        <v>27000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,29 +10437,29 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="K140" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L140" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M140" t="n">
-        <v>40000</v>
+        <v>30500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1600</v>
+        <v>1220</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K141" t="n">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="L141" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="M141" t="n">
-        <v>42400</v>
+        <v>24500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1696</v>
+        <v>980</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L142" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="M142" t="n">
-        <v>32512</v>
+        <v>40000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K143" t="n">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="L143" t="n">
-        <v>32000</v>
+        <v>43000</v>
       </c>
       <c r="M143" t="n">
-        <v>31500</v>
+        <v>42400</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1260</v>
+        <v>1696</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K144" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L144" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M144" t="n">
-        <v>27000</v>
+        <v>32512</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1080</v>
+        <v>1300</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10800,26 +10800,26 @@
         <v>70</v>
       </c>
       <c r="K145" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="L145" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="M145" t="n">
-        <v>24000</v>
+        <v>31500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>960</v>
+        <v>1260</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,29 +10869,29 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K146" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L146" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M146" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44399</v>
+        <v>44278</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,29 +10941,29 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K147" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L147" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M147" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44251</v>
+        <v>44358</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K148" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L148" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M148" t="n">
-        <v>29000</v>
+        <v>33488</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1160</v>
+        <v>1340</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K149" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L149" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M149" t="n">
-        <v>27000</v>
+        <v>21500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1080</v>
+        <v>860</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11160,26 +11160,26 @@
         <v>50</v>
       </c>
       <c r="K150" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L150" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M150" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K151" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L151" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M151" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K152" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L152" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M152" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K153" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L153" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M153" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K154" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L154" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M154" t="n">
-        <v>23111</v>
+        <v>17000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>924</v>
+        <v>680</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K155" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L155" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M155" t="n">
-        <v>29333</v>
+        <v>29000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K156" t="n">
         <v>22000</v>
       </c>
       <c r="L156" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M156" t="n">
-        <v>22000</v>
+        <v>23111</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>880</v>
+        <v>924</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,29 +11661,29 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K157" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L157" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M157" t="n">
-        <v>25000</v>
+        <v>29333</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1000</v>
+        <v>1173</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,29 +11733,29 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K158" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L158" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M158" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K159" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L159" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M159" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K160" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L160" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M160" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K161" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L161" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M161" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K162" t="n">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="L162" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M162" t="n">
-        <v>39500</v>
+        <v>25000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K163" t="n">
-        <v>41000</v>
+        <v>30000</v>
       </c>
       <c r="L163" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="M163" t="n">
-        <v>41500</v>
+        <v>30000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1660</v>
+        <v>1200</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K164" t="n">
-        <v>22000</v>
+        <v>39000</v>
       </c>
       <c r="L164" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M164" t="n">
-        <v>22000</v>
+        <v>39500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>880</v>
+        <v>1580</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K165" t="n">
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="L165" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M165" t="n">
-        <v>26857</v>
+        <v>41500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1074</v>
+        <v>1660</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12312,26 +12312,26 @@
         <v>50</v>
       </c>
       <c r="K166" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="L166" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="M166" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1800</v>
+        <v>880</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K167" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L167" t="n">
         <v>28000</v>
       </c>
       <c r="M167" t="n">
-        <v>27455</v>
+        <v>26857</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K168" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="L168" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M168" t="n">
-        <v>29588</v>
+        <v>45000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1184</v>
+        <v>1800</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="K169" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L169" t="n">
         <v>28000</v>
       </c>
       <c r="M169" t="n">
-        <v>28000</v>
+        <v>27455</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K170" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L170" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M170" t="n">
-        <v>31000</v>
+        <v>29588</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1240</v>
+        <v>1184</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K171" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L171" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M171" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K172" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L172" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M172" t="n">
-        <v>27500</v>
+        <v>31000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1100</v>
+        <v>1240</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,29 +12813,29 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="K173" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L173" t="n">
-        <v>41000</v>
+        <v>35000</v>
       </c>
       <c r="M173" t="n">
-        <v>40524</v>
+        <v>35000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1621</v>
+        <v>1400</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K174" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L174" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M174" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K175" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L175" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="M175" t="n">
-        <v>34000</v>
+        <v>40524</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1360</v>
+        <v>1621</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K176" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L176" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M176" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,29 +13101,29 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K177" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L177" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M177" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K178" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L178" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M178" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L179" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M179" t="n">
-        <v>28500</v>
+        <v>23000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1140</v>
+        <v>920</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44301</v>
+        <v>44186</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,29 +13317,29 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K180" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L180" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M180" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,29 +13389,29 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K181" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L181" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M181" t="n">
-        <v>22000</v>
+        <v>28500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L182" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M182" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K183" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L183" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M183" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K184" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L184" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M184" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L185" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M185" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K186" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L186" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M186" t="n">
-        <v>22571</v>
+        <v>28000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>903</v>
+        <v>1120</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K187" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L187" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M187" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1320</v>
+        <v>1040</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K188" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L188" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M188" t="n">
-        <v>21500</v>
+        <v>22571</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>860</v>
+        <v>903</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K189" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L189" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M189" t="n">
-        <v>34500</v>
+        <v>33000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K190" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L190" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M190" t="n">
-        <v>27000</v>
+        <v>21500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1080</v>
+        <v>860</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K191" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L191" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M191" t="n">
-        <v>28000</v>
+        <v>34500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1120</v>
+        <v>1380</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14184,13 +14184,13 @@
         <v>50</v>
       </c>
       <c r="K192" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L192" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M192" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>640</v>
+        <v>1080</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,7 +14253,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K193" t="n">
         <v>28000</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,26 +14328,26 @@
         <v>50</v>
       </c>
       <c r="K194" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L194" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M194" t="n">
-        <v>28500</v>
+        <v>16000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1140</v>
+        <v>640</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K195" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L195" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="M195" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1640</v>
+        <v>1120</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,26 +14472,26 @@
         <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L196" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M196" t="n">
-        <v>35000</v>
+        <v>28500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1400</v>
+        <v>1140</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K197" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L197" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M197" t="n">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1400</v>
+        <v>1640</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L198" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M198" t="n">
-        <v>18977</v>
+        <v>35000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>759</v>
+        <v>1400</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K199" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L199" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M199" t="n">
-        <v>29273</v>
+        <v>35000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1171</v>
+        <v>1400</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K200" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L200" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M200" t="n">
-        <v>32400</v>
+        <v>18977</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1296</v>
+        <v>759</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K201" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L201" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M201" t="n">
-        <v>25000</v>
+        <v>29273</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1000</v>
+        <v>1171</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="K202" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L202" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M202" t="n">
-        <v>29500</v>
+        <v>32400</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1180</v>
+        <v>1296</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44168</v>
+        <v>44179</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L203" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M203" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,58 +15021,202 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E204" t="n">
+        <v>13</v>
+      </c>
+      <c r="F204" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J204" t="n">
+        <v>34</v>
+      </c>
+      <c r="K204" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L204" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M204" t="n">
+        <v>29500</v>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>1180</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>25</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E204" t="n">
-        <v>13</v>
-      </c>
-      <c r="F204" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="E205" t="n">
+        <v>13</v>
+      </c>
+      <c r="F205" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>70</v>
+      </c>
+      <c r="K205" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L205" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M205" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>25</v>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>9</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J204" t="n">
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
         <v>60</v>
       </c>
-      <c r="K204" t="n">
+      <c r="K206" t="n">
         <v>23000</v>
       </c>
-      <c r="L204" t="n">
+      <c r="L206" t="n">
         <v>23000</v>
       </c>
-      <c r="M204" t="n">
+      <c r="M206" t="n">
         <v>23000</v>
       </c>
-      <c r="N204" t="inlineStr">
+      <c r="N206" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr">
+      <c r="O206" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P204" t="n">
+      <c r="P206" t="n">
         <v>920</v>
       </c>
-      <c r="Q204" t="n">
-        <v>25</v>
-      </c>
-      <c r="R204" t="inlineStr">
+      <c r="Q206" t="n">
+        <v>25</v>
+      </c>
+      <c r="R206" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R206"/>
+  <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4389,29 +4389,29 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K56" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L56" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M56" t="n">
-        <v>37000</v>
+        <v>27500</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1480</v>
+        <v>1100</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K57" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L57" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M57" t="n">
-        <v>34429</v>
+        <v>35500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1377</v>
+        <v>1420</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,29 +4533,29 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L58" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M58" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1200</v>
+        <v>1480</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44239</v>
+        <v>44215</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4608,26 +4608,26 @@
         <v>70</v>
       </c>
       <c r="K59" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="L59" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M59" t="n">
-        <v>18000</v>
+        <v>34429</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>720</v>
+        <v>1377</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4749,29 +4749,29 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K61" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L61" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M61" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K62" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L62" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>34480</v>
+        <v>30000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1379</v>
+        <v>1200</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4893,29 +4893,29 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K63" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L63" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M63" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K64" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L64" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M64" t="n">
-        <v>33500</v>
+        <v>34480</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1340</v>
+        <v>1379</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5037,29 +5037,29 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L65" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M65" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44174</v>
+        <v>44356</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5109,29 +5109,29 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L66" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M66" t="n">
-        <v>24000</v>
+        <v>33500</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5181,29 +5181,29 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K67" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L67" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M67" t="n">
-        <v>32333</v>
+        <v>19000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1293</v>
+        <v>760</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K68" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L68" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M68" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,29 +5325,29 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K69" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L69" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M69" t="n">
-        <v>25000</v>
+        <v>32333</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1000</v>
+        <v>1293</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K70" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L70" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M70" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5472,13 +5472,13 @@
         <v>50</v>
       </c>
       <c r="K71" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L71" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M71" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K72" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L72" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M72" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L73" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M73" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
         <v>25000</v>
@@ -5698,12 +5698,12 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K75" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L75" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M75" t="n">
-        <v>29250</v>
+        <v>29000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K76" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L76" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M76" t="n">
-        <v>29040</v>
+        <v>25000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1162</v>
+        <v>1000</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K77" t="n">
-        <v>43000</v>
+        <v>28000</v>
       </c>
       <c r="L77" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="M77" t="n">
-        <v>43520</v>
+        <v>29250</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1741</v>
+        <v>1170</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K78" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L78" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M78" t="n">
-        <v>34500</v>
+        <v>29040</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1380</v>
+        <v>1162</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44175</v>
+        <v>44342</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,29 +6045,29 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K79" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L79" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="M79" t="n">
-        <v>24500</v>
+        <v>43520</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>980</v>
+        <v>1741</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6120,13 +6120,13 @@
         <v>34</v>
       </c>
       <c r="K80" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L80" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M80" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>980</v>
+        <v>1380</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L81" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M81" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K82" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L82" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1360</v>
+        <v>980</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44363</v>
+        <v>44242</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,29 +6333,29 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K83" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L83" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M83" t="n">
-        <v>34500</v>
+        <v>23500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1380</v>
+        <v>940</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44216</v>
+        <v>44323</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,29 +6405,29 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K84" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L84" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M84" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1120</v>
+        <v>1360</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K85" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L85" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M85" t="n">
-        <v>30000</v>
+        <v>34500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6495,11 +6495,11 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1200</v>
+        <v>1380</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6549,29 +6549,29 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K86" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L86" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M86" t="n">
-        <v>32500</v>
+        <v>28000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1300</v>
+        <v>1120</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K87" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L87" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M87" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
         <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="L88" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M88" t="n">
-        <v>22000</v>
+        <v>32500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>880</v>
+        <v>1300</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,29 +6765,29 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K89" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L89" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M89" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>800</v>
+        <v>980</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K90" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L90" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M90" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6912,13 +6912,13 @@
         <v>50</v>
       </c>
       <c r="K91" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L91" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M91" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6984,13 +6984,13 @@
         <v>30</v>
       </c>
       <c r="K92" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L92" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M92" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,29 +7053,29 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K93" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L93" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M93" t="n">
-        <v>27500</v>
+        <v>16000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1100</v>
+        <v>640</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K94" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L94" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M94" t="n">
-        <v>35500</v>
+        <v>28000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1420</v>
+        <v>1120</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,29 +7197,29 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K95" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L95" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M95" t="n">
-        <v>21000</v>
+        <v>27500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>840</v>
+        <v>1100</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,29 +7269,29 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K96" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L96" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M96" t="n">
-        <v>33000</v>
+        <v>35500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1320</v>
+        <v>1420</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,29 +7341,29 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K97" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L97" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M97" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1400</v>
+        <v>840</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K98" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L98" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M98" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1040</v>
+        <v>1320</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K99" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L99" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M99" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K100" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L100" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M100" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L101" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,29 +7701,29 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K102" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L102" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M102" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>700</v>
+        <v>880</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44377</v>
+        <v>44273</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K103" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L103" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M103" t="n">
-        <v>34520</v>
+        <v>27000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1381</v>
+        <v>1080</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K104" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L104" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M104" t="n">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K105" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L105" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M105" t="n">
-        <v>21023</v>
+        <v>34520</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>841</v>
+        <v>1381</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,29 +7989,29 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K106" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L106" t="n">
         <v>30000</v>
       </c>
       <c r="M106" t="n">
-        <v>29556</v>
+        <v>30000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1182</v>
+        <v>1200</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K107" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L107" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M107" t="n">
-        <v>34625</v>
+        <v>21023</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1385</v>
+        <v>841</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,29 +8133,29 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K108" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="L108" t="n">
-        <v>43000</v>
+        <v>30000</v>
       </c>
       <c r="M108" t="n">
-        <v>42500</v>
+        <v>29556</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1700</v>
+        <v>1182</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,29 +8205,29 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K109" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L109" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M109" t="n">
-        <v>40000</v>
+        <v>34625</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1600</v>
+        <v>1385</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K110" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="L110" t="n">
-        <v>26000</v>
+        <v>43000</v>
       </c>
       <c r="M110" t="n">
-        <v>25500</v>
+        <v>42500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1020</v>
+        <v>1700</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,29 +8349,29 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K111" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L111" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M111" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,29 +8421,29 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K112" t="n">
         <v>25000</v>
       </c>
       <c r="L112" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M112" t="n">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K113" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L113" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M113" t="n">
-        <v>34500</v>
+        <v>25000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1380</v>
+        <v>1000</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,29 +8565,29 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K114" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L114" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M114" t="n">
-        <v>33500</v>
+        <v>25000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,29 +8637,29 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K115" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L115" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M115" t="n">
-        <v>22000</v>
+        <v>34500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>880</v>
+        <v>1380</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K116" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L116" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M116" t="n">
-        <v>25000</v>
+        <v>33500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1000</v>
+        <v>1340</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8772,38 +8772,38 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K117" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L117" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M117" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K118" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L118" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M118" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K119" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L119" t="n">
-        <v>36000</v>
+        <v>20000</v>
       </c>
       <c r="M119" t="n">
-        <v>35500</v>
+        <v>20000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1420</v>
+        <v>800</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K120" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L120" t="n">
         <v>28000</v>
       </c>
-      <c r="L120" t="n">
-        <v>30000</v>
-      </c>
       <c r="M120" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44300</v>
+        <v>44412</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K121" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L121" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M121" t="n">
-        <v>34000</v>
+        <v>35500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1360</v>
+        <v>1420</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,29 +9141,29 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K122" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="L122" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M122" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1480</v>
+        <v>1160</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K123" t="n">
         <v>34000</v>
       </c>
       <c r="L123" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M123" t="n">
-        <v>34480</v>
+        <v>34000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1379</v>
+        <v>1360</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K124" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L124" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M124" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1000</v>
+        <v>1480</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K125" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L125" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M125" t="n">
-        <v>21000</v>
+        <v>34480</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>840</v>
+        <v>1379</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,29 +9429,29 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K126" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L126" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M126" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1280</v>
+        <v>1000</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K127" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L127" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M127" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K128" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L128" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M128" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,29 +9645,29 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K129" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L129" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M129" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K130" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L130" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M130" t="n">
-        <v>21512</v>
+        <v>30000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K131" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L131" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M131" t="n">
-        <v>33000</v>
+        <v>25500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1320</v>
+        <v>1020</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="K132" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L132" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M132" t="n">
-        <v>30000</v>
+        <v>21512</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1200</v>
+        <v>860</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K133" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L133" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M133" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>720</v>
+        <v>1320</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K134" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L134" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M134" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K135" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L135" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M135" t="n">
-        <v>29333</v>
+        <v>18000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1173</v>
+        <v>720</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K136" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L136" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="M136" t="n">
-        <v>31125</v>
+        <v>31000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K137" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L137" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M137" t="n">
-        <v>22545</v>
+        <v>29333</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>902</v>
+        <v>1173</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K138" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L138" t="n">
         <v>33000</v>
       </c>
       <c r="M138" t="n">
-        <v>33000</v>
+        <v>31125</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1320</v>
+        <v>1245</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K139" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L139" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M139" t="n">
-        <v>27000</v>
+        <v>22545</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1080</v>
+        <v>902</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="K140" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L140" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M140" t="n">
-        <v>30500</v>
+        <v>33000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1220</v>
+        <v>1320</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K141" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="L141" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M141" t="n">
-        <v>24500</v>
+        <v>27000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>980</v>
+        <v>1080</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L142" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M142" t="n">
-        <v>40000</v>
+        <v>30500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1600</v>
+        <v>1220</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K143" t="n">
-        <v>42000</v>
+        <v>24000</v>
       </c>
       <c r="L143" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="M143" t="n">
-        <v>42400</v>
+        <v>24500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1696</v>
+        <v>980</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L144" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="M144" t="n">
-        <v>32512</v>
+        <v>40000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K145" t="n">
-        <v>31000</v>
+        <v>42000</v>
       </c>
       <c r="L145" t="n">
-        <v>32000</v>
+        <v>43000</v>
       </c>
       <c r="M145" t="n">
-        <v>31500</v>
+        <v>42400</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1260</v>
+        <v>1696</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,29 +10869,29 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K146" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L146" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M146" t="n">
-        <v>27000</v>
+        <v>32512</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1080</v>
+        <v>1300</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10944,26 +10944,26 @@
         <v>70</v>
       </c>
       <c r="K147" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="L147" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="M147" t="n">
-        <v>24000</v>
+        <v>31500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>960</v>
+        <v>1260</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,29 +11013,29 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K148" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L148" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M148" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44399</v>
+        <v>44278</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,29 +11085,29 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K149" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L149" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M149" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44251</v>
+        <v>44358</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K150" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L150" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M150" t="n">
-        <v>29000</v>
+        <v>33488</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1160</v>
+        <v>1340</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44292</v>
+        <v>44399</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K151" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L151" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M151" t="n">
-        <v>27000</v>
+        <v>21500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1080</v>
+        <v>860</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44294</v>
+        <v>44251</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11304,26 +11304,26 @@
         <v>50</v>
       </c>
       <c r="K152" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L152" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M152" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K153" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L153" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M153" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1120</v>
+        <v>1080</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K154" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L154" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M154" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K155" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L155" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M155" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K156" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L156" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M156" t="n">
-        <v>23111</v>
+        <v>17000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>924</v>
+        <v>680</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K157" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L157" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M157" t="n">
-        <v>29333</v>
+        <v>29000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K158" t="n">
         <v>22000</v>
       </c>
       <c r="L158" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M158" t="n">
-        <v>22000</v>
+        <v>23111</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>880</v>
+        <v>924</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,29 +11805,29 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K159" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L159" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M159" t="n">
-        <v>25000</v>
+        <v>29333</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1000</v>
+        <v>1173</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,29 +11877,29 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K160" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L160" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M160" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K161" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L161" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M161" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K162" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L162" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M162" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K163" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L163" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M163" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,29 +12165,29 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K164" t="n">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="L164" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="M164" t="n">
-        <v>39500</v>
+        <v>25000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K165" t="n">
-        <v>41000</v>
+        <v>30000</v>
       </c>
       <c r="L165" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="M165" t="n">
-        <v>41500</v>
+        <v>30000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1660</v>
+        <v>1200</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K166" t="n">
-        <v>22000</v>
+        <v>39000</v>
       </c>
       <c r="L166" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M166" t="n">
-        <v>22000</v>
+        <v>39500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>880</v>
+        <v>1580</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,29 +12381,29 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K167" t="n">
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="L167" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M167" t="n">
-        <v>26857</v>
+        <v>41500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1074</v>
+        <v>1660</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12456,26 +12456,26 @@
         <v>50</v>
       </c>
       <c r="K168" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="L168" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="M168" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1800</v>
+        <v>880</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K169" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L169" t="n">
         <v>28000</v>
       </c>
       <c r="M169" t="n">
-        <v>27455</v>
+        <v>26857</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K170" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="L170" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M170" t="n">
-        <v>29588</v>
+        <v>45000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1184</v>
+        <v>1800</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="K171" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L171" t="n">
         <v>28000</v>
       </c>
       <c r="M171" t="n">
-        <v>28000</v>
+        <v>27455</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1120</v>
+        <v>1098</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="K172" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L172" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M172" t="n">
-        <v>31000</v>
+        <v>29588</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1240</v>
+        <v>1184</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K173" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L173" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M173" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K174" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L174" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M174" t="n">
-        <v>27500</v>
+        <v>31000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1100</v>
+        <v>1240</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,29 +12957,29 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="K175" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L175" t="n">
-        <v>41000</v>
+        <v>35000</v>
       </c>
       <c r="M175" t="n">
-        <v>40524</v>
+        <v>35000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1621</v>
+        <v>1400</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="K176" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L176" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M176" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1360</v>
+        <v>1100</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K177" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L177" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="M177" t="n">
-        <v>34000</v>
+        <v>40524</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1360</v>
+        <v>1621</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K178" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L178" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M178" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K179" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L179" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M179" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>920</v>
+        <v>1360</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K180" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L180" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M180" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,29 +13389,29 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K181" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L181" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M181" t="n">
-        <v>28500</v>
+        <v>23000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1140</v>
+        <v>920</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44301</v>
+        <v>44186</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K182" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L182" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M182" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K183" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L183" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M183" t="n">
-        <v>22000</v>
+        <v>28500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>880</v>
+        <v>1140</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K184" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L184" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M184" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1400</v>
+        <v>1160</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K185" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L185" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M185" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K186" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L186" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M186" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1120</v>
+        <v>1400</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L187" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M187" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K188" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L188" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M188" t="n">
-        <v>22571</v>
+        <v>28000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>903</v>
+        <v>1120</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,29 +13965,29 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K189" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L189" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M189" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1320</v>
+        <v>1040</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K190" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L190" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M190" t="n">
-        <v>21500</v>
+        <v>22571</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>860</v>
+        <v>903</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K191" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L191" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M191" t="n">
-        <v>34500</v>
+        <v>33000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1380</v>
+        <v>1320</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44286</v>
+        <v>44398</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K192" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L192" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M192" t="n">
-        <v>27000</v>
+        <v>21500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1080</v>
+        <v>860</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K193" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L193" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M193" t="n">
-        <v>28000</v>
+        <v>34500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1120</v>
+        <v>1380</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14328,13 +14328,13 @@
         <v>50</v>
       </c>
       <c r="K194" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L194" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M194" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>640</v>
+        <v>1080</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K195" t="n">
         <v>28000</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14472,26 +14472,26 @@
         <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L196" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M196" t="n">
-        <v>28500</v>
+        <v>16000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1140</v>
+        <v>640</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K197" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L197" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="M197" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1640</v>
+        <v>1120</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14616,26 +14616,26 @@
         <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L198" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="M198" t="n">
-        <v>35000</v>
+        <v>28500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1400</v>
+        <v>1140</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="K199" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L199" t="n">
-        <v>35000</v>
+        <v>42000</v>
       </c>
       <c r="M199" t="n">
-        <v>35000</v>
+        <v>41000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1400</v>
+        <v>1640</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K200" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="L200" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M200" t="n">
-        <v>18977</v>
+        <v>35000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>759</v>
+        <v>1400</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,29 +14829,29 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K201" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L201" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M201" t="n">
-        <v>29273</v>
+        <v>35000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1171</v>
+        <v>1400</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K202" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L202" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M202" t="n">
-        <v>32400</v>
+        <v>18977</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1296</v>
+        <v>759</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K203" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L203" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M203" t="n">
-        <v>25000</v>
+        <v>29273</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1000</v>
+        <v>1171</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="K204" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L204" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M204" t="n">
-        <v>29500</v>
+        <v>32400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1180</v>
+        <v>1296</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44168</v>
+        <v>44179</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K205" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L205" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M205" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>920</v>
+        <v>1000</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,58 +15165,202 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E206" t="n">
+        <v>13</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J206" t="n">
+        <v>34</v>
+      </c>
+      <c r="K206" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L206" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M206" t="n">
+        <v>29500</v>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>1180</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>25</v>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>9</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E206" t="n">
-        <v>13</v>
-      </c>
-      <c r="F206" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="E207" t="n">
+        <v>13</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J207" t="n">
+        <v>70</v>
+      </c>
+      <c r="K207" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L207" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M207" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>25</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>9</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J206" t="n">
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
         <v>60</v>
       </c>
-      <c r="K206" t="n">
+      <c r="K208" t="n">
         <v>23000</v>
       </c>
-      <c r="L206" t="n">
+      <c r="L208" t="n">
         <v>23000</v>
       </c>
-      <c r="M206" t="n">
+      <c r="M208" t="n">
         <v>23000</v>
       </c>
-      <c r="N206" t="inlineStr">
+      <c r="N208" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O206" t="inlineStr">
+      <c r="O208" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P206" t="n">
+      <c r="P208" t="n">
         <v>920</v>
       </c>
-      <c r="Q206" t="n">
-        <v>25</v>
-      </c>
-      <c r="R206" t="inlineStr">
+      <c r="Q208" t="n">
+        <v>25</v>
+      </c>
+      <c r="R208" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="E32" t="n">
         <v>13</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K32" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L32" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M32" t="n">
-        <v>25500</v>
+        <v>35480</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1020</v>
+        <v>1419</v>
       </c>
       <c r="Q32" t="n">
         <v>25</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44249</v>
+        <v>44425</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2733,29 +2733,29 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K33" t="n">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="L33" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M33" t="n">
-        <v>20000</v>
+        <v>39500</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>800</v>
+        <v>1580</v>
       </c>
       <c r="Q33" t="n">
         <v>25</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44218</v>
+        <v>44392</v>
       </c>
       <c r="E34" t="n">
         <v>13</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K34" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L34" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M34" t="n">
-        <v>32571</v>
+        <v>25500</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>1303</v>
+        <v>1020</v>
       </c>
       <c r="Q34" t="n">
         <v>25</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44218</v>
+        <v>44249</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L35" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M35" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q35" t="n">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44411</v>
+        <v>44218</v>
       </c>
       <c r="E36" t="n">
         <v>13</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K36" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L36" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M36" t="n">
-        <v>26040</v>
+        <v>32571</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1042</v>
+        <v>1303</v>
       </c>
       <c r="Q36" t="n">
         <v>25</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44329</v>
+        <v>44218</v>
       </c>
       <c r="E37" t="n">
         <v>13</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3021,29 +3021,29 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K37" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L37" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M37" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="Q37" t="n">
         <v>25</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44252</v>
+        <v>44411</v>
       </c>
       <c r="E38" t="n">
         <v>13</v>
@@ -3093,29 +3093,29 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L38" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M38" t="n">
-        <v>23000</v>
+        <v>26040</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>920</v>
+        <v>1042</v>
       </c>
       <c r="Q38" t="n">
         <v>25</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44252</v>
+        <v>44329</v>
       </c>
       <c r="E39" t="n">
         <v>13</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K39" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L39" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M39" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3183,11 +3183,11 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="Q39" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44322</v>
+        <v>44252</v>
       </c>
       <c r="E40" t="n">
         <v>13</v>
@@ -3237,29 +3237,29 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K40" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L40" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M40" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q40" t="n">
         <v>25</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44293</v>
+        <v>44252</v>
       </c>
       <c r="E41" t="n">
         <v>13</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,29 +3309,29 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K41" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L41" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M41" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="Q41" t="n">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E42" t="n">
         <v>13</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L42" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M42" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="Q42" t="n">
         <v>25</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44229</v>
+        <v>44293</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L43" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M43" t="n">
-        <v>29625</v>
+        <v>21000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1185</v>
+        <v>840</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44229</v>
+        <v>44293</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L44" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M44" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44312</v>
+        <v>44229</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L45" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M45" t="n">
-        <v>27000</v>
+        <v>29625</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1080</v>
+        <v>1185</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44335</v>
+        <v>44229</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L46" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M46" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1160</v>
+        <v>1400</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44167</v>
+        <v>44312</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M47" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44236</v>
+        <v>44335</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3813,29 +3813,29 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L48" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M48" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>800</v>
+        <v>1160</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44236</v>
+        <v>44167</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3888,26 +3888,26 @@
         <v>60</v>
       </c>
       <c r="K49" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L49" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M49" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44166</v>
+        <v>44236</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K50" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L50" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="M50" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44166</v>
+        <v>44236</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K51" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L51" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M51" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44407</v>
+        <v>44166</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4101,29 +4101,29 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K52" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="L52" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M52" t="n">
-        <v>21500</v>
+        <v>26000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>860</v>
+        <v>1040</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44407</v>
+        <v>44166</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="L53" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M53" t="n">
-        <v>26520</v>
+        <v>35000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4191,11 +4191,11 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1061</v>
+        <v>1400</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44279</v>
+        <v>44407</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -4245,29 +4245,29 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K54" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L54" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M54" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>960</v>
+        <v>860</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44279</v>
+        <v>44407</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K55" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L55" t="n">
         <v>27000</v>
       </c>
       <c r="M55" t="n">
-        <v>27000</v>
+        <v>26520</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4335,11 +4335,11 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44414</v>
+        <v>44279</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4389,29 +4389,29 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K56" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L56" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M56" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1100</v>
+        <v>960</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44414</v>
+        <v>44279</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K57" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L57" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M57" t="n">
-        <v>35500</v>
+        <v>27000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1420</v>
+        <v>1080</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4533,29 +4533,29 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L58" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M58" t="n">
-        <v>37000</v>
+        <v>27500</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1480</v>
+        <v>1100</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K59" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L59" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M59" t="n">
-        <v>34429</v>
+        <v>35500</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1377</v>
+        <v>1420</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,29 +4677,29 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M60" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1200</v>
+        <v>1480</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44239</v>
+        <v>44215</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4752,26 +4752,26 @@
         <v>70</v>
       </c>
       <c r="K61" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="L61" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M61" t="n">
-        <v>18000</v>
+        <v>34429</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>720</v>
+        <v>1377</v>
       </c>
       <c r="Q61" t="n">
         <v>25</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4893,29 +4893,29 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K63" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L63" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M63" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K64" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L64" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M64" t="n">
-        <v>34480</v>
+        <v>30000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4983,11 +4983,11 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1379</v>
+        <v>1200</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5037,29 +5037,29 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K65" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L65" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M65" t="n">
-        <v>25000</v>
+        <v>16500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1000</v>
+        <v>660</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K66" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L66" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M66" t="n">
-        <v>33500</v>
+        <v>34480</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1340</v>
+        <v>1379</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5181,29 +5181,29 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K67" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L67" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M67" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44174</v>
+        <v>44356</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,29 +5253,29 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K68" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L68" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M68" t="n">
-        <v>24000</v>
+        <v>33500</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>960</v>
+        <v>1340</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5325,29 +5325,29 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L69" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M69" t="n">
-        <v>32333</v>
+        <v>19000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>1293</v>
+        <v>760</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K70" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L70" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M70" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,29 +5469,29 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K71" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L71" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M71" t="n">
-        <v>25000</v>
+        <v>32333</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1000</v>
+        <v>1293</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L72" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M72" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5616,13 +5616,13 @@
         <v>50</v>
       </c>
       <c r="K73" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L73" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M73" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K74" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L74" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M74" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K75" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L75" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M75" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K76" t="n">
         <v>25000</v>
@@ -5842,12 +5842,12 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K77" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L77" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M77" t="n">
-        <v>29250</v>
+        <v>29000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K78" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L78" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M78" t="n">
-        <v>29040</v>
+        <v>25000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1162</v>
+        <v>1000</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K79" t="n">
-        <v>43000</v>
+        <v>28000</v>
       </c>
       <c r="L79" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="M79" t="n">
-        <v>43520</v>
+        <v>29250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6063,11 +6063,11 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1741</v>
+        <v>1170</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K80" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L80" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M80" t="n">
-        <v>34500</v>
+        <v>29040</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1380</v>
+        <v>1162</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44175</v>
+        <v>44342</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6189,29 +6189,29 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L81" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="M81" t="n">
-        <v>24500</v>
+        <v>43520</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>980</v>
+        <v>1741</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6264,13 +6264,13 @@
         <v>34</v>
       </c>
       <c r="K82" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L82" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M82" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>980</v>
+        <v>1380</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K83" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L83" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M83" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K84" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L84" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M84" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1360</v>
+        <v>980</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44363</v>
+        <v>44242</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,29 +6477,29 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K85" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L85" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M85" t="n">
-        <v>34500</v>
+        <v>23500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1380</v>
+        <v>940</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44216</v>
+        <v>44323</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,29 +6549,29 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K86" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L86" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M86" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1120</v>
+        <v>1360</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K87" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L87" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M87" t="n">
-        <v>30000</v>
+        <v>34500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1200</v>
+        <v>1380</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,29 +6693,29 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K88" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L88" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M88" t="n">
-        <v>32500</v>
+        <v>28000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1300</v>
+        <v>1120</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K89" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L89" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M89" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>16</v>
       </c>
       <c r="K90" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="L90" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M90" t="n">
-        <v>22000</v>
+        <v>32500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>880</v>
+        <v>1300</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,29 +6909,29 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K91" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L91" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M91" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>800</v>
+        <v>980</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44258</v>
+        <v>44385</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K92" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L92" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M92" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1160</v>
+        <v>880</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7056,13 +7056,13 @@
         <v>50</v>
       </c>
       <c r="K93" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L93" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M93" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7128,13 +7128,13 @@
         <v>30</v>
       </c>
       <c r="K94" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L94" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M94" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,29 +7197,29 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K95" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L95" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M95" t="n">
-        <v>27500</v>
+        <v>16000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1100</v>
+        <v>640</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K96" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L96" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M96" t="n">
-        <v>35500</v>
+        <v>28000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1420</v>
+        <v>1120</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44176</v>
+        <v>44427</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,29 +7341,29 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K97" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L97" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M97" t="n">
-        <v>21000</v>
+        <v>31500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>840</v>
+        <v>1260</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,29 +7413,29 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K98" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L98" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M98" t="n">
-        <v>33000</v>
+        <v>27500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1320</v>
+        <v>1100</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K99" t="n">
         <v>35000</v>
       </c>
       <c r="L99" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M99" t="n">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K100" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L100" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M100" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44237</v>
+        <v>44421</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K101" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L101" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M101" t="n">
-        <v>28000</v>
+        <v>34500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1120</v>
+        <v>1380</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,29 +7701,29 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K102" t="n">
-        <v>22000</v>
+        <v>37000</v>
       </c>
       <c r="L102" t="n">
-        <v>22000</v>
+        <v>39000</v>
       </c>
       <c r="M102" t="n">
-        <v>22000</v>
+        <v>37960</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>880</v>
+        <v>1518</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,29 +7773,29 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K103" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L103" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M103" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1080</v>
+        <v>1320</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44377</v>
+        <v>44222</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K104" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L104" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M104" t="n">
-        <v>17500</v>
+        <v>35000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7863,11 +7863,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,29 +7917,29 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K105" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="L105" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M105" t="n">
-        <v>34520</v>
+        <v>26000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1381</v>
+        <v>1040</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44257</v>
+        <v>44237</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K106" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L106" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M106" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,29 +8061,29 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K107" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L107" t="n">
         <v>22000</v>
       </c>
       <c r="M107" t="n">
-        <v>21023</v>
+        <v>22000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>841</v>
+        <v>880</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44225</v>
+        <v>44273</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,29 +8133,29 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="K108" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L108" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M108" t="n">
-        <v>29556</v>
+        <v>27000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1182</v>
+        <v>1080</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44225</v>
+        <v>44377</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K109" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="L109" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M109" t="n">
-        <v>34625</v>
+        <v>17500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8223,11 +8223,11 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1385</v>
+        <v>700</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44194</v>
+        <v>44377</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K110" t="n">
-        <v>42000</v>
+        <v>34000</v>
       </c>
       <c r="L110" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="M110" t="n">
-        <v>42500</v>
+        <v>34520</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1700</v>
+        <v>1381</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44194</v>
+        <v>44257</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,29 +8349,29 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K111" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L111" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M111" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K112" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L112" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M112" t="n">
-        <v>25500</v>
+        <v>21023</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1020</v>
+        <v>841</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K113" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L113" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M113" t="n">
-        <v>25000</v>
+        <v>26520</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1000</v>
+        <v>1061</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44298</v>
+        <v>44225</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K114" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L114" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M114" t="n">
-        <v>25000</v>
+        <v>29556</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1000</v>
+        <v>1182</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44383</v>
+        <v>44225</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K115" t="n">
         <v>34000</v>
@@ -8646,7 +8646,7 @@
         <v>35000</v>
       </c>
       <c r="M115" t="n">
-        <v>34500</v>
+        <v>34625</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44354</v>
+        <v>44194</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K116" t="n">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="L116" t="n">
-        <v>34000</v>
+        <v>43000</v>
       </c>
       <c r="M116" t="n">
-        <v>33500</v>
+        <v>42500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1340</v>
+        <v>1700</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44169</v>
+        <v>44194</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K117" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="L117" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="M117" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>880</v>
+        <v>1600</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44169</v>
+        <v>44390</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K118" t="n">
         <v>25000</v>
       </c>
       <c r="L118" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M118" t="n">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44169</v>
+        <v>44321</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,25 +8916,25 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K119" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L119" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M119" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44412</v>
+        <v>44298</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K120" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L120" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M120" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K121" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L121" t="n">
         <v>35000</v>
       </c>
-      <c r="L121" t="n">
-        <v>36000</v>
-      </c>
       <c r="M121" t="n">
-        <v>35500</v>
+        <v>34500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1420</v>
+        <v>1380</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44336</v>
+        <v>44354</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K122" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L122" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M122" t="n">
-        <v>29000</v>
+        <v>33500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1160</v>
+        <v>1340</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44300</v>
+        <v>44169</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K123" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L123" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="M123" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1360</v>
+        <v>880</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44214</v>
+        <v>44169</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K124" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L124" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M124" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1480</v>
+        <v>1000</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44371</v>
+        <v>44169</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K125" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L125" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M125" t="n">
-        <v>34480</v>
+        <v>20000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1379</v>
+        <v>800</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44238</v>
+        <v>44412</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,29 +9429,29 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K126" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L126" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M126" t="n">
-        <v>25000</v>
+        <v>27500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44274</v>
+        <v>44412</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,29 +9501,29 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K127" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L127" t="n">
-        <v>21000</v>
+        <v>36000</v>
       </c>
       <c r="M127" t="n">
-        <v>21000</v>
+        <v>35500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>840</v>
+        <v>1420</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K128" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L128" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M128" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44314</v>
+        <v>44300</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9648,26 +9648,26 @@
         <v>30</v>
       </c>
       <c r="K129" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L129" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M129" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1080</v>
+        <v>1360</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44314</v>
+        <v>44214</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,29 +9717,29 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K130" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="L130" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M130" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1200</v>
+        <v>1480</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K131" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L131" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M131" t="n">
-        <v>25500</v>
+        <v>34480</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1020</v>
+        <v>1379</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44405</v>
+        <v>44238</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,29 +9861,29 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K132" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L132" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M132" t="n">
-        <v>21512</v>
+        <v>25000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44224</v>
+        <v>44274</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L133" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="M133" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1320</v>
+        <v>840</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44224</v>
+        <v>44320</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="K134" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L134" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M134" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1200</v>
+        <v>1280</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44260</v>
+        <v>44314</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K135" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L135" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M135" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K136" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L136" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M136" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1240</v>
+        <v>1200</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44209</v>
+        <v>44364</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K137" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L137" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M137" t="n">
-        <v>29333</v>
+        <v>25500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1173</v>
+        <v>1020</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44209</v>
+        <v>44405</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K138" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L138" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M138" t="n">
-        <v>31125</v>
+        <v>21512</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1245</v>
+        <v>860</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K139" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L139" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M139" t="n">
-        <v>22545</v>
+        <v>33000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>902</v>
+        <v>1320</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10440,13 +10440,13 @@
         <v>65</v>
       </c>
       <c r="K140" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L140" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M140" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44313</v>
+        <v>44260</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K141" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L141" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M141" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K142" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L142" t="n">
         <v>31000</v>
       </c>
       <c r="M142" t="n">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K143" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L143" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M143" t="n">
-        <v>24500</v>
+        <v>29333</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>980</v>
+        <v>1173</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44193</v>
+        <v>44209</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K144" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L144" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="M144" t="n">
-        <v>40000</v>
+        <v>31125</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1600</v>
+        <v>1245</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,29 +10797,29 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K145" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="L145" t="n">
-        <v>43000</v>
+        <v>23000</v>
       </c>
       <c r="M145" t="n">
-        <v>42400</v>
+        <v>22545</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1696</v>
+        <v>902</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44351</v>
+        <v>44231</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="K146" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L146" t="n">
         <v>33000</v>
       </c>
       <c r="M146" t="n">
-        <v>32512</v>
+        <v>33000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1300</v>
+        <v>1320</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,29 +10941,29 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K147" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="L147" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M147" t="n">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1260</v>
+        <v>1080</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,29 +11013,29 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K148" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L148" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="M148" t="n">
-        <v>27000</v>
+        <v>30500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1080</v>
+        <v>1220</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44278</v>
+        <v>44391</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,29 +11085,29 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K149" t="n">
         <v>24000</v>
       </c>
       <c r="L149" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M149" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44358</v>
+        <v>44193</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,29 +11157,29 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L150" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="M150" t="n">
-        <v>33488</v>
+        <v>40000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1340</v>
+        <v>1600</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44399</v>
+        <v>44193</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K151" t="n">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="L151" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="M151" t="n">
-        <v>21500</v>
+        <v>42400</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>860</v>
+        <v>1696</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44251</v>
+        <v>44351</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K152" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L152" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="M152" t="n">
-        <v>29000</v>
+        <v>32512</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1160</v>
+        <v>1300</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K153" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L153" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M153" t="n">
-        <v>27000</v>
+        <v>31500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K154" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L154" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M154" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44294</v>
+        <v>44278</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,29 +11517,29 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K155" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L155" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M155" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44245</v>
+        <v>44358</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,29 +11589,29 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K156" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L156" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="M156" t="n">
-        <v>17000</v>
+        <v>33488</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>680</v>
+        <v>1340</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44245</v>
+        <v>44399</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K157" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L157" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M157" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1160</v>
+        <v>860</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44202</v>
+        <v>44251</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,29 +11733,29 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K158" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L158" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="M158" t="n">
-        <v>23111</v>
+        <v>29000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>924</v>
+        <v>1160</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44202</v>
+        <v>44292</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K159" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L159" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M159" t="n">
-        <v>29333</v>
+        <v>27000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K160" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L160" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M160" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K161" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L161" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M161" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1000</v>
+        <v>1120</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44369</v>
+        <v>44417</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K162" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="L162" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="M162" t="n">
-        <v>16500</v>
+        <v>28500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>660</v>
+        <v>1140</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44307</v>
+        <v>44417</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K163" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L163" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M163" t="n">
-        <v>28000</v>
+        <v>35500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1120</v>
+        <v>1420</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44161</v>
+        <v>44419</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K164" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L164" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M164" t="n">
-        <v>25000</v>
+        <v>33480</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1000</v>
+        <v>1339</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44161</v>
+        <v>44419</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K165" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L165" t="n">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="M165" t="n">
-        <v>30000</v>
+        <v>40500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1200</v>
+        <v>1620</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44195</v>
+        <v>44420</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K166" t="n">
-        <v>39000</v>
+        <v>33000</v>
       </c>
       <c r="L166" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="M166" t="n">
-        <v>39500</v>
+        <v>33480</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1580</v>
+        <v>1339</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44195</v>
+        <v>44420</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="K167" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L167" t="n">
         <v>41000</v>
       </c>
-      <c r="L167" t="n">
-        <v>42000</v>
-      </c>
       <c r="M167" t="n">
-        <v>41500</v>
+        <v>40500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1660</v>
+        <v>1620</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44265</v>
+        <v>44245</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K168" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L168" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M168" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44159</v>
+        <v>44245</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K169" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L169" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M169" t="n">
-        <v>26857</v>
+        <v>29000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1074</v>
+        <v>1160</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44159</v>
+        <v>44202</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K170" t="n">
-        <v>45000</v>
+        <v>22000</v>
       </c>
       <c r="L170" t="n">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="M170" t="n">
-        <v>45000</v>
+        <v>23111</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1800</v>
+        <v>924</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,29 +12669,29 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="K171" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L171" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M171" t="n">
-        <v>27455</v>
+        <v>29333</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1098</v>
+        <v>1173</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44201</v>
+        <v>44181</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K172" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L172" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M172" t="n">
-        <v>29588</v>
+        <v>22000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1184</v>
+        <v>880</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44309</v>
+        <v>44181</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K173" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L173" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M173" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K174" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L174" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>31000</v>
+        <v>16500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1240</v>
+        <v>660</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44188</v>
+        <v>44307</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K175" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L175" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M175" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44344</v>
+        <v>44161</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K176" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L176" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M176" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44344</v>
+        <v>44161</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K177" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L177" t="n">
-        <v>41000</v>
+        <v>30000</v>
       </c>
       <c r="M177" t="n">
-        <v>40524</v>
+        <v>30000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1621</v>
+        <v>1200</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44319</v>
+        <v>44195</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K178" t="n">
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="L178" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="M178" t="n">
-        <v>34000</v>
+        <v>39500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1360</v>
+        <v>1580</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44316</v>
+        <v>44195</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K179" t="n">
-        <v>34000</v>
+        <v>41000</v>
       </c>
       <c r="L179" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M179" t="n">
-        <v>34000</v>
+        <v>41500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1360</v>
+        <v>1660</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44253</v>
+        <v>44265</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13320,13 +13320,13 @@
         <v>50</v>
       </c>
       <c r="K180" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L180" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M180" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44281</v>
+        <v>44159</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K181" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L181" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M181" t="n">
-        <v>23000</v>
+        <v>26857</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>920</v>
+        <v>1074</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44186</v>
+        <v>44159</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="L182" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M182" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44211</v>
+        <v>44201</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K183" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L183" t="n">
         <v>28000</v>
       </c>
-      <c r="L183" t="n">
-        <v>29000</v>
-      </c>
       <c r="M183" t="n">
-        <v>28500</v>
+        <v>27455</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1140</v>
+        <v>1098</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44301</v>
+        <v>44201</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K184" t="n">
         <v>29000</v>
       </c>
       <c r="L184" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M184" t="n">
-        <v>29000</v>
+        <v>29588</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1160</v>
+        <v>1184</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44272</v>
+        <v>44309</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K185" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L185" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M185" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13695,11 +13695,11 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>880</v>
+        <v>1120</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44370</v>
+        <v>44309</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K186" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="L186" t="n">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="M186" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44230</v>
+        <v>44188</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K187" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L187" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M187" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44230</v>
+        <v>44344</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K188" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L188" t="n">
         <v>28000</v>
       </c>
       <c r="M188" t="n">
-        <v>28000</v>
+        <v>27500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44230</v>
+        <v>44344</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,29 +13965,29 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K189" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="L189" t="n">
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="M189" t="n">
-        <v>26000</v>
+        <v>40524</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1040</v>
+        <v>1621</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44232</v>
+        <v>44319</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K190" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L190" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M190" t="n">
-        <v>22571</v>
+        <v>34000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>903</v>
+        <v>1360</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44232</v>
+        <v>44316</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K191" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L191" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M191" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44398</v>
+        <v>44253</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K192" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L192" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M192" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44355</v>
+        <v>44281</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,29 +14253,29 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K193" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L193" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M193" t="n">
-        <v>34500</v>
+        <v>23000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1380</v>
+        <v>920</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44286</v>
+        <v>44186</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K194" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L194" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M194" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44217</v>
+        <v>44211</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14403,10 +14403,10 @@
         <v>28000</v>
       </c>
       <c r="L195" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M195" t="n">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14472,26 +14472,26 @@
         <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L196" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M196" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44244</v>
+        <v>44272</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K197" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L197" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M197" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44343</v>
+        <v>44370</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K198" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L198" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="M198" t="n">
-        <v>28500</v>
+        <v>35000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1140</v>
+        <v>1400</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44343</v>
+        <v>44230</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="L199" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M199" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1640</v>
+        <v>1000</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44223</v>
+        <v>44230</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14760,26 +14760,26 @@
         <v>50</v>
       </c>
       <c r="K200" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L200" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M200" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44223</v>
+        <v>44230</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,20 +14829,20 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K201" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L201" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M201" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1400</v>
+        <v>1040</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44376</v>
+        <v>44232</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,29 +14901,29 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K202" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L202" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M202" t="n">
-        <v>18977</v>
+        <v>22571</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>759</v>
+        <v>903</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44208</v>
+        <v>44232</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K203" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L203" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M203" t="n">
-        <v>29273</v>
+        <v>33000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1171</v>
+        <v>1320</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44208</v>
+        <v>44398</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="K204" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L204" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="M204" t="n">
-        <v>32400</v>
+        <v>21500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1296</v>
+        <v>860</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44179</v>
+        <v>44355</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K205" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L205" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M205" t="n">
-        <v>25000</v>
+        <v>34500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1000</v>
+        <v>1380</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44334</v>
+        <v>44286</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,29 +15189,29 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K206" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L206" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M206" t="n">
-        <v>29500</v>
+        <v>27000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1180</v>
+        <v>1080</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15264,26 +15264,26 @@
         <v>70</v>
       </c>
       <c r="K207" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L207" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M207" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,58 +15309,994 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E208" t="n">
+        <v>13</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J208" t="n">
+        <v>50</v>
+      </c>
+      <c r="K208" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L208" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M208" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>640</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>25</v>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>9</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="E209" t="n">
+        <v>13</v>
+      </c>
+      <c r="F209" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J209" t="n">
+        <v>40</v>
+      </c>
+      <c r="K209" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L209" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M209" t="n">
+        <v>28000</v>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>1120</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>25</v>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>9</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E210" t="n">
+        <v>13</v>
+      </c>
+      <c r="F210" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J210" t="n">
+        <v>50</v>
+      </c>
+      <c r="K210" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L210" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M210" t="n">
+        <v>28500</v>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>1140</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>25</v>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>9</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E211" t="n">
+        <v>13</v>
+      </c>
+      <c r="F211" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>20</v>
+      </c>
+      <c r="K211" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L211" t="n">
+        <v>42000</v>
+      </c>
+      <c r="M211" t="n">
+        <v>41000</v>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>1640</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>25</v>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>9</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="E212" t="n">
+        <v>13</v>
+      </c>
+      <c r="F212" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>50</v>
+      </c>
+      <c r="K212" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L212" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M212" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>25</v>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>9</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="E213" t="n">
+        <v>13</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J213" t="n">
+        <v>60</v>
+      </c>
+      <c r="K213" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L213" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M213" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>1400</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>25</v>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>9</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E214" t="n">
+        <v>13</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J214" t="n">
+        <v>43</v>
+      </c>
+      <c r="K214" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L214" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M214" t="n">
+        <v>18977</v>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>759</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>25</v>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>9</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E215" t="n">
+        <v>13</v>
+      </c>
+      <c r="F215" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J215" t="n">
+        <v>110</v>
+      </c>
+      <c r="K215" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L215" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M215" t="n">
+        <v>29273</v>
+      </c>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>1171</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>25</v>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>9</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E216" t="n">
+        <v>13</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J216" t="n">
+        <v>100</v>
+      </c>
+      <c r="K216" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L216" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M216" t="n">
+        <v>32400</v>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>1296</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>25</v>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>9</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E217" t="n">
+        <v>13</v>
+      </c>
+      <c r="F217" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J217" t="n">
+        <v>50</v>
+      </c>
+      <c r="K217" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L217" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M217" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>25</v>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>9</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E218" t="n">
+        <v>13</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J218" t="n">
+        <v>34</v>
+      </c>
+      <c r="K218" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L218" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M218" t="n">
+        <v>29500</v>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>1180</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>25</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>9</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E208" t="n">
-        <v>13</v>
-      </c>
-      <c r="F208" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="E219" t="n">
+        <v>13</v>
+      </c>
+      <c r="F219" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J219" t="n">
+        <v>70</v>
+      </c>
+      <c r="K219" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L219" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M219" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>25</v>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>9</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13</v>
+      </c>
+      <c r="F220" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J208" t="n">
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J220" t="n">
         <v>60</v>
       </c>
-      <c r="K208" t="n">
+      <c r="K220" t="n">
         <v>23000</v>
       </c>
-      <c r="L208" t="n">
+      <c r="L220" t="n">
         <v>23000</v>
       </c>
-      <c r="M208" t="n">
+      <c r="M220" t="n">
         <v>23000</v>
       </c>
-      <c r="N208" t="inlineStr">
+      <c r="N220" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O208" t="inlineStr">
+      <c r="O220" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="P208" t="n">
+      <c r="P220" t="n">
         <v>920</v>
       </c>
-      <c r="Q208" t="n">
-        <v>25</v>
-      </c>
-      <c r="R208" t="inlineStr">
+      <c r="Q220" t="n">
+        <v>25</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>9</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13</v>
+      </c>
+      <c r="F221" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>34</v>
+      </c>
+      <c r="K221" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L221" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M221" t="n">
+        <v>32500</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>1300</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>25</v>
+      </c>
+      <c r="R221" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R221"/>
+  <dimension ref="A1:R229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5328,13 +5328,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L69" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M69" t="n">
-        <v>19000</v>
+        <v>25500</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>760</v>
+        <v>1020</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44174</v>
+        <v>44434</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5397,29 +5397,29 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K70" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="L70" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M70" t="n">
-        <v>24000</v>
+        <v>36500</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>960</v>
+        <v>1460</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5469,29 +5469,29 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K71" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L71" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M71" t="n">
-        <v>32333</v>
+        <v>19000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1293</v>
+        <v>760</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44271</v>
+        <v>44174</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K72" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L72" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M72" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,29 +5613,29 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K73" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L73" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M73" t="n">
-        <v>25000</v>
+        <v>32333</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1000</v>
+        <v>1293</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L74" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="M74" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5703,11 +5703,11 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5760,13 +5760,13 @@
         <v>50</v>
       </c>
       <c r="K75" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L75" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M75" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1080</v>
+        <v>1000</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K76" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L76" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M76" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44299</v>
+        <v>44280</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L77" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M77" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5973,7 +5973,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K78" t="n">
         <v>25000</v>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44162</v>
+        <v>44299</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K79" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L79" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M79" t="n">
-        <v>29250</v>
+        <v>29000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E80" t="n">
         <v>13</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K80" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="L80" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M80" t="n">
-        <v>29040</v>
+        <v>31500</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1162</v>
+        <v>1260</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6192,13 +6192,13 @@
         <v>25</v>
       </c>
       <c r="K81" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L81" t="n">
-        <v>44000</v>
+        <v>36000</v>
       </c>
       <c r="M81" t="n">
-        <v>43520</v>
+        <v>35480</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1741</v>
+        <v>1419</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K82" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L82" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M82" t="n">
-        <v>34500</v>
+        <v>25000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1380</v>
+        <v>1000</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44175</v>
+        <v>44162</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,29 +6333,29 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K83" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L83" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M83" t="n">
-        <v>24500</v>
+        <v>29250</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>980</v>
+        <v>1170</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K84" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L84" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M84" t="n">
-        <v>24500</v>
+        <v>29040</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6423,11 +6423,11 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>980</v>
+        <v>1162</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44242</v>
+        <v>44342</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,29 +6477,29 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K85" t="n">
-        <v>23000</v>
+        <v>43000</v>
       </c>
       <c r="L85" t="n">
-        <v>24000</v>
+        <v>44000</v>
       </c>
       <c r="M85" t="n">
-        <v>23500</v>
+        <v>43520</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>940</v>
+        <v>1741</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K86" t="n">
         <v>34000</v>
       </c>
       <c r="L86" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M86" t="n">
-        <v>34000</v>
+        <v>34500</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44363</v>
+        <v>44175</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,29 +6621,29 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K87" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L87" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M87" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1380</v>
+        <v>980</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44216</v>
+        <v>44384</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6693,29 +6693,29 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K88" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L88" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M88" t="n">
-        <v>28000</v>
+        <v>24500</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1120</v>
+        <v>980</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44216</v>
+        <v>44242</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6765,29 +6765,29 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K89" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L89" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M89" t="n">
-        <v>30000</v>
+        <v>23500</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1200</v>
+        <v>940</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6828,7 +6828,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K90" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L90" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M90" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1300</v>
+        <v>1360</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K91" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L91" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M91" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>980</v>
+        <v>1380</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6977,33 +6977,33 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K92" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L92" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M92" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>880</v>
+        <v>1120</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44258</v>
+        <v>44216</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7056,26 +7056,26 @@
         <v>50</v>
       </c>
       <c r="K93" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L93" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M93" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K94" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L94" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="M94" t="n">
-        <v>29000</v>
+        <v>32500</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1160</v>
+        <v>1300</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,29 +7197,29 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K95" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L95" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M95" t="n">
-        <v>16000</v>
+        <v>24500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>640</v>
+        <v>980</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7260,25 +7260,25 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K96" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L96" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="M96" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7287,11 +7287,11 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1120</v>
+        <v>880</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7341,29 +7341,29 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K97" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L97" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="M97" t="n">
-        <v>31500</v>
+        <v>20000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1260</v>
+        <v>800</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44413</v>
+        <v>44258</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K98" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L98" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M98" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1100</v>
+        <v>1160</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,29 +7485,29 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K99" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="L99" t="n">
-        <v>36000</v>
+        <v>16000</v>
       </c>
       <c r="M99" t="n">
-        <v>35500</v>
+        <v>16000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1420</v>
+        <v>640</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44176</v>
+        <v>44243</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K100" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L100" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M100" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K101" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="L101" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M101" t="n">
-        <v>34500</v>
+        <v>31500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1380</v>
+        <v>1260</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K102" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L102" t="n">
-        <v>39000</v>
+        <v>28000</v>
       </c>
       <c r="M102" t="n">
-        <v>37960</v>
+        <v>27500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1518</v>
+        <v>1100</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,29 +7773,29 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K103" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L103" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M103" t="n">
-        <v>33000</v>
+        <v>35500</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1320</v>
+        <v>1420</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K104" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L104" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M104" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1400</v>
+        <v>840</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44237</v>
+        <v>44421</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,29 +7917,29 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K105" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L105" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M105" t="n">
-        <v>26000</v>
+        <v>34500</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1040</v>
+        <v>1380</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44237</v>
+        <v>44421</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K106" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L106" t="n">
-        <v>28000</v>
+        <v>39000</v>
       </c>
       <c r="M106" t="n">
-        <v>28000</v>
+        <v>37960</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1120</v>
+        <v>1518</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K107" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L107" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M107" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>880</v>
+        <v>1320</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K108" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L108" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M108" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,29 +8205,29 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K109" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L109" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M109" t="n">
-        <v>17500</v>
+        <v>26000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>700</v>
+        <v>1040</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K110" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L110" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M110" t="n">
-        <v>34520</v>
+        <v>28000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1381</v>
+        <v>1120</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,29 +8349,29 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K111" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L111" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M111" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K112" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L112" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M112" t="n">
-        <v>21023</v>
+        <v>27000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>841</v>
+        <v>1080</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K113" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L113" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M113" t="n">
-        <v>26520</v>
+        <v>17500</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1061</v>
+        <v>700</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44225</v>
+        <v>44377</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,29 +8565,29 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K114" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L114" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M114" t="n">
-        <v>29556</v>
+        <v>34520</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1182</v>
+        <v>1381</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K115" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L115" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M115" t="n">
-        <v>34625</v>
+        <v>30000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1385</v>
+        <v>1200</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K116" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="L116" t="n">
-        <v>43000</v>
+        <v>22000</v>
       </c>
       <c r="M116" t="n">
-        <v>42500</v>
+        <v>21023</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1700</v>
+        <v>841</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44194</v>
+        <v>44426</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,29 +8781,29 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K117" t="n">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="L117" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="M117" t="n">
-        <v>40000</v>
+        <v>26520</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1600</v>
+        <v>1061</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44390</v>
+        <v>44225</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,29 +8853,29 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="K118" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L118" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M118" t="n">
-        <v>25500</v>
+        <v>29556</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1020</v>
+        <v>1182</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44321</v>
+        <v>44225</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K119" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L119" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M119" t="n">
-        <v>25000</v>
+        <v>34625</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1000</v>
+        <v>1385</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44298</v>
+        <v>44194</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K120" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="L120" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="M120" t="n">
-        <v>25000</v>
+        <v>42500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,29 +9069,29 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K121" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L121" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M121" t="n">
-        <v>34500</v>
+        <v>40000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1380</v>
+        <v>1600</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44354</v>
+        <v>44390</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K122" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L122" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="M122" t="n">
-        <v>33500</v>
+        <v>25500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1340</v>
+        <v>1020</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44169</v>
+        <v>44321</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K123" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L123" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M123" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44169</v>
+        <v>44298</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K124" t="n">
         <v>25000</v>
@@ -9298,12 +9298,12 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K125" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L125" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M125" t="n">
-        <v>20000</v>
+        <v>34500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>800</v>
+        <v>1380</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9432,13 +9432,13 @@
         <v>34</v>
       </c>
       <c r="K126" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L126" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M126" t="n">
-        <v>27500</v>
+        <v>33500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1100</v>
+        <v>1340</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,29 +9501,29 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K127" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L127" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M127" t="n">
-        <v>35500</v>
+        <v>22000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1420</v>
+        <v>880</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K128" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L128" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M128" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44300</v>
+        <v>44169</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K129" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L129" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M129" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1360</v>
+        <v>800</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44214</v>
+        <v>44412</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,29 +9717,29 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K130" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L130" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M130" t="n">
-        <v>37000</v>
+        <v>27500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1480</v>
+        <v>1100</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K131" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L131" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M131" t="n">
-        <v>34480</v>
+        <v>35500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1379</v>
+        <v>1420</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44238</v>
+        <v>44336</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,29 +9861,29 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K132" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L132" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M132" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44274</v>
+        <v>44300</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,29 +9933,29 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K133" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L133" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="M133" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>840</v>
+        <v>1360</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44320</v>
+        <v>44214</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,29 +10005,29 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K134" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="L134" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="M134" t="n">
-        <v>32000</v>
+        <v>37000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1280</v>
+        <v>1480</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44314</v>
+        <v>44371</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,29 +10077,29 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K135" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L135" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M135" t="n">
-        <v>27000</v>
+        <v>34480</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1080</v>
+        <v>1379</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,29 +10149,29 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K136" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L136" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M136" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K137" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L137" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M137" t="n">
-        <v>25500</v>
+        <v>21000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1020</v>
+        <v>840</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K138" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="L138" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M138" t="n">
-        <v>21512</v>
+        <v>32000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>860</v>
+        <v>1280</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44224</v>
+        <v>44314</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K139" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L139" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M139" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1320</v>
+        <v>1080</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44314</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="K140" t="n">
         <v>30000</v>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44260</v>
+        <v>44364</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K141" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L141" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M141" t="n">
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>720</v>
+        <v>1020</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="K142" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L142" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M142" t="n">
-        <v>31000</v>
+        <v>26393</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1240</v>
+        <v>1056</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44209</v>
+        <v>44435</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K143" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L143" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M143" t="n">
-        <v>29333</v>
+        <v>35860</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1173</v>
+        <v>1434</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44209</v>
+        <v>44405</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K144" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L144" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M144" t="n">
-        <v>31125</v>
+        <v>21512</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1245</v>
+        <v>860</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K145" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L145" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M145" t="n">
-        <v>22545</v>
+        <v>33000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>902</v>
+        <v>1320</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44231</v>
+        <v>44224</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10872,13 +10872,13 @@
         <v>65</v>
       </c>
       <c r="K146" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L146" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M146" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44313</v>
+        <v>44260</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K147" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L147" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M147" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="K148" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L148" t="n">
         <v>31000</v>
       </c>
       <c r="M148" t="n">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44391</v>
+        <v>44209</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11085,29 +11085,29 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K149" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L149" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M149" t="n">
-        <v>24500</v>
+        <v>29333</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>980</v>
+        <v>1173</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44193</v>
+        <v>44209</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,29 +11157,29 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K150" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L150" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="M150" t="n">
-        <v>40000</v>
+        <v>31125</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1600</v>
+        <v>1245</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K151" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="L151" t="n">
-        <v>43000</v>
+        <v>23000</v>
       </c>
       <c r="M151" t="n">
-        <v>42400</v>
+        <v>22545</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1696</v>
+        <v>902</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44351</v>
+        <v>44231</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="K152" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L152" t="n">
         <v>33000</v>
       </c>
       <c r="M152" t="n">
-        <v>32512</v>
+        <v>33000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1300</v>
+        <v>1320</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44350</v>
+        <v>44313</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K153" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="L153" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="M153" t="n">
-        <v>31500</v>
+        <v>27000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1260</v>
+        <v>1080</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11445,29 +11445,29 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K154" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L154" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="M154" t="n">
-        <v>27000</v>
+        <v>30500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1080</v>
+        <v>1220</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44278</v>
+        <v>44391</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,29 +11517,29 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K155" t="n">
         <v>24000</v>
       </c>
       <c r="L155" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M155" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44358</v>
+        <v>44193</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,29 +11589,29 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156" t="n">
-        <v>33000</v>
+        <v>40000</v>
       </c>
       <c r="L156" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="M156" t="n">
-        <v>33488</v>
+        <v>40000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1340</v>
+        <v>1600</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44399</v>
+        <v>44193</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K157" t="n">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="L157" t="n">
-        <v>22000</v>
+        <v>43000</v>
       </c>
       <c r="M157" t="n">
-        <v>21500</v>
+        <v>42400</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>860</v>
+        <v>1696</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44251</v>
+        <v>44351</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K158" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L158" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="M158" t="n">
-        <v>29000</v>
+        <v>32512</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1160</v>
+        <v>1300</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44292</v>
+        <v>44350</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K159" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L159" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M159" t="n">
-        <v>27000</v>
+        <v>31500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1080</v>
+        <v>1260</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44294</v>
+        <v>44315</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K160" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L160" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M160" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44294</v>
+        <v>44278</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K161" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L161" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M161" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44417</v>
+        <v>44358</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K162" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L162" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M162" t="n">
-        <v>28500</v>
+        <v>33488</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K163" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L163" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M163" t="n">
-        <v>35500</v>
+        <v>21500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1420</v>
+        <v>860</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44419</v>
+        <v>44251</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K164" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L164" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M164" t="n">
-        <v>33480</v>
+        <v>29000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1339</v>
+        <v>1160</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44419</v>
+        <v>44292</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K165" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L165" t="n">
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="M165" t="n">
-        <v>40500</v>
+        <v>27000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1620</v>
+        <v>1080</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K166" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L166" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="M166" t="n">
-        <v>33480</v>
+        <v>23000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1339</v>
+        <v>920</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K167" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L167" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="M167" t="n">
-        <v>40500</v>
+        <v>28000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1620</v>
+        <v>1120</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K168" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="L168" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="M168" t="n">
-        <v>17000</v>
+        <v>28500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>680</v>
+        <v>1140</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K169" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L169" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="M169" t="n">
-        <v>29000</v>
+        <v>35500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1160</v>
+        <v>1420</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44202</v>
+        <v>44419</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K170" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L170" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M170" t="n">
-        <v>23111</v>
+        <v>33480</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>924</v>
+        <v>1339</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44202</v>
+        <v>44419</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="K171" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L171" t="n">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="M171" t="n">
-        <v>29333</v>
+        <v>40500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1173</v>
+        <v>1620</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L172" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M172" t="n">
-        <v>22000</v>
+        <v>33480</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>880</v>
+        <v>1339</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44181</v>
+        <v>44420</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,29 +12813,29 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K173" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L173" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="M173" t="n">
-        <v>25000</v>
+        <v>40500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1000</v>
+        <v>1620</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K174" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L174" t="n">
         <v>17000</v>
       </c>
       <c r="M174" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,29 +12957,29 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K175" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L175" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M175" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K176" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L176" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M176" t="n">
-        <v>25000</v>
+        <v>23111</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1000</v>
+        <v>924</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="K177" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L177" t="n">
         <v>30000</v>
       </c>
       <c r="M177" t="n">
-        <v>30000</v>
+        <v>29333</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K178" t="n">
-        <v>39000</v>
+        <v>22000</v>
       </c>
       <c r="L178" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="M178" t="n">
-        <v>39500</v>
+        <v>22000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1580</v>
+        <v>880</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44195</v>
+        <v>44181</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K179" t="n">
-        <v>41000</v>
+        <v>25000</v>
       </c>
       <c r="L179" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M179" t="n">
-        <v>41500</v>
+        <v>25000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1660</v>
+        <v>1000</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44265</v>
+        <v>44369</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,29 +13317,29 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K180" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L180" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M180" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>880</v>
+        <v>660</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K181" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L181" t="n">
         <v>28000</v>
       </c>
       <c r="M181" t="n">
-        <v>26857</v>
+        <v>28000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1074</v>
+        <v>1120</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K182" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="L182" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="M182" t="n">
-        <v>45000</v>
+        <v>25000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44201</v>
+        <v>44161</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K183" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L183" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M183" t="n">
-        <v>27455</v>
+        <v>30000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1098</v>
+        <v>1200</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44201</v>
+        <v>44195</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,29 +13605,29 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K184" t="n">
-        <v>29000</v>
+        <v>39000</v>
       </c>
       <c r="L184" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M184" t="n">
-        <v>29588</v>
+        <v>39500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1184</v>
+        <v>1580</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44309</v>
+        <v>44195</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K185" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L185" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M185" t="n">
-        <v>28000</v>
+        <v>41500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1120</v>
+        <v>1660</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K186" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L186" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M186" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1240</v>
+        <v>880</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44188</v>
+        <v>44159</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L187" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M187" t="n">
-        <v>35000</v>
+        <v>26857</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1400</v>
+        <v>1074</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44344</v>
+        <v>44159</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K188" t="n">
-        <v>27000</v>
+        <v>45000</v>
       </c>
       <c r="L188" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M188" t="n">
-        <v>27500</v>
+        <v>45000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44344</v>
+        <v>44201</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,29 +13965,29 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="K189" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L189" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="M189" t="n">
-        <v>40524</v>
+        <v>27455</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1621</v>
+        <v>1098</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44319</v>
+        <v>44201</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="K190" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L190" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M190" t="n">
-        <v>34000</v>
+        <v>29588</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1360</v>
+        <v>1184</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,29 +14109,29 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K191" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L191" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M191" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1360</v>
+        <v>1120</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44253</v>
+        <v>44309</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K192" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="L192" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M192" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>920</v>
+        <v>1240</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44281</v>
+        <v>44188</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K193" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L193" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M193" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44186</v>
+        <v>44344</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,29 +14325,29 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="K194" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L194" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M194" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="K195" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L195" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="M195" t="n">
-        <v>28500</v>
+        <v>40524</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1140</v>
+        <v>1621</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44301</v>
+        <v>44319</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K196" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L196" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M196" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1160</v>
+        <v>1360</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44272</v>
+        <v>44316</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K197" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L197" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M197" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>880</v>
+        <v>1360</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44370</v>
+        <v>44253</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L198" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="M198" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1400</v>
+        <v>920</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44230</v>
+        <v>44281</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K199" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L199" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M199" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44230</v>
+        <v>44186</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K200" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L200" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M200" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44230</v>
+        <v>44211</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,29 +14829,29 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L201" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="M201" t="n">
-        <v>26000</v>
+        <v>28500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1040</v>
+        <v>1140</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,29 +14901,29 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K202" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L202" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M202" t="n">
-        <v>22571</v>
+        <v>29000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>903</v>
+        <v>1160</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44232</v>
+        <v>44272</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K203" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L203" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M203" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1320</v>
+        <v>880</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44398</v>
+        <v>44370</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L204" t="n">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="M204" t="n">
-        <v>21500</v>
+        <v>35000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>860</v>
+        <v>1400</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44355</v>
+        <v>44230</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K205" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L205" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M205" t="n">
-        <v>34500</v>
+        <v>25000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1380</v>
+        <v>1000</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44286</v>
+        <v>44230</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15192,26 +15192,26 @@
         <v>50</v>
       </c>
       <c r="K206" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L206" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M206" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K207" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L207" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="M207" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44244</v>
+        <v>44232</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L208" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M208" t="n">
-        <v>16000</v>
+        <v>22571</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>640</v>
+        <v>903</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44244</v>
+        <v>44232</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K209" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L209" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M209" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1120</v>
+        <v>1320</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K210" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L210" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M210" t="n">
-        <v>28500</v>
+        <v>21500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1140</v>
+        <v>860</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K211" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L211" t="n">
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="M211" t="n">
-        <v>41000</v>
+        <v>34500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1640</v>
+        <v>1380</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44223</v>
+        <v>44286</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15624,13 +15624,13 @@
         <v>50</v>
       </c>
       <c r="K212" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L212" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M212" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1400</v>
+        <v>1080</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K213" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L213" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M213" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44376</v>
+        <v>44244</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K214" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L214" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M214" t="n">
-        <v>18977</v>
+        <v>16000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44208</v>
+        <v>44244</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,29 +15837,29 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K215" t="n">
         <v>28000</v>
       </c>
       <c r="L215" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M215" t="n">
-        <v>29273</v>
+        <v>28000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1171</v>
+        <v>1120</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44208</v>
+        <v>44343</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K216" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L216" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M216" t="n">
-        <v>32400</v>
+        <v>28500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1296</v>
+        <v>1140</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,29 +15981,29 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K217" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L217" t="n">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="M217" t="n">
-        <v>25000</v>
+        <v>41000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1000</v>
+        <v>1640</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44334</v>
+        <v>44223</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,29 +16053,29 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K218" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L218" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M218" t="n">
-        <v>29500</v>
+        <v>35000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1180</v>
+        <v>1400</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44168</v>
+        <v>44223</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,29 +16125,29 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K219" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L219" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M219" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44168</v>
+        <v>44376</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="K220" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L220" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M220" t="n">
-        <v>23000</v>
+        <v>18977</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>920</v>
+        <v>759</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,58 +16245,634 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E221" t="n">
+        <v>13</v>
+      </c>
+      <c r="F221" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>110</v>
+      </c>
+      <c r="K221" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L221" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M221" t="n">
+        <v>29273</v>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>1171</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>25</v>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>9</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E222" t="n">
+        <v>13</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>100</v>
+      </c>
+      <c r="K222" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L222" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M222" t="n">
+        <v>32400</v>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>1296</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>25</v>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>9</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E223" t="n">
+        <v>13</v>
+      </c>
+      <c r="F223" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J223" t="n">
+        <v>50</v>
+      </c>
+      <c r="K223" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L223" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M223" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>25</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>9</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E224" t="n">
+        <v>13</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J224" t="n">
+        <v>34</v>
+      </c>
+      <c r="K224" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L224" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M224" t="n">
+        <v>29500</v>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>1180</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>25</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>9</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E225" t="n">
+        <v>13</v>
+      </c>
+      <c r="F225" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>70</v>
+      </c>
+      <c r="K225" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L225" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M225" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>25</v>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>9</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E226" t="n">
+        <v>13</v>
+      </c>
+      <c r="F226" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J226" t="n">
+        <v>60</v>
+      </c>
+      <c r="K226" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L226" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M226" t="n">
+        <v>23000</v>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>25</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>9</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E221" t="n">
-        <v>13</v>
-      </c>
-      <c r="F221" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="E227" t="n">
+        <v>13</v>
+      </c>
+      <c r="F227" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>Magnum</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J221" t="n">
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
         <v>34</v>
       </c>
-      <c r="K221" t="n">
+      <c r="K227" t="n">
         <v>32000</v>
       </c>
-      <c r="L221" t="n">
+      <c r="L227" t="n">
         <v>33000</v>
       </c>
-      <c r="M221" t="n">
+      <c r="M227" t="n">
         <v>32500</v>
       </c>
-      <c r="N221" t="inlineStr">
+      <c r="N227" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr">
+      <c r="O227" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P221" t="n">
+      <c r="P227" t="n">
         <v>1300</v>
       </c>
-      <c r="Q221" t="n">
-        <v>25</v>
-      </c>
-      <c r="R221" t="inlineStr">
+      <c r="Q227" t="n">
+        <v>25</v>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>9</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E228" t="n">
+        <v>13</v>
+      </c>
+      <c r="F228" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>25</v>
+      </c>
+      <c r="K228" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L228" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M228" t="n">
+        <v>26520</v>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>1061</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>25</v>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>9</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E229" t="n">
+        <v>13</v>
+      </c>
+      <c r="F229" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>16</v>
+      </c>
+      <c r="K229" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L229" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M229" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>1380</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>25</v>
+      </c>
+      <c r="R229" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R235"/>
+  <dimension ref="A1:R237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,29 +9645,29 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K129" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="L129" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="M129" t="n">
-        <v>12500</v>
+        <v>36480</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>500</v>
+        <v>1459</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K130" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L130" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M130" t="n">
-        <v>27000</v>
+        <v>37500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9792,13 +9792,13 @@
         <v>50</v>
       </c>
       <c r="K131" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L131" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M131" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K132" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L132" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M132" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,29 +9933,29 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="L133" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="M133" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1360</v>
+        <v>840</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K134" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L134" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M134" t="n">
-        <v>25500</v>
+        <v>30000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44224</v>
+        <v>44300</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,29 +10077,29 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K135" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L135" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M135" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K136" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L136" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M136" t="n">
-        <v>30000</v>
+        <v>25500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K137" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L137" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M137" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1120</v>
+        <v>1320</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,29 +10293,29 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K138" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L138" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M138" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K139" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L139" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M139" t="n">
-        <v>34500</v>
+        <v>28000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1380</v>
+        <v>1120</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K140" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L140" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M140" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K141" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L141" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M141" t="n">
-        <v>28000</v>
+        <v>34500</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1120</v>
+        <v>1380</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K142" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L142" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M142" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1240</v>
+        <v>800</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K143" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L143" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M143" t="n">
-        <v>24500</v>
+        <v>28000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>980</v>
+        <v>1120</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K144" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="L144" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M144" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>920</v>
+        <v>1240</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K145" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L145" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M145" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,29 +10869,29 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K146" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L146" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M146" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,29 +10941,29 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K147" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L147" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M147" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K148" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L148" t="n">
         <v>26000</v>
       </c>
       <c r="M148" t="n">
-        <v>25489</v>
+        <v>26000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44235</v>
+        <v>44272</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11088,13 +11088,13 @@
         <v>50</v>
       </c>
       <c r="K149" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L149" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M149" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L150" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="M150" t="n">
-        <v>33488</v>
+        <v>25489</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1340</v>
+        <v>1020</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44218</v>
+        <v>44235</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K151" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L151" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M151" t="n">
-        <v>32571</v>
+        <v>25000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1303</v>
+        <v>1000</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,29 +11301,29 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K152" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L152" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M152" t="n">
-        <v>30000</v>
+        <v>33488</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1200</v>
+        <v>1340</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K153" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L153" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="M153" t="n">
-        <v>20500</v>
+        <v>32571</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11391,11 +11391,11 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>820</v>
+        <v>1303</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44274</v>
+        <v>44218</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K154" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L154" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M154" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K155" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L155" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M155" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K156" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L156" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M156" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K157" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L157" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M157" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,29 +11733,29 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K158" t="n">
         <v>26000</v>
       </c>
       <c r="L158" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M158" t="n">
-        <v>26520</v>
+        <v>26000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11808,13 +11808,13 @@
         <v>34</v>
       </c>
       <c r="K159" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L159" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M159" t="n">
-        <v>34500</v>
+        <v>29000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1380</v>
+        <v>1160</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11880,13 +11880,13 @@
         <v>25</v>
       </c>
       <c r="K160" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="L160" t="n">
-        <v>39000</v>
+        <v>27000</v>
       </c>
       <c r="M160" t="n">
-        <v>37960</v>
+        <v>26520</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1518</v>
+        <v>1061</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11952,13 +11952,13 @@
         <v>34</v>
       </c>
       <c r="K161" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L161" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M161" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1020</v>
+        <v>1380</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K162" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="L162" t="n">
-        <v>37000</v>
+        <v>39000</v>
       </c>
       <c r="M162" t="n">
-        <v>36500</v>
+        <v>37960</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1460</v>
+        <v>1518</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K163" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L163" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M163" t="n">
-        <v>37000</v>
+        <v>25500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1480</v>
+        <v>1020</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K164" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="L164" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M164" t="n">
-        <v>34429</v>
+        <v>36500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1377</v>
+        <v>1460</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K165" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="L165" t="n">
-        <v>43000</v>
+        <v>37000</v>
       </c>
       <c r="M165" t="n">
-        <v>42500</v>
+        <v>37000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K166" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L166" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M166" t="n">
-        <v>40000</v>
+        <v>34429</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1600</v>
+        <v>1377</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,29 +12381,29 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K167" t="n">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="L167" t="n">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="M167" t="n">
-        <v>33000</v>
+        <v>42500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1320</v>
+        <v>1700</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K168" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L168" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M168" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K169" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L169" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M169" t="n">
-        <v>21500</v>
+        <v>33000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>860</v>
+        <v>1320</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K170" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L170" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M170" t="n">
-        <v>33480</v>
+        <v>35000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1339</v>
+        <v>1400</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K171" t="n">
-        <v>40000</v>
+        <v>21000</v>
       </c>
       <c r="L171" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="M171" t="n">
-        <v>40500</v>
+        <v>21500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1620</v>
+        <v>860</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,29 +12741,29 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L172" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M172" t="n">
-        <v>23000</v>
+        <v>33480</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>920</v>
+        <v>1339</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K173" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L173" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="M173" t="n">
-        <v>27500</v>
+        <v>40500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1100</v>
+        <v>1620</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44316</v>
+        <v>44264</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K174" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L174" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="M174" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1360</v>
+        <v>920</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44253</v>
+        <v>44348</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,29 +12957,29 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K175" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L175" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M175" t="n">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>920</v>
+        <v>1100</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13032,13 +13032,13 @@
         <v>16</v>
       </c>
       <c r="K176" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="L176" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M176" t="n">
-        <v>31500</v>
+        <v>34000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1260</v>
+        <v>1360</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,29 +13101,29 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K177" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L177" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M177" t="n">
-        <v>28656</v>
+        <v>23000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1146</v>
+        <v>920</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L178" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M178" t="n">
-        <v>27500</v>
+        <v>31500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1100</v>
+        <v>1260</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K179" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L179" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M179" t="n">
-        <v>35500</v>
+        <v>28656</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1420</v>
+        <v>1146</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K180" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L180" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M180" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,29 +13389,29 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K181" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L181" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="M181" t="n">
-        <v>16000</v>
+        <v>35500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L182" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M182" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K183" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L183" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M183" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K184" t="n">
         <v>28000</v>
       </c>
       <c r="L184" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M184" t="n">
-        <v>28500</v>
+        <v>28000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L185" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M185" t="n">
-        <v>35500</v>
+        <v>21000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1420</v>
+        <v>840</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K186" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L186" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="M186" t="n">
-        <v>32500</v>
+        <v>28500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1300</v>
+        <v>1140</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K187" t="n">
         <v>35000</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K188" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="L188" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M188" t="n">
-        <v>26000</v>
+        <v>32500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1040</v>
+        <v>1300</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K189" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L189" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M189" t="n">
-        <v>28000</v>
+        <v>35500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1120</v>
+        <v>1420</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K190" t="n">
         <v>26000</v>
       </c>
       <c r="L190" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M190" t="n">
-        <v>26520</v>
+        <v>26000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K191" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L191" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M191" t="n">
-        <v>34500</v>
+        <v>28000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1380</v>
+        <v>1120</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K192" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="L192" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M192" t="n">
-        <v>32512</v>
+        <v>26520</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1300</v>
+        <v>1061</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K193" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L193" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M193" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>660</v>
+        <v>1380</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K194" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L194" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M194" t="n">
-        <v>30000</v>
+        <v>32512</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,29 +14397,29 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K195" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L195" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M195" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>880</v>
+        <v>660</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L196" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M196" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K197" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L197" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M197" t="n">
-        <v>29040</v>
+        <v>22000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1162</v>
+        <v>880</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K198" t="n">
-        <v>43000</v>
+        <v>27000</v>
       </c>
       <c r="L198" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="M198" t="n">
-        <v>43520</v>
+        <v>27000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1741</v>
+        <v>1080</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K199" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L199" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M199" t="n">
-        <v>23000</v>
+        <v>29040</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>920</v>
+        <v>1162</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K200" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="L200" t="n">
-        <v>28000</v>
+        <v>44000</v>
       </c>
       <c r="M200" t="n">
-        <v>28000</v>
+        <v>43520</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1120</v>
+        <v>1741</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,29 +14829,29 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K201" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L201" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M201" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K202" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L202" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M202" t="n">
-        <v>34480</v>
+        <v>28000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1379</v>
+        <v>1120</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K203" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L203" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M203" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K204" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L204" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M204" t="n">
-        <v>30000</v>
+        <v>34480</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1200</v>
+        <v>1379</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K205" t="n">
         <v>27000</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K206" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L206" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M206" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K207" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L207" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M207" t="n">
-        <v>36500</v>
+        <v>27000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1460</v>
+        <v>1080</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K208" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="L208" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M208" t="n">
-        <v>37500</v>
+        <v>24500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1500</v>
+        <v>980</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K209" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L209" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M209" t="n">
-        <v>26040</v>
+        <v>36500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1042</v>
+        <v>1460</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K210" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L210" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M210" t="n">
-        <v>27000</v>
+        <v>37500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15552,13 +15552,13 @@
         <v>25</v>
       </c>
       <c r="K211" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L211" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M211" t="n">
-        <v>31000</v>
+        <v>26040</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1240</v>
+        <v>1042</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44161</v>
+        <v>44313</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K212" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L212" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M212" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K213" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L213" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M213" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K214" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L214" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M214" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K215" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L215" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M215" t="n">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K216" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L216" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M216" t="n">
-        <v>35480</v>
+        <v>29000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1419</v>
+        <v>1160</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15984,13 +15984,13 @@
         <v>34</v>
       </c>
       <c r="K217" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L217" t="n">
         <v>32000</v>
       </c>
-      <c r="L217" t="n">
-        <v>33000</v>
-      </c>
       <c r="M217" t="n">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K218" t="n">
         <v>35000</v>
@@ -16062,7 +16062,7 @@
         <v>36000</v>
       </c>
       <c r="M218" t="n">
-        <v>35500</v>
+        <v>35480</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K219" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L219" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M219" t="n">
-        <v>26393</v>
+        <v>32500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1056</v>
+        <v>1300</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K220" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L220" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="M220" t="n">
-        <v>35860</v>
+        <v>35500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="K221" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L221" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M221" t="n">
-        <v>34000</v>
+        <v>26393</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1360</v>
+        <v>1056</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16344,26 +16344,26 @@
         <v>50</v>
       </c>
       <c r="K222" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L222" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M222" t="n">
-        <v>24500</v>
+        <v>35860</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>980</v>
+        <v>1434</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K223" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="L223" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="M223" t="n">
-        <v>18977</v>
+        <v>34000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>759</v>
+        <v>1360</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K224" t="n">
         <v>24000</v>
       </c>
       <c r="L224" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M224" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K225" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L225" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M225" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,29 +16629,29 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K226" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L226" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M226" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1100</v>
+        <v>960</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K227" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L227" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M227" t="n">
-        <v>35500</v>
+        <v>27000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1420</v>
+        <v>1080</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L228" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M228" t="n">
-        <v>35000</v>
+        <v>27500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K229" t="n">
         <v>35000</v>
       </c>
       <c r="L229" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M229" t="n">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K230" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L230" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M230" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K231" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L231" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M231" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K232" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L232" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M232" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>920</v>
+        <v>1080</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M233" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K234" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L234" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M234" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,58 +17253,202 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F235" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>30</v>
+      </c>
+      <c r="K235" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L235" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M235" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>25</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>9</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E236" t="n">
+        <v>13</v>
+      </c>
+      <c r="F236" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>34</v>
+      </c>
+      <c r="K236" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L236" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M236" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>860</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>25</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>9</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E235" t="n">
-        <v>13</v>
-      </c>
-      <c r="F235" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="E237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F237" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>Magnum</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J235" t="n">
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
         <v>43</v>
       </c>
-      <c r="K235" t="n">
+      <c r="K237" t="n">
         <v>20000</v>
       </c>
-      <c r="L235" t="n">
+      <c r="L237" t="n">
         <v>22000</v>
       </c>
-      <c r="M235" t="n">
+      <c r="M237" t="n">
         <v>21023</v>
       </c>
-      <c r="N235" t="inlineStr">
+      <c r="N237" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="O237" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P235" t="n">
+      <c r="P237" t="n">
         <v>841</v>
       </c>
-      <c r="Q235" t="n">
-        <v>25</v>
-      </c>
-      <c r="R235" t="inlineStr">
+      <c r="Q237" t="n">
+        <v>25</v>
+      </c>
+      <c r="R237" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R237"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K234" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L234" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="M234" t="n">
-        <v>23000</v>
+        <v>37500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K235" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M235" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1000</v>
+        <v>1480</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K236" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L236" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M236" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,58 +17397,202 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E237" t="n">
+        <v>13</v>
+      </c>
+      <c r="F237" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>30</v>
+      </c>
+      <c r="K237" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L237" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M237" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>25</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>9</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E238" t="n">
+        <v>13</v>
+      </c>
+      <c r="F238" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J238" t="n">
+        <v>34</v>
+      </c>
+      <c r="K238" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L238" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M238" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>860</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>25</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>9</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E237" t="n">
-        <v>13</v>
-      </c>
-      <c r="F237" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="E239" t="n">
+        <v>13</v>
+      </c>
+      <c r="F239" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>Magnum</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J237" t="n">
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
         <v>43</v>
       </c>
-      <c r="K237" t="n">
+      <c r="K239" t="n">
         <v>20000</v>
       </c>
-      <c r="L237" t="n">
+      <c r="L239" t="n">
         <v>22000</v>
       </c>
-      <c r="M237" t="n">
+      <c r="M239" t="n">
         <v>21023</v>
       </c>
-      <c r="N237" t="inlineStr">
+      <c r="N239" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O237" t="inlineStr">
+      <c r="O239" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P237" t="n">
+      <c r="P239" t="n">
         <v>841</v>
       </c>
-      <c r="Q237" t="n">
-        <v>25</v>
-      </c>
-      <c r="R237" t="inlineStr">
+      <c r="Q239" t="n">
+        <v>25</v>
+      </c>
+      <c r="R239" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R239"/>
+  <dimension ref="A1:R241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K214" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L214" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M214" t="n">
-        <v>25000</v>
+        <v>37480</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15783,11 +15783,11 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1000</v>
+        <v>1499</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K215" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L215" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M215" t="n">
-        <v>30000</v>
+        <v>36500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1200</v>
+        <v>1460</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K216" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L216" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M216" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K217" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L217" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M217" t="n">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K218" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L218" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M218" t="n">
-        <v>35480</v>
+        <v>29000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1419</v>
+        <v>1160</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16128,13 +16128,13 @@
         <v>34</v>
       </c>
       <c r="K219" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L219" t="n">
         <v>32000</v>
       </c>
-      <c r="L219" t="n">
-        <v>33000</v>
-      </c>
       <c r="M219" t="n">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,7 +16197,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K220" t="n">
         <v>35000</v>
@@ -16206,7 +16206,7 @@
         <v>36000</v>
       </c>
       <c r="M220" t="n">
-        <v>35500</v>
+        <v>35480</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K221" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L221" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M221" t="n">
-        <v>26393</v>
+        <v>32500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1056</v>
+        <v>1300</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K222" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L222" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="M222" t="n">
-        <v>35860</v>
+        <v>35500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="K223" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L223" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M223" t="n">
-        <v>34000</v>
+        <v>26393</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1360</v>
+        <v>1056</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16488,26 +16488,26 @@
         <v>50</v>
       </c>
       <c r="K224" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L224" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M224" t="n">
-        <v>24500</v>
+        <v>35860</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>980</v>
+        <v>1434</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K225" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="L225" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="M225" t="n">
-        <v>18977</v>
+        <v>34000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>759</v>
+        <v>1360</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K226" t="n">
         <v>24000</v>
       </c>
       <c r="L226" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M226" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K227" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L227" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M227" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K228" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L228" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M228" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1100</v>
+        <v>960</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K229" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L229" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>35500</v>
+        <v>27000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1420</v>
+        <v>1080</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K230" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L230" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M230" t="n">
-        <v>35000</v>
+        <v>27500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K231" t="n">
         <v>35000</v>
       </c>
       <c r="L231" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M231" t="n">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K232" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L232" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M232" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K233" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L233" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M233" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K234" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L234" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M234" t="n">
-        <v>37500</v>
+        <v>27000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1500</v>
+        <v>1080</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17280,13 +17280,13 @@
         <v>16</v>
       </c>
       <c r="K235" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L235" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="M235" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1480</v>
+        <v>1200</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K236" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L236" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="M236" t="n">
-        <v>23000</v>
+        <v>37500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K237" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L237" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M237" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1000</v>
+        <v>1480</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K238" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L238" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M238" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,58 +17541,202 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E239" t="n">
+        <v>13</v>
+      </c>
+      <c r="F239" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J239" t="n">
+        <v>30</v>
+      </c>
+      <c r="K239" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L239" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M239" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>25</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>9</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E240" t="n">
+        <v>13</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J240" t="n">
+        <v>34</v>
+      </c>
+      <c r="K240" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L240" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M240" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>860</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>25</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>9</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E239" t="n">
-        <v>13</v>
-      </c>
-      <c r="F239" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="E241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>Magnum</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J239" t="n">
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
         <v>43</v>
       </c>
-      <c r="K239" t="n">
+      <c r="K241" t="n">
         <v>20000</v>
       </c>
-      <c r="L239" t="n">
+      <c r="L241" t="n">
         <v>22000</v>
       </c>
-      <c r="M239" t="n">
+      <c r="M241" t="n">
         <v>21023</v>
       </c>
-      <c r="N239" t="inlineStr">
+      <c r="N241" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O239" t="inlineStr">
+      <c r="O241" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P239" t="n">
+      <c r="P241" t="n">
         <v>841</v>
       </c>
-      <c r="Q239" t="n">
-        <v>25</v>
-      </c>
-      <c r="R239" t="inlineStr">
+      <c r="Q241" t="n">
+        <v>25</v>
+      </c>
+      <c r="R241" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R241"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E43" t="n">
         <v>13</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K43" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L43" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M43" t="n">
-        <v>25000</v>
+        <v>34500</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3471,11 +3471,11 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1000</v>
+        <v>1380</v>
       </c>
       <c r="Q43" t="n">
         <v>25</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E44" t="n">
         <v>13</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="K44" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L44" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M44" t="n">
-        <v>29250</v>
+        <v>33500</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1170</v>
+        <v>1340</v>
       </c>
       <c r="Q44" t="n">
         <v>25</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K45" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L45" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M45" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q45" t="n">
         <v>25</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K46" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L46" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M46" t="n">
-        <v>35500</v>
+        <v>29250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1420</v>
+        <v>1170</v>
       </c>
       <c r="Q46" t="n">
         <v>25</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -3741,29 +3741,29 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="K47" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L47" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M47" t="n">
-        <v>23111</v>
+        <v>27500</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>924</v>
+        <v>1100</v>
       </c>
       <c r="Q47" t="n">
         <v>25</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44202</v>
+        <v>44413</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="K48" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L48" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M48" t="n">
-        <v>29333</v>
+        <v>35500</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3831,11 +3831,11 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1173</v>
+        <v>1420</v>
       </c>
       <c r="Q48" t="n">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44323</v>
+        <v>44202</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3885,29 +3885,29 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="K49" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L49" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="M49" t="n">
-        <v>34000</v>
+        <v>23111</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1360</v>
+        <v>924</v>
       </c>
       <c r="Q49" t="n">
         <v>25</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44165</v>
+        <v>44202</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K50" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L50" t="n">
         <v>30000</v>
       </c>
       <c r="M50" t="n">
-        <v>30000</v>
+        <v>29333</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="Q50" t="n">
         <v>25</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44242</v>
+        <v>44323</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4029,29 +4029,29 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K51" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L51" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M51" t="n">
-        <v>23500</v>
+        <v>34000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>940</v>
+        <v>1360</v>
       </c>
       <c r="Q51" t="n">
         <v>25</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44169</v>
+        <v>44165</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -4101,29 +4101,29 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L52" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M52" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="Q52" t="n">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44169</v>
+        <v>44242</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4173,29 +4173,29 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K53" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L53" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="M53" t="n">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="Q53" t="n">
         <v>25</v>
@@ -4236,38 +4236,38 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K54" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L54" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M54" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q54" t="n">
         <v>25</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4320,26 +4320,26 @@
         <v>70</v>
       </c>
       <c r="K55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M55" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1120</v>
+        <v>1000</v>
       </c>
       <c r="Q55" t="n">
         <v>25</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44216</v>
+        <v>44169</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -4385,20 +4385,20 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K56" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L56" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M56" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="Q56" t="n">
         <v>25</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44405</v>
+        <v>44216</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -4461,29 +4461,29 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K57" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="L57" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M57" t="n">
-        <v>21512</v>
+        <v>28000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>860</v>
+        <v>1120</v>
       </c>
       <c r="Q57" t="n">
         <v>25</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44260</v>
+        <v>44216</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4533,29 +4533,29 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K58" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L58" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M58" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="Q58" t="n">
         <v>25</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44281</v>
+        <v>44405</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -4605,29 +4605,29 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K59" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L59" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M59" t="n">
-        <v>23000</v>
+        <v>21512</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>920</v>
+        <v>860</v>
       </c>
       <c r="Q59" t="n">
         <v>25</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44308</v>
+        <v>44260</v>
       </c>
       <c r="E60" t="n">
         <v>13</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4677,29 +4677,29 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K60" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L60" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M60" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="Q60" t="n">
         <v>25</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="E61" t="n">
         <v>13</v>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44271</v>
+        <v>44308</v>
       </c>
       <c r="E62" t="n">
         <v>13</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K62" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L62" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M62" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q62" t="n">
         <v>25</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44363</v>
+        <v>44271</v>
       </c>
       <c r="E63" t="n">
         <v>13</v>
@@ -4893,29 +4893,29 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L63" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M63" t="n">
-        <v>34500</v>
+        <v>23000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1380</v>
+        <v>920</v>
       </c>
       <c r="Q63" t="n">
         <v>25</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44229</v>
+        <v>44271</v>
       </c>
       <c r="E64" t="n">
         <v>13</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4965,29 +4965,29 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K64" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L64" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M64" t="n">
-        <v>29625</v>
+        <v>25000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1185</v>
+        <v>1000</v>
       </c>
       <c r="Q64" t="n">
         <v>25</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44229</v>
+        <v>44363</v>
       </c>
       <c r="E65" t="n">
         <v>13</v>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K65" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="L65" t="n">
         <v>35000</v>
       </c>
       <c r="M65" t="n">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="Q65" t="n">
         <v>25</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44189</v>
+        <v>44229</v>
       </c>
       <c r="E66" t="n">
         <v>13</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K66" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="L66" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M66" t="n">
-        <v>40000</v>
+        <v>29625</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1600</v>
+        <v>1185</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44181</v>
+        <v>44229</v>
       </c>
       <c r="E67" t="n">
         <v>13</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5181,29 +5181,29 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K67" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="L67" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M67" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>880</v>
+        <v>1400</v>
       </c>
       <c r="Q67" t="n">
         <v>25</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44181</v>
+        <v>44189</v>
       </c>
       <c r="E68" t="n">
         <v>13</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K68" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="L68" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="M68" t="n">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="Q68" t="n">
         <v>25</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44231</v>
+        <v>44181</v>
       </c>
       <c r="E69" t="n">
         <v>13</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K69" t="n">
         <v>22000</v>
       </c>
       <c r="L69" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M69" t="n">
-        <v>22545</v>
+        <v>22000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="Q69" t="n">
         <v>25</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44231</v>
+        <v>44181</v>
       </c>
       <c r="E70" t="n">
         <v>13</v>
@@ -5397,20 +5397,20 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K70" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L70" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M70" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1320</v>
+        <v>1000</v>
       </c>
       <c r="Q70" t="n">
         <v>25</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44355</v>
+        <v>44231</v>
       </c>
       <c r="E71" t="n">
         <v>13</v>
@@ -5469,29 +5469,29 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L71" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M71" t="n">
-        <v>34500</v>
+        <v>22545</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1380</v>
+        <v>902</v>
       </c>
       <c r="Q71" t="n">
         <v>25</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44372</v>
+        <v>44231</v>
       </c>
       <c r="E72" t="n">
         <v>13</v>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="K72" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L72" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M72" t="n">
-        <v>16500</v>
+        <v>33000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>660</v>
+        <v>1320</v>
       </c>
       <c r="Q72" t="n">
         <v>25</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="L73" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M73" t="n">
-        <v>14000</v>
+        <v>34500</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5631,11 +5631,11 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>560</v>
+        <v>1380</v>
       </c>
       <c r="Q73" t="n">
         <v>25</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E74" t="n">
         <v>13</v>
@@ -5685,29 +5685,29 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K74" t="n">
         <v>16000</v>
       </c>
       <c r="L74" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M74" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="Q74" t="n">
         <v>25</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44246</v>
+        <v>44372</v>
       </c>
       <c r="E75" t="n">
         <v>13</v>
@@ -5748,25 +5748,25 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L75" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="M75" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5775,11 +5775,11 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1160</v>
+        <v>560</v>
       </c>
       <c r="Q75" t="n">
         <v>25</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E76" t="n">
         <v>13</v>
@@ -5832,13 +5832,13 @@
         <v>70</v>
       </c>
       <c r="K76" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L76" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M76" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="Q76" t="n">
         <v>25</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44203</v>
+        <v>44246</v>
       </c>
       <c r="E77" t="n">
         <v>13</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L77" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M77" t="n">
-        <v>27556</v>
+        <v>29000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1102</v>
+        <v>1160</v>
       </c>
       <c r="Q77" t="n">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E78" t="n">
         <v>13</v>
@@ -5976,13 +5976,13 @@
         <v>70</v>
       </c>
       <c r="K78" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L78" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M78" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q78" t="n">
         <v>25</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44230</v>
+        <v>44203</v>
       </c>
       <c r="E79" t="n">
         <v>13</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K79" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L79" t="n">
         <v>28000</v>
       </c>
       <c r="M79" t="n">
-        <v>28000</v>
+        <v>27556</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="Q79" t="n">
         <v>25</v>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K80" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L80" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M80" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6135,11 +6135,11 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q80" t="n">
         <v>25</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="E81" t="n">
         <v>13</v>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6189,29 +6189,29 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L81" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M81" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="Q81" t="n">
         <v>25</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44239</v>
+        <v>44230</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
@@ -6261,29 +6261,29 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K82" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L82" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M82" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>1200</v>
+        <v>1040</v>
       </c>
       <c r="Q82" t="n">
         <v>25</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44418</v>
+        <v>44239</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
@@ -6333,29 +6333,29 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K83" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L83" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M83" t="n">
-        <v>32500</v>
+        <v>18000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1300</v>
+        <v>720</v>
       </c>
       <c r="Q83" t="n">
         <v>25</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44312</v>
+        <v>44239</v>
       </c>
       <c r="E84" t="n">
         <v>13</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6408,26 +6408,26 @@
         <v>30</v>
       </c>
       <c r="K84" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L84" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M84" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q84" t="n">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44258</v>
+        <v>44418</v>
       </c>
       <c r="E85" t="n">
         <v>13</v>
@@ -6477,29 +6477,29 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K85" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L85" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M85" t="n">
-        <v>20000</v>
+        <v>32500</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="Q85" t="n">
         <v>25</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44258</v>
+        <v>44312</v>
       </c>
       <c r="E86" t="n">
         <v>13</v>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6552,26 +6552,26 @@
         <v>30</v>
       </c>
       <c r="K86" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L86" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M86" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1160</v>
+        <v>1080</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44174</v>
+        <v>44258</v>
       </c>
       <c r="E87" t="n">
         <v>13</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K87" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L87" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M87" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>960</v>
+        <v>800</v>
       </c>
       <c r="Q87" t="n">
         <v>25</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44407</v>
+        <v>44258</v>
       </c>
       <c r="E88" t="n">
         <v>13</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K88" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L88" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M88" t="n">
-        <v>21500</v>
+        <v>29000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>860</v>
+        <v>1160</v>
       </c>
       <c r="Q88" t="n">
         <v>25</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
@@ -6765,29 +6765,29 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K89" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L89" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M89" t="n">
-        <v>26520</v>
+        <v>24000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1061</v>
+        <v>960</v>
       </c>
       <c r="Q89" t="n">
         <v>25</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44236</v>
+        <v>44407</v>
       </c>
       <c r="E90" t="n">
         <v>13</v>
@@ -6837,29 +6837,29 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K90" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L90" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M90" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="Q90" t="n">
         <v>25</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44236</v>
+        <v>44407</v>
       </c>
       <c r="E91" t="n">
         <v>13</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K91" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L91" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M91" t="n">
-        <v>28000</v>
+        <v>26520</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1120</v>
+        <v>1061</v>
       </c>
       <c r="Q91" t="n">
         <v>25</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K92" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L92" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M92" t="n">
-        <v>26857</v>
+        <v>20000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1074</v>
+        <v>800</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44159</v>
+        <v>44236</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K93" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L93" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M93" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7128,13 +7128,13 @@
         <v>70</v>
       </c>
       <c r="K94" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L94" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M94" t="n">
-        <v>17000</v>
+        <v>26857</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>680</v>
+        <v>1074</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44245</v>
+        <v>44159</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7200,13 +7200,13 @@
         <v>50</v>
       </c>
       <c r="K95" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="L95" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="M95" t="n">
-        <v>29000</v>
+        <v>45000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1160</v>
+        <v>1800</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44330</v>
+        <v>44245</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7269,29 +7269,29 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K96" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L96" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M96" t="n">
-        <v>30500</v>
+        <v>17000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1220</v>
+        <v>680</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44328</v>
+        <v>44245</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K97" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L97" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="M97" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1240</v>
+        <v>1160</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44187</v>
+        <v>44330</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,29 +7413,29 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K98" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L98" t="n">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="M98" t="n">
-        <v>35588</v>
+        <v>30500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1424</v>
+        <v>1220</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44187</v>
+        <v>44328</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K99" t="n">
-        <v>44000</v>
+        <v>31000</v>
       </c>
       <c r="L99" t="n">
-        <v>45000</v>
+        <v>31000</v>
       </c>
       <c r="M99" t="n">
-        <v>44429</v>
+        <v>31000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7503,11 +7503,11 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1777</v>
+        <v>1240</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K100" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L100" t="n">
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="M100" t="n">
-        <v>28500</v>
+        <v>35588</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1140</v>
+        <v>1424</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44343</v>
+        <v>44187</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K101" t="n">
-        <v>40000</v>
+        <v>44000</v>
       </c>
       <c r="L101" t="n">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="M101" t="n">
-        <v>41000</v>
+        <v>44429</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7647,11 +7647,11 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1640</v>
+        <v>1777</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7704,26 +7704,26 @@
         <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="L102" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="M102" t="n">
-        <v>21000</v>
+        <v>28500</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>840</v>
+        <v>1140</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44293</v>
+        <v>44343</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K103" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L103" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="M103" t="n">
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7791,11 +7791,11 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1080</v>
+        <v>1640</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K104" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L104" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M104" t="n">
-        <v>27500</v>
+        <v>21000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1100</v>
+        <v>840</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44344</v>
+        <v>44293</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K105" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L105" t="n">
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="M105" t="n">
-        <v>40524</v>
+        <v>27000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1621</v>
+        <v>1080</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,29 +7989,29 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K106" t="n">
-        <v>39000</v>
+        <v>27000</v>
       </c>
       <c r="L106" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M106" t="n">
-        <v>39500</v>
+        <v>27500</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1580</v>
+        <v>1100</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K107" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L107" t="n">
         <v>41000</v>
       </c>
-      <c r="L107" t="n">
-        <v>42000</v>
-      </c>
       <c r="M107" t="n">
-        <v>41500</v>
+        <v>40524</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1660</v>
+        <v>1621</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44320</v>
+        <v>44195</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,29 +8133,29 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K108" t="n">
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="L108" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="M108" t="n">
-        <v>32000</v>
+        <v>39500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1280</v>
+        <v>1580</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,29 +8205,29 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K109" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L109" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M109" t="n">
-        <v>29333</v>
+        <v>41500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1173</v>
+        <v>1660</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44209</v>
+        <v>44320</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K110" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L110" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="M110" t="n">
-        <v>31125</v>
+        <v>32000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8295,11 +8295,11 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1245</v>
+        <v>1280</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44278</v>
+        <v>44209</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K111" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L111" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M111" t="n">
-        <v>24000</v>
+        <v>29333</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>960</v>
+        <v>1173</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44406</v>
+        <v>44209</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K112" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L112" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M112" t="n">
-        <v>22500</v>
+        <v>31125</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>900</v>
+        <v>1245</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44406</v>
+        <v>44278</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,29 +8493,29 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K113" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L113" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M113" t="n">
-        <v>26500</v>
+        <v>24000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1060</v>
+        <v>960</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K114" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L114" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M114" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,25 +8628,25 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K115" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L115" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="M115" t="n">
-        <v>22000</v>
+        <v>26500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>880</v>
+        <v>1060</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44221</v>
+        <v>44385</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,29 +8709,29 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K116" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L116" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M116" t="n">
-        <v>32333</v>
+        <v>24500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1293</v>
+        <v>980</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44334</v>
+        <v>44385</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K117" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L117" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M117" t="n">
-        <v>29500</v>
+        <v>22000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1180</v>
+        <v>880</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44299</v>
+        <v>44221</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K118" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L118" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M118" t="n">
-        <v>25000</v>
+        <v>32333</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1000</v>
+        <v>1293</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44299</v>
+        <v>44334</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K119" t="n">
         <v>29000</v>
       </c>
       <c r="L119" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M119" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K120" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L120" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M120" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>760</v>
+        <v>1000</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44265</v>
+        <v>44299</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,29 +9069,29 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K121" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L121" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="M121" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>880</v>
+        <v>1160</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44186</v>
+        <v>44340</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,29 +9141,29 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K122" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L122" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M122" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1200</v>
+        <v>760</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44252</v>
+        <v>44265</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K123" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L123" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M123" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44252</v>
+        <v>44186</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K124" t="n">
         <v>30000</v>
@@ -9298,12 +9298,12 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44371</v>
+        <v>44252</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K125" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L125" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M125" t="n">
-        <v>34480</v>
+        <v>23000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1379</v>
+        <v>920</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44419</v>
+        <v>44252</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K126" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L126" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M126" t="n">
-        <v>33480</v>
+        <v>30000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1339</v>
+        <v>1200</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K127" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L127" t="n">
-        <v>41000</v>
+        <v>35000</v>
       </c>
       <c r="M127" t="n">
-        <v>40500</v>
+        <v>34480</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1620</v>
+        <v>1379</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K128" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L128" t="n">
         <v>34000</v>
       </c>
-      <c r="L128" t="n">
-        <v>36000</v>
-      </c>
       <c r="M128" t="n">
-        <v>35000</v>
+        <v>33480</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1400</v>
+        <v>1339</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44447</v>
+        <v>44419</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K129" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="L129" t="n">
-        <v>37000</v>
+        <v>41000</v>
       </c>
       <c r="M129" t="n">
-        <v>36480</v>
+        <v>40500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1459</v>
+        <v>1620</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K130" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="L130" t="n">
-        <v>38000</v>
+        <v>36000</v>
       </c>
       <c r="M130" t="n">
-        <v>37500</v>
+        <v>35000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>36000</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>37000</v>
       </c>
       <c r="M131" t="n">
-        <v>12500</v>
+        <v>36480</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>500</v>
+        <v>1459</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K132" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L132" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M132" t="n">
-        <v>27000</v>
+        <v>37500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9936,13 +9936,13 @@
         <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="L133" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>840</v>
+        <v>500</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K134" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L134" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M134" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,29 +10077,29 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K135" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="L135" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="M135" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1360</v>
+        <v>840</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K136" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L136" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M136" t="n">
-        <v>25500</v>
+        <v>30000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44224</v>
+        <v>44300</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,29 +10221,29 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K137" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L137" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M137" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K138" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L138" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M138" t="n">
-        <v>30000</v>
+        <v>25500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1200</v>
+        <v>1020</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K139" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L139" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M139" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1120</v>
+        <v>1320</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44179</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,29 +10437,29 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K140" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L140" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M140" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44362</v>
+        <v>44217</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K141" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L141" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M141" t="n">
-        <v>34500</v>
+        <v>28000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1380</v>
+        <v>1120</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K142" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L142" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M142" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K143" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L143" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M143" t="n">
-        <v>28000</v>
+        <v>34500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1120</v>
+        <v>1380</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K144" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L144" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M144" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1240</v>
+        <v>800</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,29 +10797,29 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K145" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L145" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M145" t="n">
-        <v>24500</v>
+        <v>28000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>980</v>
+        <v>1120</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,29 +10869,29 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K146" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="L146" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M146" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>920</v>
+        <v>1240</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K147" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L147" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M147" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>920</v>
+        <v>980</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11013,29 +11013,29 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K148" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L148" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M148" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,29 +11085,29 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K149" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L149" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M149" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K150" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L150" t="n">
         <v>26000</v>
       </c>
       <c r="M150" t="n">
-        <v>25489</v>
+        <v>26000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44235</v>
+        <v>44272</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11232,13 +11232,13 @@
         <v>50</v>
       </c>
       <c r="K151" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L151" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M151" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L152" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="M152" t="n">
-        <v>33488</v>
+        <v>25489</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1340</v>
+        <v>1020</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44218</v>
+        <v>44235</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K153" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L153" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M153" t="n">
-        <v>32571</v>
+        <v>25000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1303</v>
+        <v>1000</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,29 +11445,29 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K154" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L154" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M154" t="n">
-        <v>30000</v>
+        <v>33488</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1200</v>
+        <v>1340</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K155" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L155" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="M155" t="n">
-        <v>20500</v>
+        <v>32571</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>820</v>
+        <v>1303</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44274</v>
+        <v>44218</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K156" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L156" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M156" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11607,11 +11607,11 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>840</v>
+        <v>1200</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K157" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L157" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M157" t="n">
-        <v>25000</v>
+        <v>20500</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K158" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L158" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M158" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11751,11 +11751,11 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K159" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L159" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M159" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11877,29 +11877,29 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K160" t="n">
         <v>26000</v>
       </c>
       <c r="L160" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M160" t="n">
-        <v>26520</v>
+        <v>26000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11952,13 +11952,13 @@
         <v>34</v>
       </c>
       <c r="K161" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L161" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M161" t="n">
-        <v>34500</v>
+        <v>29000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1380</v>
+        <v>1160</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12024,13 +12024,13 @@
         <v>25</v>
       </c>
       <c r="K162" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="L162" t="n">
-        <v>39000</v>
+        <v>27000</v>
       </c>
       <c r="M162" t="n">
-        <v>37960</v>
+        <v>26520</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1518</v>
+        <v>1061</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12096,13 +12096,13 @@
         <v>34</v>
       </c>
       <c r="K163" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L163" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M163" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1020</v>
+        <v>1380</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K164" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="L164" t="n">
-        <v>37000</v>
+        <v>39000</v>
       </c>
       <c r="M164" t="n">
-        <v>36500</v>
+        <v>37960</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1460</v>
+        <v>1518</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K165" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L165" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M165" t="n">
-        <v>37000</v>
+        <v>25500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1480</v>
+        <v>1020</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K166" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="L166" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M166" t="n">
-        <v>34429</v>
+        <v>36500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1377</v>
+        <v>1460</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,29 +12381,29 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K167" t="n">
-        <v>42000</v>
+        <v>37000</v>
       </c>
       <c r="L167" t="n">
-        <v>43000</v>
+        <v>37000</v>
       </c>
       <c r="M167" t="n">
-        <v>42500</v>
+        <v>37000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K168" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L168" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="M168" t="n">
-        <v>40000</v>
+        <v>34429</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1600</v>
+        <v>1377</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K169" t="n">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="L169" t="n">
-        <v>33000</v>
+        <v>43000</v>
       </c>
       <c r="M169" t="n">
-        <v>33000</v>
+        <v>42500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1320</v>
+        <v>1700</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K170" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="L170" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="M170" t="n">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,29 +12669,29 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K171" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L171" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M171" t="n">
-        <v>21500</v>
+        <v>33000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>860</v>
+        <v>1320</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K172" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L172" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M172" t="n">
-        <v>33480</v>
+        <v>35000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1339</v>
+        <v>1400</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K173" t="n">
-        <v>40000</v>
+        <v>21000</v>
       </c>
       <c r="L173" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="M173" t="n">
-        <v>40500</v>
+        <v>21500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1620</v>
+        <v>860</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K174" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L174" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M174" t="n">
-        <v>23000</v>
+        <v>33480</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>920</v>
+        <v>1339</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K175" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L175" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="M175" t="n">
-        <v>27500</v>
+        <v>40500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1100</v>
+        <v>1620</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44316</v>
+        <v>44264</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K176" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L176" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="M176" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1360</v>
+        <v>920</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44253</v>
+        <v>44348</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,29 +13101,29 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K177" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="L177" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M177" t="n">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>920</v>
+        <v>1100</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44427</v>
+        <v>44316</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13176,13 +13176,13 @@
         <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="L178" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M178" t="n">
-        <v>31500</v>
+        <v>34000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1260</v>
+        <v>1360</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L179" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M179" t="n">
-        <v>28656</v>
+        <v>23000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1146</v>
+        <v>920</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K180" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="L180" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="M180" t="n">
-        <v>27500</v>
+        <v>31500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1100</v>
+        <v>1260</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K181" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L181" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M181" t="n">
-        <v>35500</v>
+        <v>28656</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1420</v>
+        <v>1146</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K182" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L182" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M182" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K183" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="L183" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="M183" t="n">
-        <v>16000</v>
+        <v>35500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>640</v>
+        <v>1420</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K184" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L184" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M184" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K185" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L185" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M185" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K186" t="n">
         <v>28000</v>
       </c>
       <c r="L186" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M186" t="n">
-        <v>28500</v>
+        <v>28000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L187" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M187" t="n">
-        <v>35500</v>
+        <v>21000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1420</v>
+        <v>840</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K188" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L188" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="M188" t="n">
-        <v>32500</v>
+        <v>28500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1300</v>
+        <v>1140</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,7 +13965,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K189" t="n">
         <v>35000</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K190" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="L190" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M190" t="n">
-        <v>26000</v>
+        <v>32500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1040</v>
+        <v>1300</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K191" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L191" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M191" t="n">
-        <v>28000</v>
+        <v>35500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1120</v>
+        <v>1420</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K192" t="n">
         <v>26000</v>
       </c>
       <c r="L192" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M192" t="n">
-        <v>26520</v>
+        <v>26000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K193" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L193" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M193" t="n">
-        <v>34500</v>
+        <v>28000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1380</v>
+        <v>1120</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K194" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="L194" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M194" t="n">
-        <v>32512</v>
+        <v>26520</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1300</v>
+        <v>1061</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K195" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L195" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M195" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>660</v>
+        <v>1380</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K196" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L196" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M196" t="n">
-        <v>30000</v>
+        <v>32512</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K197" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L197" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M197" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>880</v>
+        <v>660</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L198" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M198" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L199" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M199" t="n">
-        <v>29040</v>
+        <v>22000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1162</v>
+        <v>880</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K200" t="n">
-        <v>43000</v>
+        <v>27000</v>
       </c>
       <c r="L200" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="M200" t="n">
-        <v>43520</v>
+        <v>27000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1741</v>
+        <v>1080</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,29 +14829,29 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K201" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L201" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M201" t="n">
-        <v>23000</v>
+        <v>29040</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>920</v>
+        <v>1162</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K202" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="L202" t="n">
-        <v>28000</v>
+        <v>44000</v>
       </c>
       <c r="M202" t="n">
-        <v>28000</v>
+        <v>43520</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1120</v>
+        <v>1741</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L203" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M203" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K204" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L204" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M204" t="n">
-        <v>34480</v>
+        <v>28000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1379</v>
+        <v>1120</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K205" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L205" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M205" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K206" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L206" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M206" t="n">
-        <v>30000</v>
+        <v>34480</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1200</v>
+        <v>1379</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,7 +15261,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K207" t="n">
         <v>27000</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K208" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L208" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M208" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>980</v>
+        <v>1200</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,29 +15405,29 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K209" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L209" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M209" t="n">
-        <v>36500</v>
+        <v>27000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1460</v>
+        <v>1080</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K210" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="L210" t="n">
-        <v>38000</v>
+        <v>25000</v>
       </c>
       <c r="M210" t="n">
-        <v>37500</v>
+        <v>24500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1500</v>
+        <v>980</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K211" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L211" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M211" t="n">
-        <v>26040</v>
+        <v>36500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1042</v>
+        <v>1460</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K212" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L212" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="M212" t="n">
-        <v>27000</v>
+        <v>37500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1080</v>
+        <v>1500</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15696,13 +15696,13 @@
         <v>25</v>
       </c>
       <c r="K213" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="L213" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M213" t="n">
-        <v>31000</v>
+        <v>26040</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1240</v>
+        <v>1042</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44449</v>
+        <v>44313</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15768,26 +15768,26 @@
         <v>25</v>
       </c>
       <c r="K214" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L214" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M214" t="n">
-        <v>37480</v>
+        <v>27000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1499</v>
+        <v>1080</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K215" t="n">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="L215" t="n">
-        <v>37000</v>
+        <v>31000</v>
       </c>
       <c r="M215" t="n">
-        <v>36500</v>
+        <v>31000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K216" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L216" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M216" t="n">
-        <v>25000</v>
+        <v>37480</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1000</v>
+        <v>1499</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K217" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="L217" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M217" t="n">
-        <v>30000</v>
+        <v>36500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1200</v>
+        <v>1460</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K218" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L218" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M218" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K219" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L219" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M219" t="n">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K220" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L220" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M220" t="n">
-        <v>35480</v>
+        <v>29000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1419</v>
+        <v>1160</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16272,13 +16272,13 @@
         <v>34</v>
       </c>
       <c r="K221" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L221" t="n">
         <v>32000</v>
       </c>
-      <c r="L221" t="n">
-        <v>33000</v>
-      </c>
       <c r="M221" t="n">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1300</v>
+        <v>1260</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K222" t="n">
         <v>35000</v>
@@ -16350,7 +16350,7 @@
         <v>36000</v>
       </c>
       <c r="M222" t="n">
-        <v>35500</v>
+        <v>35480</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K223" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L223" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M223" t="n">
-        <v>26393</v>
+        <v>32500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1056</v>
+        <v>1300</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K224" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L224" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="M224" t="n">
-        <v>35860</v>
+        <v>35500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="K225" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L225" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M225" t="n">
-        <v>34000</v>
+        <v>26393</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1360</v>
+        <v>1056</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16632,26 +16632,26 @@
         <v>50</v>
       </c>
       <c r="K226" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L226" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M226" t="n">
-        <v>24500</v>
+        <v>35860</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>980</v>
+        <v>1434</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K227" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="L227" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="M227" t="n">
-        <v>18977</v>
+        <v>34000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>759</v>
+        <v>1360</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K228" t="n">
         <v>24000</v>
       </c>
       <c r="L228" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M228" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K229" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L229" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M229" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K230" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L230" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M230" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1100</v>
+        <v>960</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K231" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L231" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M231" t="n">
-        <v>35500</v>
+        <v>27000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1420</v>
+        <v>1080</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K232" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L232" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M232" t="n">
-        <v>35000</v>
+        <v>27500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K233" t="n">
         <v>35000</v>
       </c>
       <c r="L233" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M233" t="n">
-        <v>35000</v>
+        <v>35500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K234" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L234" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M234" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1080</v>
+        <v>1400</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K235" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L235" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M235" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K236" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L236" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M236" t="n">
-        <v>37500</v>
+        <v>27000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1500</v>
+        <v>1080</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17424,13 +17424,13 @@
         <v>16</v>
       </c>
       <c r="K237" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L237" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="M237" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1480</v>
+        <v>1200</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K238" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L238" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="M238" t="n">
-        <v>23000</v>
+        <v>37500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>920</v>
+        <v>1500</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L239" t="n">
-        <v>25000</v>
+        <v>38000</v>
       </c>
       <c r="M239" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1000</v>
+        <v>1480</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,29 +17637,29 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K240" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L240" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M240" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>860</v>
+        <v>920</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,58 +17685,202 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E241" t="n">
+        <v>13</v>
+      </c>
+      <c r="F241" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J241" t="n">
+        <v>30</v>
+      </c>
+      <c r="K241" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L241" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M241" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>25</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>9</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E242" t="n">
+        <v>13</v>
+      </c>
+      <c r="F242" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J242" t="n">
+        <v>34</v>
+      </c>
+      <c r="K242" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L242" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M242" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>860</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>25</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>9</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E241" t="n">
-        <v>13</v>
-      </c>
-      <c r="F241" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="E243" t="n">
+        <v>13</v>
+      </c>
+      <c r="F243" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
         <is>
           <t>Magnum</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J241" t="n">
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
         <v>43</v>
       </c>
-      <c r="K241" t="n">
+      <c r="K243" t="n">
         <v>20000</v>
       </c>
-      <c r="L241" t="n">
+      <c r="L243" t="n">
         <v>22000</v>
       </c>
-      <c r="M241" t="n">
+      <c r="M243" t="n">
         <v>21023</v>
       </c>
-      <c r="N241" t="inlineStr">
+      <c r="N243" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O241" t="inlineStr">
+      <c r="O243" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P241" t="n">
+      <c r="P243" t="n">
         <v>841</v>
       </c>
-      <c r="Q241" t="n">
-        <v>25</v>
-      </c>
-      <c r="R241" t="inlineStr">
+      <c r="Q243" t="n">
+        <v>25</v>
+      </c>
+      <c r="R243" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K169" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L169" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M169" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K170" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L170" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M170" t="n">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K171" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L171" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M171" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1420</v>
+        <v>1300</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K172" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L172" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M172" t="n">
-        <v>30000</v>
+        <v>27500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K173" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="L173" t="n">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="M173" t="n">
-        <v>31500</v>
+        <v>35500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1260</v>
+        <v>1420</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44249</v>
+        <v>44165</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K174" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L174" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M174" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44265</v>
+        <v>44427</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,29 +12957,29 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K175" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="L175" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M175" t="n">
-        <v>22000</v>
+        <v>31500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>880</v>
+        <v>1260</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K176" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L176" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M176" t="n">
-        <v>28500</v>
+        <v>20000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1140</v>
+        <v>800</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,29 +13101,29 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K177" t="n">
-        <v>40000</v>
+        <v>22000</v>
       </c>
       <c r="L177" t="n">
-        <v>42000</v>
+        <v>22000</v>
       </c>
       <c r="M177" t="n">
-        <v>41000</v>
+        <v>22000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1640</v>
+        <v>880</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K178" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L178" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M178" t="n">
-        <v>27455</v>
+        <v>28500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1098</v>
+        <v>1140</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K179" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L179" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M179" t="n">
-        <v>29588</v>
+        <v>41000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1184</v>
+        <v>1640</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K180" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="L180" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M180" t="n">
-        <v>24000</v>
+        <v>27455</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13335,11 +13335,11 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>960</v>
+        <v>1098</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K181" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L181" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M181" t="n">
-        <v>27000</v>
+        <v>29588</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1080</v>
+        <v>1184</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K182" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="L182" t="n">
-        <v>37000</v>
+        <v>24000</v>
       </c>
       <c r="M182" t="n">
-        <v>36480</v>
+        <v>24000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1459</v>
+        <v>960</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K183" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="L183" t="n">
-        <v>38000</v>
+        <v>27000</v>
       </c>
       <c r="M183" t="n">
-        <v>37500</v>
+        <v>27000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1500</v>
+        <v>1080</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,29 +13605,29 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K184" t="n">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="L184" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="M184" t="n">
-        <v>18000</v>
+        <v>36480</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>720</v>
+        <v>1459</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K185" t="n">
-        <v>12000</v>
+        <v>37000</v>
       </c>
       <c r="L185" t="n">
-        <v>13000</v>
+        <v>38000</v>
       </c>
       <c r="M185" t="n">
-        <v>12500</v>
+        <v>37500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K186" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L186" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M186" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1080</v>
+        <v>720</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44187</v>
+        <v>44267</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K187" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="L187" t="n">
-        <v>36000</v>
+        <v>13000</v>
       </c>
       <c r="M187" t="n">
-        <v>35588</v>
+        <v>12500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1424</v>
+        <v>500</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K188" t="n">
-        <v>44000</v>
+        <v>27000</v>
       </c>
       <c r="L188" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="M188" t="n">
-        <v>44429</v>
+        <v>27000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1777</v>
+        <v>1080</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,29 +13965,29 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K189" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L189" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M189" t="n">
-        <v>25500</v>
+        <v>35588</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1020</v>
+        <v>1424</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K190" t="n">
-        <v>24000</v>
+        <v>44000</v>
       </c>
       <c r="L190" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M190" t="n">
-        <v>24492</v>
+        <v>44429</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>980</v>
+        <v>1777</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K191" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L191" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M191" t="n">
-        <v>22000</v>
+        <v>25500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>880</v>
+        <v>1020</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K192" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L192" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M192" t="n">
-        <v>30000</v>
+        <v>24492</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1200</v>
+        <v>980</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14249,33 +14249,33 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K193" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L193" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="M193" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K194" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L194" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M194" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44251</v>
+        <v>44264</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,29 +14397,29 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K195" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L195" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M195" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14472,26 +14472,26 @@
         <v>50</v>
       </c>
       <c r="K196" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L196" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M196" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K197" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L197" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M197" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L198" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M198" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>920</v>
+        <v>640</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14688,13 +14688,13 @@
         <v>30</v>
       </c>
       <c r="K199" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L199" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M199" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K200" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L200" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M200" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K201" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L201" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M201" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K202" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L202" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M202" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K203" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L203" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M203" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,29 +15045,29 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L204" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M204" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15120,26 +15120,26 @@
         <v>60</v>
       </c>
       <c r="K205" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L205" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="M205" t="n">
-        <v>32333</v>
+        <v>23000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1293</v>
+        <v>920</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K206" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L206" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M206" t="n">
-        <v>34480</v>
+        <v>16500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1379</v>
+        <v>660</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K207" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L207" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="M207" t="n">
-        <v>34000</v>
+        <v>32333</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1360</v>
+        <v>1293</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,29 +15333,29 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K208" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L208" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M208" t="n">
-        <v>24000</v>
+        <v>34480</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>960</v>
+        <v>1379</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K209" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L209" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M209" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1080</v>
+        <v>1360</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K210" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L210" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M210" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>820</v>
+        <v>960</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K211" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L211" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M211" t="n">
-        <v>34500</v>
+        <v>27000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1380</v>
+        <v>1080</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K212" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L212" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M212" t="n">
-        <v>26000</v>
+        <v>20500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1040</v>
+        <v>820</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,29 +15693,29 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K213" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L213" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M213" t="n">
-        <v>22000</v>
+        <v>34500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>880</v>
+        <v>1380</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15768,26 +15768,26 @@
         <v>30</v>
       </c>
       <c r="K214" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L214" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M214" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,29 +15837,29 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K215" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L215" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M215" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,25 +15900,25 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K216" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L216" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M216" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,29 +15981,29 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K217" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L217" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M217" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16049,33 +16049,33 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K218" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L218" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M218" t="n">
-        <v>29333</v>
+        <v>14000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1173</v>
+        <v>560</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,29 +16125,29 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K219" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L219" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M219" t="n">
-        <v>31125</v>
+        <v>27000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1245</v>
+        <v>1080</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K220" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L220" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M220" t="n">
-        <v>33500</v>
+        <v>29333</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1340</v>
+        <v>1173</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="K221" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L221" t="n">
         <v>33000</v>
       </c>
       <c r="M221" t="n">
-        <v>32512</v>
+        <v>31125</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1300</v>
+        <v>1245</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L222" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="M222" t="n">
-        <v>25489</v>
+        <v>33500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1020</v>
+        <v>1340</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,29 +16413,29 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K223" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L223" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M223" t="n">
-        <v>25000</v>
+        <v>32512</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,29 +16485,29 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K224" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L224" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M224" t="n">
-        <v>37000</v>
+        <v>25489</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1480</v>
+        <v>1020</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,29 +16557,29 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K225" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L225" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M225" t="n">
-        <v>34429</v>
+        <v>25000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1377</v>
+        <v>1000</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K226" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L226" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M226" t="n">
-        <v>24500</v>
+        <v>37000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>980</v>
+        <v>1480</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16704,13 +16704,13 @@
         <v>70</v>
       </c>
       <c r="K227" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L227" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M227" t="n">
-        <v>33000</v>
+        <v>34429</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1320</v>
+        <v>1377</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K228" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L228" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M228" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1200</v>
+        <v>980</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K229" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L229" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M229" t="n">
-        <v>27556</v>
+        <v>33000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1102</v>
+        <v>1320</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K230" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L230" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M230" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K231" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L231" t="n">
         <v>28000</v>
       </c>
-      <c r="L231" t="n">
-        <v>30000</v>
-      </c>
       <c r="M231" t="n">
-        <v>29250</v>
+        <v>27556</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1170</v>
+        <v>1102</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K232" t="n">
         <v>25000</v>
       </c>
       <c r="L232" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M232" t="n">
-        <v>26040</v>
+        <v>25000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K233" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L233" t="n">
         <v>30000</v>
       </c>
       <c r="M233" t="n">
-        <v>30000</v>
+        <v>29250</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K234" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L234" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M234" t="n">
-        <v>16000</v>
+        <v>26040</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>640</v>
+        <v>1042</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K235" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L235" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M235" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K236" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L236" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M236" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K237" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L237" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M237" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L238" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M238" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K239" t="n">
         <v>18000</v>
       </c>
       <c r="L239" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M239" t="n">
-        <v>18977</v>
+        <v>18000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K240" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L240" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M240" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17712,13 +17712,13 @@
         <v>43</v>
       </c>
       <c r="K241" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L241" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M241" t="n">
-        <v>33488</v>
+        <v>18977</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1340</v>
+        <v>759</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L242" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M242" t="n">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K243" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L243" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M243" t="n">
-        <v>35480</v>
+        <v>33488</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1419</v>
+        <v>1340</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K244" t="n">
-        <v>39000</v>
+        <v>28000</v>
       </c>
       <c r="L244" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M244" t="n">
-        <v>39500</v>
+        <v>28500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1580</v>
+        <v>1140</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,58 +17973,202 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E245" t="n">
+        <v>13</v>
+      </c>
+      <c r="F245" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J245" t="n">
+        <v>25</v>
+      </c>
+      <c r="K245" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L245" t="n">
+        <v>36000</v>
+      </c>
+      <c r="M245" t="n">
+        <v>35480</v>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P245" t="n">
+        <v>1419</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>25</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>9</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E246" t="n">
+        <v>13</v>
+      </c>
+      <c r="F246" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J246" t="n">
+        <v>16</v>
+      </c>
+      <c r="K246" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L246" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M246" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>25</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>9</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E245" t="n">
-        <v>13</v>
-      </c>
-      <c r="F245" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="E247" t="n">
+        <v>13</v>
+      </c>
+      <c r="F247" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J245" t="n">
-        <v>25</v>
-      </c>
-      <c r="K245" t="n">
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>25</v>
+      </c>
+      <c r="K247" t="n">
         <v>34000</v>
       </c>
-      <c r="L245" t="n">
+      <c r="L247" t="n">
         <v>34000</v>
       </c>
-      <c r="M245" t="n">
+      <c r="M247" t="n">
         <v>34000</v>
       </c>
-      <c r="N245" t="inlineStr">
+      <c r="N247" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O245" t="inlineStr">
+      <c r="O247" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P245" t="n">
+      <c r="P247" t="n">
         <v>1360</v>
       </c>
-      <c r="Q245" t="n">
-        <v>25</v>
-      </c>
-      <c r="R245" t="inlineStr">
+      <c r="Q247" t="n">
+        <v>25</v>
+      </c>
+      <c r="R247" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R247"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K172" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L172" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="M172" t="n">
-        <v>27500</v>
+        <v>41560</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1100</v>
+        <v>1662</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K173" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L173" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M173" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K174" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L174" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M174" t="n">
-        <v>30000</v>
+        <v>35500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K175" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L175" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M175" t="n">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44249</v>
+        <v>44427</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K176" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L176" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M176" t="n">
-        <v>20000</v>
+        <v>31500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>800</v>
+        <v>1260</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K177" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L177" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M177" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13176,26 +13176,26 @@
         <v>50</v>
       </c>
       <c r="K178" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L178" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M178" t="n">
-        <v>28500</v>
+        <v>22000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1140</v>
+        <v>880</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L179" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M179" t="n">
-        <v>41000</v>
+        <v>28500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13263,11 +13263,11 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1640</v>
+        <v>1140</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,29 +13317,29 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K180" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L180" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M180" t="n">
-        <v>27455</v>
+        <v>41000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1098</v>
+        <v>1640</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,29 +13389,29 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K181" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L181" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M181" t="n">
-        <v>29588</v>
+        <v>27455</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1184</v>
+        <v>1098</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K182" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L182" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M182" t="n">
-        <v>24000</v>
+        <v>29588</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>960</v>
+        <v>1184</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K183" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L183" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M183" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K184" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L184" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M184" t="n">
-        <v>36480</v>
+        <v>27000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1459</v>
+        <v>1080</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K185" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L185" t="n">
         <v>37000</v>
       </c>
-      <c r="L185" t="n">
-        <v>38000</v>
-      </c>
       <c r="M185" t="n">
-        <v>37500</v>
+        <v>36480</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1500</v>
+        <v>1459</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K186" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L186" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M186" t="n">
-        <v>18000</v>
+        <v>37500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L187" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M187" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K188" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L188" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="M188" t="n">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1080</v>
+        <v>500</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K189" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L189" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M189" t="n">
-        <v>35588</v>
+        <v>27000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1424</v>
+        <v>1080</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K190" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="L190" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M190" t="n">
-        <v>44429</v>
+        <v>35588</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1777</v>
+        <v>1424</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K191" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="L191" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M191" t="n">
-        <v>25500</v>
+        <v>44429</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1020</v>
+        <v>1777</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K192" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L192" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M192" t="n">
-        <v>24492</v>
+        <v>25500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K193" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L193" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M193" t="n">
-        <v>22000</v>
+        <v>24492</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,25 +14316,25 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K194" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L194" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M194" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,29 +14397,29 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K195" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L195" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M195" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,29 +14469,29 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K196" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L196" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="M196" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14616,26 +14616,26 @@
         <v>50</v>
       </c>
       <c r="K198" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L198" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M198" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K199" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L199" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M199" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K200" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L200" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M200" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,29 +14829,29 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K201" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L201" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M201" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,29 +14901,29 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K202" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L202" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M202" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1040</v>
+        <v>1200</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K203" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L203" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M203" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1400</v>
+        <v>1040</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15048,26 +15048,26 @@
         <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L204" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M204" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K205" t="n">
         <v>23000</v>
@@ -15130,12 +15130,12 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K206" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L206" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M206" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15207,11 +15207,11 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K207" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L207" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M207" t="n">
-        <v>32333</v>
+        <v>16500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1293</v>
+        <v>660</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,29 +15333,29 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K208" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L208" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M208" t="n">
-        <v>34480</v>
+        <v>32333</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1379</v>
+        <v>1293</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K209" t="n">
         <v>34000</v>
       </c>
       <c r="L209" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M209" t="n">
-        <v>34000</v>
+        <v>34480</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K210" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L210" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M210" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15552,26 +15552,26 @@
         <v>30</v>
       </c>
       <c r="K211" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L211" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M211" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K212" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L212" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M212" t="n">
-        <v>20500</v>
+        <v>27000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>820</v>
+        <v>1080</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K213" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L213" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M213" t="n">
-        <v>34500</v>
+        <v>20500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1380</v>
+        <v>820</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K214" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L214" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M214" t="n">
-        <v>26000</v>
+        <v>34500</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1040</v>
+        <v>1380</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K215" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L215" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M215" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,29 +15909,29 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K216" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L216" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M216" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K217" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L217" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M217" t="n">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>660</v>
+        <v>1080</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K218" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L218" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M218" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16121,33 +16121,33 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K219" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L219" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M219" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K220" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L220" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M220" t="n">
-        <v>29333</v>
+        <v>27000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,29 +16269,29 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K221" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L221" t="n">
         <v>30000</v>
       </c>
-      <c r="L221" t="n">
-        <v>33000</v>
-      </c>
       <c r="M221" t="n">
-        <v>31125</v>
+        <v>29333</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K222" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L222" t="n">
         <v>33000</v>
       </c>
-      <c r="L222" t="n">
-        <v>34000</v>
-      </c>
       <c r="M222" t="n">
-        <v>33500</v>
+        <v>31125</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1340</v>
+        <v>1245</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K223" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L223" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M223" t="n">
-        <v>32512</v>
+        <v>33500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K224" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L224" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M224" t="n">
-        <v>25489</v>
+        <v>32512</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,29 +16557,29 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K225" t="n">
         <v>25000</v>
       </c>
       <c r="L225" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M225" t="n">
-        <v>25000</v>
+        <v>25489</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K226" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L226" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M226" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1480</v>
+        <v>1000</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K227" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L227" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M227" t="n">
-        <v>34429</v>
+        <v>37000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1377</v>
+        <v>1480</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K228" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L228" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M228" t="n">
-        <v>24500</v>
+        <v>34429</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>980</v>
+        <v>1377</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K229" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L229" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M229" t="n">
-        <v>33000</v>
+        <v>24500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1320</v>
+        <v>980</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16920,26 +16920,26 @@
         <v>70</v>
       </c>
       <c r="K230" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L230" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M230" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K231" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L231" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M231" t="n">
-        <v>27556</v>
+        <v>30000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K232" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L232" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M232" t="n">
-        <v>25000</v>
+        <v>27556</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K233" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L233" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M233" t="n">
-        <v>29250</v>
+        <v>25000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1170</v>
+        <v>1000</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K234" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L234" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M234" t="n">
-        <v>26040</v>
+        <v>29250</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1042</v>
+        <v>1170</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K235" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L235" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M235" t="n">
-        <v>30000</v>
+        <v>26040</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1200</v>
+        <v>1042</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17352,26 +17352,26 @@
         <v>50</v>
       </c>
       <c r="K236" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L236" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M236" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K237" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L237" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M237" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K238" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L238" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M238" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17568,13 +17568,13 @@
         <v>70</v>
       </c>
       <c r="K239" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L239" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M239" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,29 +17637,29 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K240" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L240" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M240" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K241" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L241" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M241" t="n">
-        <v>18977</v>
+        <v>30000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>759</v>
+        <v>1200</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K242" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L242" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M242" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L243" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M243" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K244" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L244" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M244" t="n">
-        <v>28500</v>
+        <v>33488</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K245" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L245" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M245" t="n">
-        <v>35480</v>
+        <v>28500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1419</v>
+        <v>1140</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K246" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="L246" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M246" t="n">
-        <v>39500</v>
+        <v>35480</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1580</v>
+        <v>1419</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,58 +18117,130 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E247" t="n">
+        <v>13</v>
+      </c>
+      <c r="F247" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>16</v>
+      </c>
+      <c r="K247" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L247" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M247" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>25</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>9</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E247" t="n">
-        <v>13</v>
-      </c>
-      <c r="F247" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="E248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F248" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J247" t="n">
-        <v>25</v>
-      </c>
-      <c r="K247" t="n">
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>25</v>
+      </c>
+      <c r="K248" t="n">
         <v>34000</v>
       </c>
-      <c r="L247" t="n">
+      <c r="L248" t="n">
         <v>34000</v>
       </c>
-      <c r="M247" t="n">
+      <c r="M248" t="n">
         <v>34000</v>
       </c>
-      <c r="N247" t="inlineStr">
+      <c r="N248" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O247" t="inlineStr">
+      <c r="O248" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P247" t="n">
+      <c r="P248" t="n">
         <v>1360</v>
       </c>
-      <c r="Q247" t="n">
-        <v>25</v>
-      </c>
-      <c r="R247" t="inlineStr">
+      <c r="Q248" t="n">
+        <v>25</v>
+      </c>
+      <c r="R248" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R248"/>
+  <dimension ref="A1:R249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K230" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L230" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M230" t="n">
-        <v>33000</v>
+        <v>41040</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1320</v>
+        <v>1642</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16992,26 +16992,26 @@
         <v>70</v>
       </c>
       <c r="K231" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L231" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M231" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K232" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L232" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M232" t="n">
-        <v>27556</v>
+        <v>30000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M233" t="n">
-        <v>25000</v>
+        <v>27556</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17151,11 +17151,11 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K234" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L234" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M234" t="n">
-        <v>29250</v>
+        <v>25000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1170</v>
+        <v>1000</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K235" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L235" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M235" t="n">
-        <v>26040</v>
+        <v>29250</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1042</v>
+        <v>1170</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K236" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L236" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M236" t="n">
-        <v>30000</v>
+        <v>26040</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1200</v>
+        <v>1042</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17424,26 +17424,26 @@
         <v>50</v>
       </c>
       <c r="K237" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L237" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M237" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K238" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L238" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M238" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K239" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L239" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M239" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17640,13 +17640,13 @@
         <v>70</v>
       </c>
       <c r="K240" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L240" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M240" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K241" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L241" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M241" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L242" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M242" t="n">
-        <v>18977</v>
+        <v>30000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>759</v>
+        <v>1200</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K243" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L243" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M243" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L244" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M244" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K245" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L245" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M245" t="n">
-        <v>28500</v>
+        <v>33488</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K246" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L246" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M246" t="n">
-        <v>35480</v>
+        <v>28500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1419</v>
+        <v>1140</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K247" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="L247" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M247" t="n">
-        <v>39500</v>
+        <v>35480</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1580</v>
+        <v>1419</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,58 +18189,130 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F248" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>16</v>
+      </c>
+      <c r="K248" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L248" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M248" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>25</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>9</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E248" t="n">
-        <v>13</v>
-      </c>
-      <c r="F248" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="E249" t="n">
+        <v>13</v>
+      </c>
+      <c r="F249" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J248" t="n">
-        <v>25</v>
-      </c>
-      <c r="K248" t="n">
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>25</v>
+      </c>
+      <c r="K249" t="n">
         <v>34000</v>
       </c>
-      <c r="L248" t="n">
+      <c r="L249" t="n">
         <v>34000</v>
       </c>
-      <c r="M248" t="n">
+      <c r="M249" t="n">
         <v>34000</v>
       </c>
-      <c r="N248" t="inlineStr">
+      <c r="N249" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O248" t="inlineStr">
+      <c r="O249" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P248" t="n">
+      <c r="P249" t="n">
         <v>1360</v>
       </c>
-      <c r="Q248" t="n">
-        <v>25</v>
-      </c>
-      <c r="R248" t="inlineStr">
+      <c r="Q249" t="n">
+        <v>25</v>
+      </c>
+      <c r="R249" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R250"/>
+  <dimension ref="A1:R252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K198" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="L198" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="M198" t="n">
-        <v>29000</v>
+        <v>38960</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1160</v>
+        <v>1558</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K199" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L199" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="M199" t="n">
-        <v>29000</v>
+        <v>40500</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14703,11 +14703,11 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1160</v>
+        <v>1620</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14760,26 +14760,26 @@
         <v>50</v>
       </c>
       <c r="K200" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L200" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M200" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K201" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L201" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M201" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K202" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L202" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="M202" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>920</v>
+        <v>640</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14976,13 +14976,13 @@
         <v>30</v>
       </c>
       <c r="K203" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L203" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M203" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="L204" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M204" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1040</v>
+        <v>920</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K205" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L205" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M205" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K206" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L206" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M206" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K207" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L207" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M207" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,29 +15333,29 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L208" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M208" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15408,26 +15408,26 @@
         <v>60</v>
       </c>
       <c r="K209" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L209" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="M209" t="n">
-        <v>32333</v>
+        <v>23000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1293</v>
+        <v>920</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K210" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L210" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M210" t="n">
-        <v>34480</v>
+        <v>16500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1379</v>
+        <v>660</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,29 +15549,29 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K211" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L211" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="M211" t="n">
-        <v>34000</v>
+        <v>32333</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1360</v>
+        <v>1293</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K212" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L212" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="M212" t="n">
-        <v>24000</v>
+        <v>34480</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>960</v>
+        <v>1379</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K213" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L213" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M213" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1080</v>
+        <v>1360</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K214" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L214" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M214" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>820</v>
+        <v>960</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44363</v>
+        <v>44279</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K215" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L215" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M215" t="n">
-        <v>34500</v>
+        <v>27000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1380</v>
+        <v>1080</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44291</v>
+        <v>44397</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,29 +15909,29 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K216" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L216" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M216" t="n">
-        <v>26000</v>
+        <v>20500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1040</v>
+        <v>820</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,29 +15981,29 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K217" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L217" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M217" t="n">
-        <v>22000</v>
+        <v>34500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>880</v>
+        <v>1380</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16056,26 +16056,26 @@
         <v>30</v>
       </c>
       <c r="K218" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="L218" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M218" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,29 +16125,29 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K219" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L219" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M219" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>660</v>
+        <v>880</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K220" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L220" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="M220" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>560</v>
+        <v>1080</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,29 +16269,29 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K221" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L221" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M221" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16337,33 +16337,33 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K222" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L222" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M222" t="n">
-        <v>29333</v>
+        <v>14000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1173</v>
+        <v>560</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,29 +16413,29 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K223" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L223" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M223" t="n">
-        <v>31125</v>
+        <v>27000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1245</v>
+        <v>1080</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,29 +16485,29 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K224" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L224" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M224" t="n">
-        <v>33500</v>
+        <v>29333</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1340</v>
+        <v>1173</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="K225" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L225" t="n">
         <v>33000</v>
       </c>
       <c r="M225" t="n">
-        <v>32512</v>
+        <v>31125</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1300</v>
+        <v>1245</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K226" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L226" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="M226" t="n">
-        <v>25489</v>
+        <v>33500</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1020</v>
+        <v>1340</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K227" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L227" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M227" t="n">
-        <v>25000</v>
+        <v>32512</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,29 +16773,29 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K228" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L228" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M228" t="n">
-        <v>37000</v>
+        <v>25489</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1480</v>
+        <v>1020</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K229" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M229" t="n">
-        <v>34429</v>
+        <v>25000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1377</v>
+        <v>1000</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K230" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L230" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M230" t="n">
-        <v>24500</v>
+        <v>37000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>980</v>
+        <v>1480</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K231" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L231" t="n">
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="M231" t="n">
-        <v>41040</v>
+        <v>34429</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1642</v>
+        <v>1377</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K232" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L232" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M232" t="n">
-        <v>33000</v>
+        <v>24500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1320</v>
+        <v>980</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K233" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L233" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M233" t="n">
-        <v>30000</v>
+        <v>41040</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1200</v>
+        <v>1642</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K234" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L234" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M234" t="n">
-        <v>27556</v>
+        <v>33000</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1102</v>
+        <v>1320</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K235" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M235" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K236" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L236" t="n">
         <v>28000</v>
       </c>
-      <c r="L236" t="n">
-        <v>30000</v>
-      </c>
       <c r="M236" t="n">
-        <v>29250</v>
+        <v>27556</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1170</v>
+        <v>1102</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K237" t="n">
         <v>25000</v>
       </c>
       <c r="L237" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M237" t="n">
-        <v>26040</v>
+        <v>25000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K238" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L238" t="n">
         <v>30000</v>
       </c>
       <c r="M238" t="n">
-        <v>30000</v>
+        <v>29250</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K239" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L239" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M239" t="n">
-        <v>16000</v>
+        <v>26040</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>640</v>
+        <v>1042</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K240" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L240" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M240" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K241" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L241" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M241" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,29 +17781,29 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K242" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L242" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M242" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K243" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L243" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M243" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K244" t="n">
         <v>18000</v>
       </c>
       <c r="L244" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M244" t="n">
-        <v>18977</v>
+        <v>18000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K245" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L245" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M245" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18072,13 +18072,13 @@
         <v>43</v>
       </c>
       <c r="K246" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L246" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M246" t="n">
-        <v>33488</v>
+        <v>18977</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1340</v>
+        <v>759</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K247" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L247" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M247" t="n">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K248" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L248" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M248" t="n">
-        <v>35480</v>
+        <v>33488</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1419</v>
+        <v>1340</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K249" t="n">
-        <v>39000</v>
+        <v>28000</v>
       </c>
       <c r="L249" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M249" t="n">
-        <v>39500</v>
+        <v>28500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1580</v>
+        <v>1140</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,58 +18333,202 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E250" t="n">
+        <v>13</v>
+      </c>
+      <c r="F250" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>25</v>
+      </c>
+      <c r="K250" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L250" t="n">
+        <v>36000</v>
+      </c>
+      <c r="M250" t="n">
+        <v>35480</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>1419</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>25</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>9</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E251" t="n">
+        <v>13</v>
+      </c>
+      <c r="F251" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J251" t="n">
+        <v>16</v>
+      </c>
+      <c r="K251" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L251" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M251" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>25</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>9</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E250" t="n">
-        <v>13</v>
-      </c>
-      <c r="F250" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="E252" t="n">
+        <v>13</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J250" t="n">
-        <v>25</v>
-      </c>
-      <c r="K250" t="n">
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>25</v>
+      </c>
+      <c r="K252" t="n">
         <v>34000</v>
       </c>
-      <c r="L250" t="n">
+      <c r="L252" t="n">
         <v>34000</v>
       </c>
-      <c r="M250" t="n">
+      <c r="M252" t="n">
         <v>34000</v>
       </c>
-      <c r="N250" t="inlineStr">
+      <c r="N252" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O250" t="inlineStr">
+      <c r="O252" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P250" t="n">
+      <c r="P252" t="n">
         <v>1360</v>
       </c>
-      <c r="Q250" t="n">
-        <v>25</v>
-      </c>
-      <c r="R250" t="inlineStr">
+      <c r="Q252" t="n">
+        <v>25</v>
+      </c>
+      <c r="R252" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R252"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="L178" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M178" t="n">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>800</v>
+        <v>1560</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K179" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L179" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M179" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13320,26 +13320,26 @@
         <v>50</v>
       </c>
       <c r="K180" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L180" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M180" t="n">
-        <v>28500</v>
+        <v>22000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1140</v>
+        <v>880</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K181" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L181" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M181" t="n">
-        <v>41000</v>
+        <v>28500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1640</v>
+        <v>1140</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,29 +13461,29 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K182" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L182" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M182" t="n">
-        <v>27455</v>
+        <v>41000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1098</v>
+        <v>1640</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K183" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L183" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M183" t="n">
-        <v>29588</v>
+        <v>27455</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1184</v>
+        <v>1098</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,29 +13605,29 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K184" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L184" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M184" t="n">
-        <v>24000</v>
+        <v>29588</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>960</v>
+        <v>1184</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K185" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L185" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M185" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K186" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L186" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M186" t="n">
-        <v>36480</v>
+        <v>27000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1459</v>
+        <v>1080</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K187" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L187" t="n">
         <v>37000</v>
       </c>
-      <c r="L187" t="n">
-        <v>38000</v>
-      </c>
       <c r="M187" t="n">
-        <v>37500</v>
+        <v>36480</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1500</v>
+        <v>1459</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K188" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L188" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M188" t="n">
-        <v>18000</v>
+        <v>37500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K189" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L189" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M189" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K190" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L190" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="M190" t="n">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14055,11 +14055,11 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1080</v>
+        <v>500</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K191" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L191" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M191" t="n">
-        <v>35588</v>
+        <v>27000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1424</v>
+        <v>1080</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14172,7 +14172,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -14181,29 +14181,29 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K192" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="L192" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M192" t="n">
-        <v>44429</v>
+        <v>35588</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1777</v>
+        <v>1424</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K193" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="L193" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M193" t="n">
-        <v>25500</v>
+        <v>44429</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1020</v>
+        <v>1777</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K194" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L194" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M194" t="n">
-        <v>24492</v>
+        <v>25500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K195" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L195" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M195" t="n">
-        <v>22000</v>
+        <v>24492</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14460,25 +14460,25 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K196" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L196" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M196" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K197" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L197" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M197" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K198" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="L198" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M198" t="n">
-        <v>38960</v>
+        <v>23000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1558</v>
+        <v>920</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K199" t="n">
+        <v>38000</v>
+      </c>
+      <c r="L199" t="n">
         <v>40000</v>
       </c>
-      <c r="L199" t="n">
-        <v>41000</v>
-      </c>
       <c r="M199" t="n">
-        <v>40500</v>
+        <v>38960</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1620</v>
+        <v>1558</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K200" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L200" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="M200" t="n">
-        <v>29000</v>
+        <v>40500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1160</v>
+        <v>1620</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14847,7 +14847,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14904,26 +14904,26 @@
         <v>50</v>
       </c>
       <c r="K202" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L202" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M202" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K203" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L203" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M203" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,29 +15045,29 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K204" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L204" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M204" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K205" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L205" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M205" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,29 +15189,29 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K206" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L206" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M206" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1040</v>
+        <v>1200</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K207" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L207" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M207" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1400</v>
+        <v>1040</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15336,26 +15336,26 @@
         <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L208" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M208" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,7 +15405,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K209" t="n">
         <v>23000</v>
@@ -15418,12 +15418,12 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P209" t="n">
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K210" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L210" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M210" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15549,29 +15549,29 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K211" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L211" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M211" t="n">
-        <v>32333</v>
+        <v>16500</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1293</v>
+        <v>660</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K212" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L212" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M212" t="n">
-        <v>34480</v>
+        <v>32333</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1379</v>
+        <v>1293</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K213" t="n">
         <v>34000</v>
       </c>
       <c r="L213" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M213" t="n">
-        <v>34000</v>
+        <v>34480</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K214" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L214" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M214" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15840,26 +15840,26 @@
         <v>30</v>
       </c>
       <c r="K215" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L215" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M215" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K216" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L216" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M216" t="n">
-        <v>20500</v>
+        <v>27000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>820</v>
+        <v>1080</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K217" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L217" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M217" t="n">
-        <v>34500</v>
+        <v>20500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1380</v>
+        <v>820</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,29 +16053,29 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K218" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L218" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M218" t="n">
-        <v>26000</v>
+        <v>34500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1040</v>
+        <v>1380</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K219" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L219" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M219" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K220" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L220" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M220" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K221" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L221" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M221" t="n">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>660</v>
+        <v>1080</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K222" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L222" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M222" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16409,33 +16409,33 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K223" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L223" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M223" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K224" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L224" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M224" t="n">
-        <v>29333</v>
+        <v>27000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,29 +16557,29 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K225" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L225" t="n">
         <v>30000</v>
       </c>
-      <c r="L225" t="n">
-        <v>33000</v>
-      </c>
       <c r="M225" t="n">
-        <v>31125</v>
+        <v>29333</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K226" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L226" t="n">
         <v>33000</v>
       </c>
-      <c r="L226" t="n">
-        <v>34000</v>
-      </c>
       <c r="M226" t="n">
-        <v>33500</v>
+        <v>31125</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1340</v>
+        <v>1245</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K227" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L227" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M227" t="n">
-        <v>32512</v>
+        <v>33500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K228" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L228" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M228" t="n">
-        <v>25489</v>
+        <v>32512</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K229" t="n">
         <v>25000</v>
       </c>
       <c r="L229" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M229" t="n">
-        <v>25000</v>
+        <v>25489</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K230" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L230" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M230" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1480</v>
+        <v>1000</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K231" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L231" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M231" t="n">
-        <v>34429</v>
+        <v>37000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1377</v>
+        <v>1480</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K232" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L232" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M232" t="n">
-        <v>24500</v>
+        <v>34429</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>980</v>
+        <v>1377</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K233" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L233" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M233" t="n">
-        <v>41040</v>
+        <v>24500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1642</v>
+        <v>980</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K234" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L234" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M234" t="n">
-        <v>33000</v>
+        <v>41040</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1320</v>
+        <v>1642</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17280,26 +17280,26 @@
         <v>70</v>
       </c>
       <c r="K235" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L235" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M235" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K236" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L236" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M236" t="n">
-        <v>27556</v>
+        <v>30000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K237" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L237" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M237" t="n">
-        <v>25000</v>
+        <v>27556</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K238" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L238" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>29250</v>
+        <v>25000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1170</v>
+        <v>1000</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L239" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M239" t="n">
-        <v>26040</v>
+        <v>29250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1042</v>
+        <v>1170</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K240" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L240" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M240" t="n">
-        <v>30000</v>
+        <v>26040</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1200</v>
+        <v>1042</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17712,26 +17712,26 @@
         <v>50</v>
       </c>
       <c r="K241" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L241" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M241" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,29 +17781,29 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L242" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M242" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K243" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L243" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M243" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17928,13 +17928,13 @@
         <v>70</v>
       </c>
       <c r="K244" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L244" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M244" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K245" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L245" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M245" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K246" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L246" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M246" t="n">
-        <v>18977</v>
+        <v>30000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>759</v>
+        <v>1200</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K247" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L247" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M247" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K248" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L248" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M248" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K249" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L249" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M249" t="n">
-        <v>28500</v>
+        <v>33488</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K250" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L250" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M250" t="n">
-        <v>35480</v>
+        <v>28500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1419</v>
+        <v>1140</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K251" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="L251" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M251" t="n">
-        <v>39500</v>
+        <v>35480</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1580</v>
+        <v>1419</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,58 +18477,130 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J252" t="n">
+        <v>16</v>
+      </c>
+      <c r="K252" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L252" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M252" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>25</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>9</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E252" t="n">
-        <v>13</v>
-      </c>
-      <c r="F252" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="E253" t="n">
+        <v>13</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J252" t="n">
-        <v>25</v>
-      </c>
-      <c r="K252" t="n">
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>25</v>
+      </c>
+      <c r="K253" t="n">
         <v>34000</v>
       </c>
-      <c r="L252" t="n">
+      <c r="L253" t="n">
         <v>34000</v>
       </c>
-      <c r="M252" t="n">
+      <c r="M253" t="n">
         <v>34000</v>
       </c>
-      <c r="N252" t="inlineStr">
+      <c r="N253" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O252" t="inlineStr">
+      <c r="O253" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P252" t="n">
+      <c r="P253" t="n">
         <v>1360</v>
       </c>
-      <c r="Q252" t="n">
-        <v>25</v>
-      </c>
-      <c r="R252" t="inlineStr">
+      <c r="Q253" t="n">
+        <v>25</v>
+      </c>
+      <c r="R253" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8424,13 +8424,13 @@
         <v>25</v>
       </c>
       <c r="K112" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L112" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M112" t="n">
-        <v>29040</v>
+        <v>40960</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1162</v>
+        <v>1638</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8496,13 +8496,13 @@
         <v>25</v>
       </c>
       <c r="K113" t="n">
-        <v>43000</v>
+        <v>28000</v>
       </c>
       <c r="L113" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="M113" t="n">
-        <v>43520</v>
+        <v>29040</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1741</v>
+        <v>1162</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,29 +8565,29 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K114" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L114" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="M114" t="n">
-        <v>29556</v>
+        <v>43520</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1182</v>
+        <v>1741</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,29 +8637,29 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K115" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L115" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M115" t="n">
-        <v>34625</v>
+        <v>29556</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1385</v>
+        <v>1182</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K116" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L116" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M116" t="n">
-        <v>25500</v>
+        <v>34625</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1020</v>
+        <v>1385</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K117" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L117" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M117" t="n">
-        <v>36500</v>
+        <v>25500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1460</v>
+        <v>1020</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K118" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="L118" t="n">
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="M118" t="n">
-        <v>31000</v>
+        <v>36500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1240</v>
+        <v>1460</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K119" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L119" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M119" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K120" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L120" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M120" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9015,11 +9015,11 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K121" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L121" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M121" t="n">
-        <v>21500</v>
+        <v>34000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>860</v>
+        <v>1360</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K122" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="L122" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M122" t="n">
-        <v>32571</v>
+        <v>21500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1303</v>
+        <v>860</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K123" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L123" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M123" t="n">
-        <v>30000</v>
+        <v>32571</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1200</v>
+        <v>1303</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K124" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L124" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M124" t="n">
-        <v>34500</v>
+        <v>30000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1380</v>
+        <v>1200</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K125" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="L125" t="n">
         <v>35000</v>
       </c>
       <c r="M125" t="n">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K126" t="n">
         <v>35000</v>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K127" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L127" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M127" t="n">
-        <v>32500</v>
+        <v>35000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K128" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L128" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M128" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1420</v>
+        <v>1300</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K129" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L129" t="n">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="M129" t="n">
-        <v>21512</v>
+        <v>35500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>860</v>
+        <v>1420</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,29 +9717,29 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K130" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L130" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M130" t="n">
-        <v>16000</v>
+        <v>21512</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>640</v>
+        <v>860</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K131" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L131" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M131" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1160</v>
+        <v>640</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K132" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L132" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M132" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K133" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L133" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M133" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K134" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L134" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M134" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K135" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L135" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M135" t="n">
-        <v>26520</v>
+        <v>21500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1061</v>
+        <v>860</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10152,26 +10152,26 @@
         <v>25</v>
       </c>
       <c r="K136" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L136" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M136" t="n">
-        <v>28000</v>
+        <v>26520</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1120</v>
+        <v>1061</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K137" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L137" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M137" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1600</v>
+        <v>1120</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,29 +10293,29 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K138" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="L138" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="M138" t="n">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1696</v>
+        <v>1600</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K139" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="L139" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="M139" t="n">
-        <v>29000</v>
+        <v>42400</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1160</v>
+        <v>1696</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,17 +10437,17 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K140" t="n">
         <v>28000</v>
       </c>
       <c r="L140" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M140" t="n">
         <v>29000</v>
       </c>
-      <c r="M140" t="n">
-        <v>28656</v>
-      </c>
       <c r="N140" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K141" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="L141" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="M141" t="n">
-        <v>21000</v>
+        <v>28656</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>840</v>
+        <v>1146</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K142" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L142" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M142" t="n">
-        <v>26520</v>
+        <v>21000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1061</v>
+        <v>840</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10656,13 +10656,13 @@
         <v>25</v>
       </c>
       <c r="K143" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="L143" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M143" t="n">
-        <v>31000</v>
+        <v>26520</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1240</v>
+        <v>1061</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K144" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L144" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M144" t="n">
-        <v>21023</v>
+        <v>31000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>841</v>
+        <v>1240</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K145" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L145" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M145" t="n">
-        <v>25500</v>
+        <v>21023</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1020</v>
+        <v>841</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K146" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L146" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M146" t="n">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1300</v>
+        <v>1020</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K147" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L147" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M147" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1420</v>
+        <v>1300</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K148" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L148" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M148" t="n">
-        <v>34500</v>
+        <v>35500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1380</v>
+        <v>1420</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K149" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L149" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M149" t="n">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,29 +11157,29 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K150" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L150" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M150" t="n">
-        <v>28000</v>
+        <v>33500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1120</v>
+        <v>1340</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K151" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="L151" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M151" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1240</v>
+        <v>1120</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,29 +11301,29 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K152" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="L152" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M152" t="n">
-        <v>29273</v>
+        <v>31000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1171</v>
+        <v>1240</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K153" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L153" t="n">
         <v>30000</v>
       </c>
-      <c r="L153" t="n">
-        <v>34000</v>
-      </c>
       <c r="M153" t="n">
-        <v>32400</v>
+        <v>29273</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1296</v>
+        <v>1171</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="K154" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L154" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="M154" t="n">
-        <v>37500</v>
+        <v>32400</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11463,11 +11463,11 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1500</v>
+        <v>1296</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K155" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="L155" t="n">
         <v>38000</v>
       </c>
       <c r="M155" t="n">
-        <v>37000</v>
+        <v>37500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,25 +11589,25 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K156" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="L156" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="M156" t="n">
         <v>37000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P156" t="n">
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,29 +11661,29 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K157" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="L157" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="M157" t="n">
-        <v>33500</v>
+        <v>37000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K158" t="n">
         <v>33000</v>
@@ -11742,7 +11742,7 @@
         <v>34000</v>
       </c>
       <c r="M158" t="n">
-        <v>33480</v>
+        <v>33500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K159" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L159" t="n">
-        <v>41000</v>
+        <v>34000</v>
       </c>
       <c r="M159" t="n">
-        <v>40500</v>
+        <v>33480</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1620</v>
+        <v>1339</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K160" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L160" t="n">
-        <v>36000</v>
+        <v>41000</v>
       </c>
       <c r="M160" t="n">
-        <v>35000</v>
+        <v>40500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11895,11 +11895,11 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1400</v>
+        <v>1620</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K161" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L161" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M161" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1040</v>
+        <v>1400</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K162" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L162" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="M162" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K163" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L163" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M163" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K164" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L164" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M164" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12183,11 +12183,11 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K165" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L165" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M165" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K166" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L166" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="M166" t="n">
-        <v>40524</v>
+        <v>27500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12327,11 +12327,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1621</v>
+        <v>1100</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="K167" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L167" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="M167" t="n">
-        <v>28000</v>
+        <v>40524</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1120</v>
+        <v>1621</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K168" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L168" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M168" t="n">
-        <v>22500</v>
+        <v>28000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>900</v>
+        <v>1120</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K169" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L169" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M169" t="n">
-        <v>31500</v>
+        <v>22500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K170" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L170" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M170" t="n">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1340</v>
+        <v>1260</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K171" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L171" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M171" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,7 +12741,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K172" t="n">
         <v>32000</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K173" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="L173" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="M173" t="n">
-        <v>41560</v>
+        <v>32500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1662</v>
+        <v>1300</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K174" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L174" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="M174" t="n">
-        <v>27500</v>
+        <v>41560</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1100</v>
+        <v>1662</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K175" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L175" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M175" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K176" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L176" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M176" t="n">
-        <v>30000</v>
+        <v>35500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13047,11 +13047,11 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K177" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L177" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M177" t="n">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13176,13 +13176,13 @@
         <v>16</v>
       </c>
       <c r="K178" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="L178" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="M178" t="n">
-        <v>39000</v>
+        <v>31500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K179" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="L179" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M179" t="n">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>800</v>
+        <v>1560</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K180" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L180" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M180" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13392,26 +13392,26 @@
         <v>50</v>
       </c>
       <c r="K181" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L181" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M181" t="n">
-        <v>28500</v>
+        <v>22000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1140</v>
+        <v>880</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L182" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M182" t="n">
-        <v>41000</v>
+        <v>28500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1640</v>
+        <v>1140</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,29 +13533,29 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K183" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L183" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M183" t="n">
-        <v>27455</v>
+        <v>41000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1098</v>
+        <v>1640</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,29 +13605,29 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K184" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L184" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M184" t="n">
-        <v>29588</v>
+        <v>27455</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1184</v>
+        <v>1098</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K185" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L185" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M185" t="n">
-        <v>24000</v>
+        <v>29588</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>960</v>
+        <v>1184</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K186" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L186" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M186" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K187" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L187" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M187" t="n">
-        <v>36480</v>
+        <v>27000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1459</v>
+        <v>1080</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K188" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L188" t="n">
         <v>37000</v>
       </c>
-      <c r="L188" t="n">
-        <v>38000</v>
-      </c>
       <c r="M188" t="n">
-        <v>37500</v>
+        <v>36480</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1500</v>
+        <v>1459</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,29 +13965,29 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K189" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L189" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M189" t="n">
-        <v>18000</v>
+        <v>37500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K190" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L190" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M190" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K191" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L191" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="M191" t="n">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14127,11 +14127,11 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1080</v>
+        <v>500</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K192" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L192" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M192" t="n">
-        <v>35588</v>
+        <v>27000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1424</v>
+        <v>1080</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,29 +14253,29 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K193" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="L193" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M193" t="n">
-        <v>44429</v>
+        <v>35588</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1777</v>
+        <v>1424</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K194" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="L194" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M194" t="n">
-        <v>25500</v>
+        <v>44429</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1020</v>
+        <v>1777</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K195" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L195" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M195" t="n">
-        <v>24492</v>
+        <v>25500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K196" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L196" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M196" t="n">
-        <v>22000</v>
+        <v>24492</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14532,25 +14532,25 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K197" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L197" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M197" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14559,11 +14559,11 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,29 +14613,29 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K198" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L198" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M198" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="L199" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M199" t="n">
-        <v>38960</v>
+        <v>23000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1558</v>
+        <v>920</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K200" t="n">
+        <v>38000</v>
+      </c>
+      <c r="L200" t="n">
         <v>40000</v>
       </c>
-      <c r="L200" t="n">
-        <v>41000</v>
-      </c>
       <c r="M200" t="n">
-        <v>40500</v>
+        <v>38960</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1620</v>
+        <v>1558</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K201" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L201" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="M201" t="n">
-        <v>29000</v>
+        <v>40500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1160</v>
+        <v>1620</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P202" t="n">
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14976,26 +14976,26 @@
         <v>50</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L203" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M203" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,29 +15045,29 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K204" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L204" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M204" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K205" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L205" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M205" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,29 +15189,29 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K206" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L206" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M206" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K207" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L207" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M207" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1040</v>
+        <v>1200</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,29 +15333,29 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K208" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L208" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M208" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1400</v>
+        <v>1040</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15408,26 +15408,26 @@
         <v>70</v>
       </c>
       <c r="K209" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L209" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M209" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,7 +15477,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K210" t="n">
         <v>23000</v>
@@ -15490,12 +15490,12 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K211" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L211" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M211" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K212" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L212" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M212" t="n">
-        <v>32333</v>
+        <v>16500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1293</v>
+        <v>660</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,29 +15693,29 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K213" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L213" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M213" t="n">
-        <v>34480</v>
+        <v>32333</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1379</v>
+        <v>1293</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K214" t="n">
         <v>34000</v>
       </c>
       <c r="L214" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M214" t="n">
-        <v>34000</v>
+        <v>34480</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,29 +15837,29 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K215" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L215" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M215" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15912,26 +15912,26 @@
         <v>30</v>
       </c>
       <c r="K216" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L216" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M216" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K217" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L217" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M217" t="n">
-        <v>20500</v>
+        <v>27000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -15999,11 +15999,11 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>820</v>
+        <v>1080</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K218" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L218" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M218" t="n">
-        <v>34500</v>
+        <v>20500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1380</v>
+        <v>820</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,29 +16125,29 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K219" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L219" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M219" t="n">
-        <v>26000</v>
+        <v>34500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1040</v>
+        <v>1380</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K220" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L220" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M220" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16215,11 +16215,11 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,29 +16269,29 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K221" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L221" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M221" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K222" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L222" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M222" t="n">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>660</v>
+        <v>1080</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K223" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L223" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M223" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16481,33 +16481,33 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K224" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L224" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M224" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K225" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L225" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M225" t="n">
-        <v>29333</v>
+        <v>27000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16575,11 +16575,11 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,29 +16629,29 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K226" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L226" t="n">
         <v>30000</v>
       </c>
-      <c r="L226" t="n">
-        <v>33000</v>
-      </c>
       <c r="M226" t="n">
-        <v>31125</v>
+        <v>29333</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K227" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L227" t="n">
         <v>33000</v>
       </c>
-      <c r="L227" t="n">
-        <v>34000</v>
-      </c>
       <c r="M227" t="n">
-        <v>33500</v>
+        <v>31125</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1340</v>
+        <v>1245</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L228" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M228" t="n">
-        <v>32512</v>
+        <v>33500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K229" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L229" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M229" t="n">
-        <v>25489</v>
+        <v>32512</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K230" t="n">
         <v>25000</v>
       </c>
       <c r="L230" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M230" t="n">
-        <v>25000</v>
+        <v>25489</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K231" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L231" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M231" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1480</v>
+        <v>1000</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,29 +17061,29 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K232" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L232" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M232" t="n">
-        <v>34429</v>
+        <v>37000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1377</v>
+        <v>1480</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K233" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M233" t="n">
-        <v>24500</v>
+        <v>34429</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>980</v>
+        <v>1377</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K234" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L234" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M234" t="n">
-        <v>41040</v>
+        <v>24500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1642</v>
+        <v>980</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K235" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L235" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M235" t="n">
-        <v>33000</v>
+        <v>41040</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1320</v>
+        <v>1642</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17352,26 +17352,26 @@
         <v>70</v>
       </c>
       <c r="K236" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L236" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M236" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K237" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L237" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M237" t="n">
-        <v>27556</v>
+        <v>30000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K238" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L238" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M238" t="n">
-        <v>25000</v>
+        <v>27556</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K239" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L239" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M239" t="n">
-        <v>29250</v>
+        <v>25000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1170</v>
+        <v>1000</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K240" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L240" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M240" t="n">
-        <v>26040</v>
+        <v>29250</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1042</v>
+        <v>1170</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K241" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L241" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M241" t="n">
-        <v>30000</v>
+        <v>26040</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1200</v>
+        <v>1042</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17784,26 +17784,26 @@
         <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L242" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M242" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L243" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M243" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K244" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L244" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M244" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -18000,13 +18000,13 @@
         <v>70</v>
       </c>
       <c r="K245" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L245" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M245" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,29 +18069,29 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K246" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L246" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M246" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K247" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L247" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M247" t="n">
-        <v>18977</v>
+        <v>30000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>759</v>
+        <v>1200</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K248" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L248" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M248" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K249" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L249" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M249" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K250" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L250" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M250" t="n">
-        <v>28500</v>
+        <v>33488</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K251" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L251" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M251" t="n">
-        <v>35480</v>
+        <v>28500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1419</v>
+        <v>1140</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K252" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="L252" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M252" t="n">
-        <v>39500</v>
+        <v>35480</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1580</v>
+        <v>1419</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,58 +18549,130 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E253" t="n">
+        <v>13</v>
+      </c>
+      <c r="F253" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J253" t="n">
+        <v>16</v>
+      </c>
+      <c r="K253" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L253" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M253" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P253" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>25</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>9</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E253" t="n">
-        <v>13</v>
-      </c>
-      <c r="F253" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="E254" t="n">
+        <v>13</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J253" t="n">
-        <v>25</v>
-      </c>
-      <c r="K253" t="n">
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>25</v>
+      </c>
+      <c r="K254" t="n">
         <v>34000</v>
       </c>
-      <c r="L253" t="n">
+      <c r="L254" t="n">
         <v>34000</v>
       </c>
-      <c r="M253" t="n">
+      <c r="M254" t="n">
         <v>34000</v>
       </c>
-      <c r="N253" t="inlineStr">
+      <c r="N254" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O253" t="inlineStr">
+      <c r="O254" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P253" t="n">
+      <c r="P254" t="n">
         <v>1360</v>
       </c>
-      <c r="Q253" t="n">
-        <v>25</v>
-      </c>
-      <c r="R253" t="inlineStr">
+      <c r="Q254" t="n">
+        <v>25</v>
+      </c>
+      <c r="R254" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R254"/>
+  <dimension ref="A1:R255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -6981,29 +6981,29 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K92" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="L92" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M92" t="n">
-        <v>25000</v>
+        <v>44480</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1000</v>
+        <v>1779</v>
       </c>
       <c r="Q92" t="n">
         <v>25</v>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7053,29 +7053,29 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K93" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L93" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M93" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q93" t="n">
         <v>25</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K94" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L94" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="M94" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1280</v>
+        <v>1160</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K95" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L95" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M95" t="n">
-        <v>24500</v>
+        <v>32000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>980</v>
+        <v>1280</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7265,20 +7265,20 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K96" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L96" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M96" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K97" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L97" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M97" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K98" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L98" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M98" t="n">
-        <v>28500</v>
+        <v>24500</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1140</v>
+        <v>980</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7488,13 +7488,13 @@
         <v>16</v>
       </c>
       <c r="K99" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L99" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M99" t="n">
-        <v>35500</v>
+        <v>28500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1420</v>
+        <v>1140</v>
       </c>
       <c r="Q99" t="n">
         <v>25</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K100" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L100" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="M100" t="n">
-        <v>28000</v>
+        <v>35500</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1120</v>
+        <v>1420</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7629,29 +7629,29 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K101" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L101" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1200</v>
+        <v>1120</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L102" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>760</v>
+        <v>1200</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,29 +7773,29 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K103" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L103" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M103" t="n">
-        <v>29625</v>
+        <v>19000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1185</v>
+        <v>760</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K104" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L104" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M104" t="n">
-        <v>35000</v>
+        <v>29625</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1400</v>
+        <v>1185</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7917,29 +7917,29 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K105" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L105" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M105" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K106" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L106" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M106" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>680</v>
+        <v>920</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,29 +8061,29 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K107" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L107" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="M107" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1160</v>
+        <v>680</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K108" t="n">
         <v>29000</v>
       </c>
       <c r="L108" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="M108" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K109" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L109" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M109" t="n">
-        <v>33480</v>
+        <v>29500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1339</v>
+        <v>1180</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K110" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L110" t="n">
-        <v>41000</v>
+        <v>34000</v>
       </c>
       <c r="M110" t="n">
-        <v>40500</v>
+        <v>33480</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1620</v>
+        <v>1339</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,29 +8349,29 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K111" t="n">
-        <v>23000</v>
+        <v>40000</v>
       </c>
       <c r="L111" t="n">
-        <v>23000</v>
+        <v>41000</v>
       </c>
       <c r="M111" t="n">
-        <v>23000</v>
+        <v>40500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>920</v>
+        <v>1620</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,29 +8421,29 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K112" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="L112" t="n">
-        <v>42000</v>
+        <v>23000</v>
       </c>
       <c r="M112" t="n">
-        <v>40960</v>
+        <v>23000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1638</v>
+        <v>920</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8496,13 +8496,13 @@
         <v>25</v>
       </c>
       <c r="K113" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L113" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M113" t="n">
-        <v>29040</v>
+        <v>40960</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1162</v>
+        <v>1638</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8568,13 +8568,13 @@
         <v>25</v>
       </c>
       <c r="K114" t="n">
-        <v>43000</v>
+        <v>28000</v>
       </c>
       <c r="L114" t="n">
-        <v>44000</v>
+        <v>30000</v>
       </c>
       <c r="M114" t="n">
-        <v>43520</v>
+        <v>29040</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1741</v>
+        <v>1162</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,29 +8637,29 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="K115" t="n">
-        <v>29000</v>
+        <v>43000</v>
       </c>
       <c r="L115" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="M115" t="n">
-        <v>29556</v>
+        <v>43520</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1182</v>
+        <v>1741</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,29 +8709,29 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K116" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L116" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M116" t="n">
-        <v>34625</v>
+        <v>29556</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1385</v>
+        <v>1182</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K117" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L117" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M117" t="n">
-        <v>25500</v>
+        <v>34625</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1020</v>
+        <v>1385</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K118" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L118" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M118" t="n">
-        <v>36500</v>
+        <v>25500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1460</v>
+        <v>1020</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K119" t="n">
-        <v>31000</v>
+        <v>36000</v>
       </c>
       <c r="L119" t="n">
-        <v>31000</v>
+        <v>37000</v>
       </c>
       <c r="M119" t="n">
-        <v>31000</v>
+        <v>36500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1240</v>
+        <v>1460</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K120" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L120" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M120" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K121" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L121" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M121" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1360</v>
+        <v>1000</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K122" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L122" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M122" t="n">
-        <v>21500</v>
+        <v>34000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>860</v>
+        <v>1360</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44218</v>
+        <v>44399</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K123" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="L123" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M123" t="n">
-        <v>32571</v>
+        <v>21500</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9231,11 +9231,11 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1303</v>
+        <v>860</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K124" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L124" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M124" t="n">
-        <v>30000</v>
+        <v>32571</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1200</v>
+        <v>1303</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K125" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L125" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M125" t="n">
-        <v>34500</v>
+        <v>30000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1380</v>
+        <v>1200</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,29 +9429,29 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K126" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="L126" t="n">
         <v>35000</v>
       </c>
       <c r="M126" t="n">
-        <v>35000</v>
+        <v>34500</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1400</v>
+        <v>1380</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K127" t="n">
         <v>35000</v>
@@ -9514,7 +9514,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K128" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="L128" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M128" t="n">
-        <v>32500</v>
+        <v>35000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K129" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L129" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M129" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1420</v>
+        <v>1300</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="K130" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L130" t="n">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="M130" t="n">
-        <v>21512</v>
+        <v>35500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>860</v>
+        <v>1420</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K131" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L131" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M131" t="n">
-        <v>16000</v>
+        <v>21512</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>640</v>
+        <v>860</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,29 +9861,29 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K132" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L132" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M132" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1160</v>
+        <v>640</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L133" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M133" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K134" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L134" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M134" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K135" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L135" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M135" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>860</v>
+        <v>1200</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K136" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L136" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M136" t="n">
-        <v>26520</v>
+        <v>21500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1061</v>
+        <v>860</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10224,26 +10224,26 @@
         <v>25</v>
       </c>
       <c r="K137" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L137" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M137" t="n">
-        <v>28000</v>
+        <v>26520</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1120</v>
+        <v>1061</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K138" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L138" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="M138" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1600</v>
+        <v>1120</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K139" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="L139" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="M139" t="n">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1696</v>
+        <v>1600</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K140" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="L140" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="M140" t="n">
-        <v>29000</v>
+        <v>42400</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10455,11 +10455,11 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1160</v>
+        <v>1696</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10509,17 +10509,17 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K141" t="n">
         <v>28000</v>
       </c>
       <c r="L141" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M141" t="n">
         <v>29000</v>
       </c>
-      <c r="M141" t="n">
-        <v>28656</v>
-      </c>
       <c r="N141" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K142" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="L142" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="M142" t="n">
-        <v>21000</v>
+        <v>28656</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>840</v>
+        <v>1146</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,29 +10653,29 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K143" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L143" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M143" t="n">
-        <v>26520</v>
+        <v>21000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1061</v>
+        <v>840</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10728,13 +10728,13 @@
         <v>25</v>
       </c>
       <c r="K144" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="L144" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M144" t="n">
-        <v>31000</v>
+        <v>26520</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1240</v>
+        <v>1061</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K145" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L145" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M145" t="n">
-        <v>21023</v>
+        <v>31000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10815,11 +10815,11 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>841</v>
+        <v>1240</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K146" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L146" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M146" t="n">
-        <v>25500</v>
+        <v>21023</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1020</v>
+        <v>841</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K147" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L147" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="M147" t="n">
-        <v>32500</v>
+        <v>25500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1300</v>
+        <v>1020</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K148" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L148" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M148" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1420</v>
+        <v>1300</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K149" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="L149" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="M149" t="n">
-        <v>34500</v>
+        <v>35500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1380</v>
+        <v>1420</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K150" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L150" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M150" t="n">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K151" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L151" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M151" t="n">
-        <v>28000</v>
+        <v>33500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1120</v>
+        <v>1340</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,29 +11301,29 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K152" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="L152" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="M152" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1240</v>
+        <v>1120</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K153" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="L153" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M153" t="n">
-        <v>29273</v>
+        <v>31000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1171</v>
+        <v>1240</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,29 +11445,29 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K154" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L154" t="n">
         <v>30000</v>
       </c>
-      <c r="L154" t="n">
-        <v>34000</v>
-      </c>
       <c r="M154" t="n">
-        <v>32400</v>
+        <v>29273</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1296</v>
+        <v>1171</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="K155" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L155" t="n">
-        <v>38000</v>
+        <v>34000</v>
       </c>
       <c r="M155" t="n">
-        <v>37500</v>
+        <v>32400</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1500</v>
+        <v>1296</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K156" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="L156" t="n">
         <v>38000</v>
       </c>
       <c r="M156" t="n">
-        <v>37000</v>
+        <v>37500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,25 +11661,25 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K157" t="n">
-        <v>37000</v>
+        <v>36000</v>
       </c>
       <c r="L157" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="M157" t="n">
         <v>37000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P157" t="n">
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,29 +11733,29 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K158" t="n">
-        <v>33000</v>
+        <v>37000</v>
       </c>
       <c r="L158" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="M158" t="n">
-        <v>33500</v>
+        <v>37000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1340</v>
+        <v>1480</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11805,7 +11805,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K159" t="n">
         <v>33000</v>
@@ -11814,7 +11814,7 @@
         <v>34000</v>
       </c>
       <c r="M159" t="n">
-        <v>33480</v>
+        <v>33500</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K160" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L160" t="n">
-        <v>41000</v>
+        <v>34000</v>
       </c>
       <c r="M160" t="n">
-        <v>40500</v>
+        <v>33480</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1620</v>
+        <v>1339</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K161" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L161" t="n">
-        <v>36000</v>
+        <v>41000</v>
       </c>
       <c r="M161" t="n">
-        <v>35000</v>
+        <v>40500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1400</v>
+        <v>1620</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K162" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L162" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M162" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1040</v>
+        <v>1400</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K163" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L163" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="M163" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1120</v>
+        <v>1040</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,29 +12165,29 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K164" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L164" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="M164" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1160</v>
+        <v>1120</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K165" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L165" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M165" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K166" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L166" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M166" t="n">
-        <v>27500</v>
+        <v>23000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1100</v>
+        <v>920</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K167" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L167" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="M167" t="n">
-        <v>40524</v>
+        <v>27500</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1621</v>
+        <v>1100</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="K168" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="L168" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="M168" t="n">
-        <v>28000</v>
+        <v>40524</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12471,11 +12471,11 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1120</v>
+        <v>1621</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12525,29 +12525,29 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K169" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L169" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M169" t="n">
-        <v>22500</v>
+        <v>28000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>900</v>
+        <v>1120</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12597,29 +12597,29 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K170" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L170" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M170" t="n">
-        <v>31500</v>
+        <v>22500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1260</v>
+        <v>900</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K171" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L171" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M171" t="n">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1340</v>
+        <v>1260</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K172" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L172" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M172" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K173" t="n">
         <v>32000</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K174" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="L174" t="n">
-        <v>43000</v>
+        <v>33000</v>
       </c>
       <c r="M174" t="n">
-        <v>41560</v>
+        <v>32500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1662</v>
+        <v>1300</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K175" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L175" t="n">
-        <v>28000</v>
+        <v>43000</v>
       </c>
       <c r="M175" t="n">
-        <v>27500</v>
+        <v>41560</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1100</v>
+        <v>1662</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K176" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L176" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M176" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K177" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L177" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M177" t="n">
-        <v>30000</v>
+        <v>35500</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K178" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="L178" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M178" t="n">
-        <v>31500</v>
+        <v>30000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1260</v>
+        <v>1200</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13248,13 +13248,13 @@
         <v>16</v>
       </c>
       <c r="K179" t="n">
-        <v>38000</v>
+        <v>31000</v>
       </c>
       <c r="L179" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="M179" t="n">
-        <v>39000</v>
+        <v>31500</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1560</v>
+        <v>1260</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,29 +13317,29 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K180" t="n">
-        <v>20000</v>
+        <v>38000</v>
       </c>
       <c r="L180" t="n">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="M180" t="n">
-        <v>20000</v>
+        <v>39000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>800</v>
+        <v>1560</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K181" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L181" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M181" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13464,26 +13464,26 @@
         <v>50</v>
       </c>
       <c r="K182" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L182" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M182" t="n">
-        <v>28500</v>
+        <v>22000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1140</v>
+        <v>880</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K183" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L183" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M183" t="n">
-        <v>41000</v>
+        <v>28500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1640</v>
+        <v>1140</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,29 +13605,29 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="K184" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L184" t="n">
-        <v>28000</v>
+        <v>42000</v>
       </c>
       <c r="M184" t="n">
-        <v>27455</v>
+        <v>41000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1098</v>
+        <v>1640</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,29 +13677,29 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K185" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L185" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M185" t="n">
-        <v>29588</v>
+        <v>27455</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1184</v>
+        <v>1098</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,29 +13749,29 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K186" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L186" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M186" t="n">
-        <v>24000</v>
+        <v>29588</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>960</v>
+        <v>1184</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,29 +13821,29 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K187" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L187" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M187" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K188" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L188" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M188" t="n">
-        <v>36480</v>
+        <v>27000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13911,11 +13911,11 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1459</v>
+        <v>1080</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K189" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L189" t="n">
         <v>37000</v>
       </c>
-      <c r="L189" t="n">
-        <v>38000</v>
-      </c>
       <c r="M189" t="n">
-        <v>37500</v>
+        <v>36480</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1500</v>
+        <v>1459</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K190" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="L190" t="n">
-        <v>18000</v>
+        <v>38000</v>
       </c>
       <c r="M190" t="n">
-        <v>18000</v>
+        <v>37500</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>720</v>
+        <v>1500</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K191" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L191" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M191" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K192" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L192" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="M192" t="n">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1080</v>
+        <v>500</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K193" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L193" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="M193" t="n">
-        <v>35588</v>
+        <v>27000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1424</v>
+        <v>1080</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,29 +14325,29 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K194" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="L194" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M194" t="n">
-        <v>44429</v>
+        <v>35588</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1777</v>
+        <v>1424</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K195" t="n">
-        <v>25000</v>
+        <v>44000</v>
       </c>
       <c r="L195" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M195" t="n">
-        <v>25500</v>
+        <v>44429</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1020</v>
+        <v>1777</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K196" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L196" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M196" t="n">
-        <v>24492</v>
+        <v>25500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K197" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L197" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M197" t="n">
-        <v>22000</v>
+        <v>24492</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14604,25 +14604,25 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K198" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="L198" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M198" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1200</v>
+        <v>880</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K199" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L199" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M199" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K200" t="n">
-        <v>38000</v>
+        <v>23000</v>
       </c>
       <c r="L200" t="n">
-        <v>40000</v>
+        <v>23000</v>
       </c>
       <c r="M200" t="n">
-        <v>38960</v>
+        <v>23000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1558</v>
+        <v>920</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K201" t="n">
+        <v>38000</v>
+      </c>
+      <c r="L201" t="n">
         <v>40000</v>
       </c>
-      <c r="L201" t="n">
-        <v>41000</v>
-      </c>
       <c r="M201" t="n">
-        <v>40500</v>
+        <v>38960</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1620</v>
+        <v>1558</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K202" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="L202" t="n">
-        <v>29000</v>
+        <v>41000</v>
       </c>
       <c r="M202" t="n">
-        <v>29000</v>
+        <v>40500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14919,11 +14919,11 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1160</v>
+        <v>1620</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P203" t="n">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15048,26 +15048,26 @@
         <v>50</v>
       </c>
       <c r="K204" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L204" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M204" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>640</v>
+        <v>1160</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,29 +15117,29 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K205" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L205" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M205" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,29 +15189,29 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K206" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L206" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M206" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>920</v>
+        <v>1120</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,29 +15261,29 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K207" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L207" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M207" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,29 +15333,29 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K208" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L208" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M208" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1040</v>
+        <v>1200</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,29 +15405,29 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K209" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L209" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M209" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1400</v>
+        <v>1040</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15480,26 +15480,26 @@
         <v>70</v>
       </c>
       <c r="K210" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L210" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M210" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>920</v>
+        <v>1400</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,7 +15549,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K211" t="n">
         <v>23000</v>
@@ -15562,12 +15562,12 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K212" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L212" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M212" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>660</v>
+        <v>920</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15693,29 +15693,29 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K213" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L213" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M213" t="n">
-        <v>32333</v>
+        <v>16500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1293</v>
+        <v>660</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K214" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L214" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M214" t="n">
-        <v>34480</v>
+        <v>32333</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1379</v>
+        <v>1293</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K215" t="n">
         <v>34000</v>
       </c>
       <c r="L215" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M215" t="n">
-        <v>34000</v>
+        <v>34480</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,29 +15909,29 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K216" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L216" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="M216" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>960</v>
+        <v>1360</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15984,26 +15984,26 @@
         <v>30</v>
       </c>
       <c r="K217" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L217" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M217" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K218" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L218" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M218" t="n">
-        <v>20500</v>
+        <v>27000</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16071,11 +16071,11 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>820</v>
+        <v>1080</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K219" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="L219" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M219" t="n">
-        <v>34500</v>
+        <v>20500</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16143,11 +16143,11 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1380</v>
+        <v>820</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K220" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L220" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M220" t="n">
-        <v>26000</v>
+        <v>34500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1040</v>
+        <v>1380</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K221" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L221" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M221" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,29 +16341,29 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K222" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L222" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M222" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K223" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L223" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="M223" t="n">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16431,11 +16431,11 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>660</v>
+        <v>1080</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K224" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L224" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M224" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16553,33 +16553,33 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K225" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L225" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M225" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1080</v>
+        <v>560</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K226" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L226" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M226" t="n">
-        <v>29333</v>
+        <v>27000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1173</v>
+        <v>1080</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K227" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L227" t="n">
         <v>30000</v>
       </c>
-      <c r="L227" t="n">
-        <v>33000</v>
-      </c>
       <c r="M227" t="n">
-        <v>31125</v>
+        <v>29333</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="K228" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L228" t="n">
         <v>33000</v>
       </c>
-      <c r="L228" t="n">
-        <v>34000</v>
-      </c>
       <c r="M228" t="n">
-        <v>33500</v>
+        <v>31125</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1340</v>
+        <v>1245</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L229" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M229" t="n">
-        <v>32512</v>
+        <v>33500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K230" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L230" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M230" t="n">
-        <v>25489</v>
+        <v>32512</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K231" t="n">
         <v>25000</v>
       </c>
       <c r="L231" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M231" t="n">
-        <v>25000</v>
+        <v>25489</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K232" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L232" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="M232" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1480</v>
+        <v>1000</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K233" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L233" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M233" t="n">
-        <v>34429</v>
+        <v>37000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1377</v>
+        <v>1480</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K234" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L234" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M234" t="n">
-        <v>24500</v>
+        <v>34429</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>980</v>
+        <v>1377</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K235" t="n">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="L235" t="n">
-        <v>42000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>41040</v>
+        <v>24500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1642</v>
+        <v>980</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K236" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="L236" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M236" t="n">
-        <v>33000</v>
+        <v>41040</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1320</v>
+        <v>1642</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17424,26 +17424,26 @@
         <v>70</v>
       </c>
       <c r="K237" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L237" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M237" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L238" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M238" t="n">
-        <v>27556</v>
+        <v>30000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L239" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M239" t="n">
-        <v>25000</v>
+        <v>27556</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1000</v>
+        <v>1102</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K240" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L240" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M240" t="n">
-        <v>29250</v>
+        <v>25000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1170</v>
+        <v>1000</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K241" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L241" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M241" t="n">
-        <v>26040</v>
+        <v>29250</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17727,11 +17727,11 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1042</v>
+        <v>1170</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K242" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L242" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M242" t="n">
-        <v>30000</v>
+        <v>26040</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1200</v>
+        <v>1042</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17856,26 +17856,26 @@
         <v>50</v>
       </c>
       <c r="K243" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L243" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M243" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>640</v>
+        <v>1200</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L244" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M244" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K245" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L245" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M245" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>840</v>
+        <v>1120</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18072,13 +18072,13 @@
         <v>70</v>
       </c>
       <c r="K246" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L246" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M246" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>720</v>
+        <v>840</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,29 +18141,29 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K247" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="L247" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M247" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1200</v>
+        <v>720</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K248" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L248" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M248" t="n">
-        <v>18977</v>
+        <v>30000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>759</v>
+        <v>1200</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K249" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L249" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="M249" t="n">
-        <v>27000</v>
+        <v>18977</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1080</v>
+        <v>759</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K250" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L250" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M250" t="n">
-        <v>33488</v>
+        <v>27000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1340</v>
+        <v>1080</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K251" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L251" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="M251" t="n">
-        <v>28500</v>
+        <v>33488</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K252" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L252" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="M252" t="n">
-        <v>35480</v>
+        <v>28500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1419</v>
+        <v>1140</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K253" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="L253" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M253" t="n">
-        <v>39500</v>
+        <v>35480</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1580</v>
+        <v>1419</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,58 +18621,130 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E254" t="n">
+        <v>13</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J254" t="n">
+        <v>16</v>
+      </c>
+      <c r="K254" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L254" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M254" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>25</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>9</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E254" t="n">
-        <v>13</v>
-      </c>
-      <c r="F254" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="E255" t="n">
+        <v>13</v>
+      </c>
+      <c r="F255" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J254" t="n">
-        <v>25</v>
-      </c>
-      <c r="K254" t="n">
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J255" t="n">
+        <v>25</v>
+      </c>
+      <c r="K255" t="n">
         <v>34000</v>
       </c>
-      <c r="L254" t="n">
+      <c r="L255" t="n">
         <v>34000</v>
       </c>
-      <c r="M254" t="n">
+      <c r="M255" t="n">
         <v>34000</v>
       </c>
-      <c r="N254" t="inlineStr">
+      <c r="N255" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O254" t="inlineStr">
+      <c r="O255" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P254" t="n">
+      <c r="P255" t="n">
         <v>1360</v>
       </c>
-      <c r="Q254" t="n">
-        <v>25</v>
-      </c>
-      <c r="R254" t="inlineStr">
+      <c r="Q255" t="n">
+        <v>25</v>
+      </c>
+      <c r="R255" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K225" t="n">
-        <v>16000</v>
+        <v>43000</v>
       </c>
       <c r="L225" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M225" t="n">
-        <v>16500</v>
+        <v>43984</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>660</v>
+        <v>1759</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,25 +16620,25 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K226" t="n">
-        <v>14000</v>
+        <v>38000</v>
       </c>
       <c r="L226" t="n">
-        <v>14000</v>
+        <v>39000</v>
       </c>
       <c r="M226" t="n">
-        <v>14000</v>
+        <v>38512</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>560</v>
+        <v>1540</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K227" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L227" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M227" t="n">
-        <v>27000</v>
+        <v>16500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1080</v>
+        <v>660</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16769,33 +16769,33 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K228" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L228" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M228" t="n">
-        <v>29333</v>
+        <v>14000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1173</v>
+        <v>560</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,29 +16845,29 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K229" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L229" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M229" t="n">
-        <v>31125</v>
+        <v>27000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1245</v>
+        <v>1080</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16917,29 +16917,29 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K230" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L230" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M230" t="n">
-        <v>33500</v>
+        <v>29333</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1340</v>
+        <v>1173</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="K231" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L231" t="n">
         <v>33000</v>
       </c>
       <c r="M231" t="n">
-        <v>32512</v>
+        <v>31125</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17007,11 +17007,11 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1300</v>
+        <v>1245</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K232" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L232" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="M232" t="n">
-        <v>25489</v>
+        <v>33500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1020</v>
+        <v>1340</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44306</v>
+        <v>44351</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M233" t="n">
-        <v>25000</v>
+        <v>32512</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,29 +17205,29 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K234" t="n">
-        <v>37000</v>
+        <v>25000</v>
       </c>
       <c r="L234" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M234" t="n">
-        <v>37000</v>
+        <v>25489</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1480</v>
+        <v>1020</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K235" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L235" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>34429</v>
+        <v>25000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1377</v>
+        <v>1000</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K236" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L236" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M236" t="n">
-        <v>24500</v>
+        <v>37000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>980</v>
+        <v>1480</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K237" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L237" t="n">
-        <v>42000</v>
+        <v>35000</v>
       </c>
       <c r="M237" t="n">
-        <v>41040</v>
+        <v>34429</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1642</v>
+        <v>1377</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,29 +17493,29 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K238" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L238" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>33000</v>
+        <v>24500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1320</v>
+        <v>980</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K239" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="L239" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M239" t="n">
-        <v>30000</v>
+        <v>41040</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1200</v>
+        <v>1642</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K240" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L240" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M240" t="n">
-        <v>27556</v>
+        <v>33000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1102</v>
+        <v>1320</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K241" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L241" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M241" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K242" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L242" t="n">
         <v>28000</v>
       </c>
-      <c r="L242" t="n">
-        <v>30000</v>
-      </c>
       <c r="M242" t="n">
-        <v>29250</v>
+        <v>27556</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1170</v>
+        <v>1102</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K243" t="n">
         <v>25000</v>
       </c>
       <c r="L243" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M243" t="n">
-        <v>26040</v>
+        <v>25000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17871,11 +17871,11 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K244" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L244" t="n">
         <v>30000</v>
       </c>
       <c r="M244" t="n">
-        <v>30000</v>
+        <v>29250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K245" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L245" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>16000</v>
+        <v>26040</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>640</v>
+        <v>1042</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K246" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L246" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M246" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1120</v>
+        <v>1200</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K247" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L247" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M247" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,29 +18213,29 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K248" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L248" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M248" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>720</v>
+        <v>1120</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18285,29 +18285,29 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K249" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L249" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M249" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1200</v>
+        <v>840</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,29 +18357,29 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K250" t="n">
         <v>18000</v>
       </c>
       <c r="L250" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="M250" t="n">
-        <v>18977</v>
+        <v>18000</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>759</v>
+        <v>720</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K251" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L251" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M251" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18504,13 +18504,13 @@
         <v>43</v>
       </c>
       <c r="K252" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L252" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M252" t="n">
-        <v>33488</v>
+        <v>18977</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1340</v>
+        <v>759</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K253" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L253" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M253" t="n">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K254" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L254" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M254" t="n">
-        <v>35480</v>
+        <v>33488</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1419</v>
+        <v>1340</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K255" t="n">
-        <v>39000</v>
+        <v>28000</v>
       </c>
       <c r="L255" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M255" t="n">
-        <v>39500</v>
+        <v>28500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1580</v>
+        <v>1140</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,58 +18765,202 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13</v>
+      </c>
+      <c r="F256" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J256" t="n">
+        <v>25</v>
+      </c>
+      <c r="K256" t="n">
+        <v>35000</v>
+      </c>
+      <c r="L256" t="n">
+        <v>36000</v>
+      </c>
+      <c r="M256" t="n">
+        <v>35480</v>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P256" t="n">
+        <v>1419</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>25</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>9</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E257" t="n">
+        <v>13</v>
+      </c>
+      <c r="F257" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J257" t="n">
+        <v>16</v>
+      </c>
+      <c r="K257" t="n">
+        <v>39000</v>
+      </c>
+      <c r="L257" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M257" t="n">
+        <v>39500</v>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>25</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>9</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E256" t="n">
-        <v>13</v>
-      </c>
-      <c r="F256" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="E258" t="n">
+        <v>13</v>
+      </c>
+      <c r="F258" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J256" t="n">
-        <v>25</v>
-      </c>
-      <c r="K256" t="n">
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J258" t="n">
+        <v>25</v>
+      </c>
+      <c r="K258" t="n">
         <v>34000</v>
       </c>
-      <c r="L256" t="n">
+      <c r="L258" t="n">
         <v>34000</v>
       </c>
-      <c r="M256" t="n">
+      <c r="M258" t="n">
         <v>34000</v>
       </c>
-      <c r="N256" t="inlineStr">
+      <c r="N258" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O256" t="inlineStr">
+      <c r="O258" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="P256" t="n">
+      <c r="P258" t="n">
         <v>1360</v>
       </c>
-      <c r="Q256" t="n">
-        <v>25</v>
-      </c>
-      <c r="R256" t="inlineStr">
+      <c r="Q258" t="n">
+        <v>25</v>
+      </c>
+      <c r="R258" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R260"/>
+  <dimension ref="A1:R262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K227" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L227" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M227" t="n">
-        <v>24492</v>
+        <v>44000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,25 +16764,25 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>22000</v>
+        <v>37000</v>
       </c>
       <c r="L228" t="n">
-        <v>22000</v>
+        <v>39000</v>
       </c>
       <c r="M228" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>880</v>
+        <v>1520</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,7 +16845,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K229" t="n">
         <v>24000</v>
@@ -16854,7 +16854,7 @@
         <v>25000</v>
       </c>
       <c r="M229" t="n">
-        <v>24500</v>
+        <v>24492</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K230" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L230" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M230" t="n">
-        <v>34500</v>
+        <v>22000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16935,11 +16935,11 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1380</v>
+        <v>880</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,29 +16989,29 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K231" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L231" t="n">
         <v>25000</v>
       </c>
       <c r="M231" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17064,13 +17064,13 @@
         <v>34</v>
       </c>
       <c r="K232" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L232" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M232" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>660</v>
+        <v>1380</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K233" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L233" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M233" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K234" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L234" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="M234" t="n">
-        <v>33000</v>
+        <v>16500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1320</v>
+        <v>660</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K235" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L235" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="M235" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17295,11 +17295,11 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1240</v>
+        <v>1160</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K236" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L236" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M236" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17421,29 +17421,29 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K237" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="L237" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M237" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K238" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L238" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K239" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L239" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M239" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K240" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L240" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M240" t="n">
-        <v>20500</v>
+        <v>35000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>820</v>
+        <v>1400</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K241" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L241" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M241" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K242" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L242" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="M242" t="n">
-        <v>35500</v>
+        <v>20500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1420</v>
+        <v>820</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K243" t="n">
         <v>27000</v>
       </c>
       <c r="L243" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M243" t="n">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K244" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L244" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M244" t="n">
-        <v>30000</v>
+        <v>35500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17943,11 +17943,11 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K245" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L245" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M245" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K246" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L246" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M246" t="n">
-        <v>35480</v>
+        <v>30000</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1419</v>
+        <v>1200</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K247" t="n">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="L247" t="n">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="M247" t="n">
-        <v>39500</v>
+        <v>25500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1580</v>
+        <v>1020</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K248" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L248" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M248" t="n">
-        <v>25500</v>
+        <v>35480</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1020</v>
+        <v>1419</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,29 +18285,29 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="K249" t="n">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="L249" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="M249" t="n">
-        <v>35588</v>
+        <v>39500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1424</v>
+        <v>1580</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K250" t="n">
-        <v>44000</v>
+        <v>25000</v>
       </c>
       <c r="L250" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="M250" t="n">
-        <v>44429</v>
+        <v>25500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18375,11 +18375,11 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1777</v>
+        <v>1020</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18429,29 +18429,29 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K251" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="L251" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M251" t="n">
-        <v>39000</v>
+        <v>35588</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1560</v>
+        <v>1424</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,29 +18501,29 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K252" t="n">
-        <v>27000</v>
+        <v>44000</v>
       </c>
       <c r="L252" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M252" t="n">
-        <v>27455</v>
+        <v>44429</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1098</v>
+        <v>1777</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="K253" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="L253" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M253" t="n">
-        <v>29588</v>
+        <v>39000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18591,11 +18591,11 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1184</v>
+        <v>1560</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K254" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L254" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="M254" t="n">
-        <v>41040</v>
+        <v>27455</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1642</v>
+        <v>1098</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,29 +18717,29 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K255" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="L255" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M255" t="n">
-        <v>40000</v>
+        <v>29588</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1600</v>
+        <v>1184</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K256" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L256" t="n">
         <v>42000</v>
       </c>
-      <c r="L256" t="n">
-        <v>43000</v>
-      </c>
       <c r="M256" t="n">
-        <v>42400</v>
+        <v>41040</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18807,11 +18807,11 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1696</v>
+        <v>1642</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K257" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L257" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M257" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1080</v>
+        <v>1600</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,29 +18933,29 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K258" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="L258" t="n">
-        <v>27000</v>
+        <v>43000</v>
       </c>
       <c r="M258" t="n">
-        <v>27000</v>
+        <v>42400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1080</v>
+        <v>1696</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K259" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L259" t="n">
         <v>27000</v>
       </c>
       <c r="M259" t="n">
-        <v>26520</v>
+        <v>27000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,58 +19053,202 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E260" t="n">
+        <v>13</v>
+      </c>
+      <c r="F260" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J260" t="n">
+        <v>30</v>
+      </c>
+      <c r="K260" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L260" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M260" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P260" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>25</v>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>9</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E260" t="n">
-        <v>13</v>
-      </c>
-      <c r="F260" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="E261" t="n">
+        <v>13</v>
+      </c>
+      <c r="F261" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J261" t="n">
+        <v>25</v>
+      </c>
+      <c r="K261" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L261" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M261" t="n">
+        <v>26520</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
+        <v>1061</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>25</v>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>9</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E262" t="n">
+        <v>13</v>
+      </c>
+      <c r="F262" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I260" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J260" t="n">
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
         <v>16</v>
       </c>
-      <c r="K260" t="n">
+      <c r="K262" t="n">
         <v>34000</v>
       </c>
-      <c r="L260" t="n">
+      <c r="L262" t="n">
         <v>35000</v>
       </c>
-      <c r="M260" t="n">
+      <c r="M262" t="n">
         <v>34500</v>
       </c>
-      <c r="N260" t="inlineStr">
+      <c r="N262" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O260" t="inlineStr">
+      <c r="O262" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P260" t="n">
+      <c r="P262" t="n">
         <v>1380</v>
       </c>
-      <c r="Q260" t="n">
-        <v>25</v>
-      </c>
-      <c r="R260" t="inlineStr">
+      <c r="Q262" t="n">
+        <v>25</v>
+      </c>
+      <c r="R262" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R262"/>
+  <dimension ref="A1:R264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -7125,29 +7125,29 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K94" t="n">
-        <v>17000</v>
+        <v>43000</v>
       </c>
       <c r="L94" t="n">
-        <v>17000</v>
+        <v>45000</v>
       </c>
       <c r="M94" t="n">
-        <v>17000</v>
+        <v>44000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>680</v>
+        <v>1760</v>
       </c>
       <c r="Q94" t="n">
         <v>25</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K95" t="n">
-        <v>29000</v>
+        <v>39000</v>
       </c>
       <c r="L95" t="n">
-        <v>29000</v>
+        <v>40000</v>
       </c>
       <c r="M95" t="n">
-        <v>29000</v>
+        <v>39500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1160</v>
+        <v>1580</v>
       </c>
       <c r="Q95" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -7272,13 +7272,13 @@
         <v>70</v>
       </c>
       <c r="K96" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L96" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M96" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1000</v>
+        <v>680</v>
       </c>
       <c r="Q96" t="n">
         <v>25</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -7344,13 +7344,13 @@
         <v>50</v>
       </c>
       <c r="K97" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L97" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="M97" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="Q97" t="n">
         <v>25</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K98" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="L98" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="M98" t="n">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7431,11 +7431,11 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="Q98" t="n">
         <v>25</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K99" t="n">
         <v>28000</v>
@@ -7498,12 +7498,12 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44216</v>
+        <v>44230</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -7557,29 +7557,29 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K100" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L100" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M100" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1200</v>
+        <v>1040</v>
       </c>
       <c r="Q100" t="n">
         <v>25</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -7632,26 +7632,26 @@
         <v>70</v>
       </c>
       <c r="K101" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L101" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M101" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1400</v>
+        <v>1120</v>
       </c>
       <c r="Q101" t="n">
         <v>25</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44174</v>
+        <v>44216</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -7701,29 +7701,29 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L102" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M102" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="Q102" t="n">
         <v>25</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44244</v>
+        <v>44370</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -7773,29 +7773,29 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K103" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L103" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="M103" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>640</v>
+        <v>1400</v>
       </c>
       <c r="Q103" t="n">
         <v>25</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44244</v>
+        <v>44174</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -7845,29 +7845,29 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K104" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L104" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="M104" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1120</v>
+        <v>960</v>
       </c>
       <c r="Q104" t="n">
         <v>25</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -7917,29 +7917,29 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K105" t="n">
-        <v>37000</v>
+        <v>16000</v>
       </c>
       <c r="L105" t="n">
-        <v>38000</v>
+        <v>16000</v>
       </c>
       <c r="M105" t="n">
-        <v>37480</v>
+        <v>16000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1499</v>
+        <v>640</v>
       </c>
       <c r="Q105" t="n">
         <v>25</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="K106" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="L106" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M106" t="n">
-        <v>36500</v>
+        <v>28000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1460</v>
+        <v>1120</v>
       </c>
       <c r="Q106" t="n">
         <v>25</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K107" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L107" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="M107" t="n">
-        <v>27500</v>
+        <v>37480</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1100</v>
+        <v>1499</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K108" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L108" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="M108" t="n">
-        <v>35500</v>
+        <v>36500</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1420</v>
+        <v>1460</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K109" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L109" t="n">
         <v>28000</v>
       </c>
-      <c r="L109" t="n">
-        <v>30000</v>
-      </c>
       <c r="M109" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1160</v>
+        <v>1100</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44271</v>
+        <v>44412</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,29 +8277,29 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K110" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L110" t="n">
-        <v>23000</v>
+        <v>36000</v>
       </c>
       <c r="M110" t="n">
-        <v>23000</v>
+        <v>35500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>920</v>
+        <v>1420</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K111" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L111" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M111" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8367,11 +8367,11 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8421,29 +8421,29 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K112" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L112" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M112" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44330</v>
+        <v>44271</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K113" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L113" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M113" t="n">
-        <v>30500</v>
+        <v>25000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8511,11 +8511,11 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1220</v>
+        <v>1000</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K114" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L114" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M114" t="n">
-        <v>38960</v>
+        <v>30000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1558</v>
+        <v>1200</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="K115" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="L115" t="n">
-        <v>41000</v>
+        <v>31000</v>
       </c>
       <c r="M115" t="n">
-        <v>40500</v>
+        <v>30500</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1620</v>
+        <v>1220</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8712,13 +8712,13 @@
         <v>25</v>
       </c>
       <c r="K116" t="n">
-        <v>26000</v>
+        <v>38000</v>
       </c>
       <c r="L116" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="M116" t="n">
-        <v>26000</v>
+        <v>38960</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1040</v>
+        <v>1558</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44265</v>
+        <v>44463</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,29 +8781,29 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K117" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="L117" t="n">
-        <v>22000</v>
+        <v>41000</v>
       </c>
       <c r="M117" t="n">
-        <v>22000</v>
+        <v>40500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>880</v>
+        <v>1620</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K118" t="n">
-        <v>31000</v>
+        <v>26000</v>
       </c>
       <c r="L118" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="M118" t="n">
-        <v>31500</v>
+        <v>26000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1260</v>
+        <v>1040</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,29 +8925,29 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K119" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="L119" t="n">
-        <v>36000</v>
+        <v>22000</v>
       </c>
       <c r="M119" t="n">
-        <v>35480</v>
+        <v>22000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1419</v>
+        <v>880</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="K120" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L120" t="n">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="M120" t="n">
-        <v>33000</v>
+        <v>31500</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1320</v>
+        <v>1260</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K121" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L121" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M121" t="n">
-        <v>30000</v>
+        <v>35480</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9087,11 +9087,11 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1200</v>
+        <v>1419</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K122" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L122" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M122" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>920</v>
+        <v>1320</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44315</v>
+        <v>44224</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K123" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L123" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M123" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1080</v>
+        <v>1200</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44293</v>
+        <v>44264</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K124" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L124" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M124" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9303,11 +9303,11 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,7 +9357,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K125" t="n">
         <v>27000</v>
@@ -9370,12 +9370,12 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9432,26 +9432,26 @@
         <v>50</v>
       </c>
       <c r="K126" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L126" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="M126" t="n">
-        <v>28500</v>
+        <v>21000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1140</v>
+        <v>840</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K127" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L127" t="n">
-        <v>42000</v>
+        <v>27000</v>
       </c>
       <c r="M127" t="n">
-        <v>41000</v>
+        <v>27000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1640</v>
+        <v>1080</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9573,29 +9573,29 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K128" t="n">
-        <v>39000</v>
+        <v>28000</v>
       </c>
       <c r="L128" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M128" t="n">
-        <v>39500</v>
+        <v>28500</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1580</v>
+        <v>1140</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K129" t="n">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="L129" t="n">
         <v>42000</v>
       </c>
       <c r="M129" t="n">
-        <v>41500</v>
+        <v>41000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1660</v>
+        <v>1640</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K130" t="n">
-        <v>28000</v>
+        <v>39000</v>
       </c>
       <c r="L130" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M130" t="n">
-        <v>29333</v>
+        <v>39500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1173</v>
+        <v>1580</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K131" t="n">
-        <v>30000</v>
+        <v>41000</v>
       </c>
       <c r="L131" t="n">
-        <v>33000</v>
+        <v>42000</v>
       </c>
       <c r="M131" t="n">
-        <v>31125</v>
+        <v>41500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1245</v>
+        <v>1660</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9861,29 +9861,29 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="K132" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="L132" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M132" t="n">
-        <v>36480</v>
+        <v>29333</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1459</v>
+        <v>1173</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="K133" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L133" t="n">
-        <v>38000</v>
+        <v>33000</v>
       </c>
       <c r="M133" t="n">
-        <v>37500</v>
+        <v>31125</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1500</v>
+        <v>1245</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K134" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="L134" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M134" t="n">
-        <v>34500</v>
+        <v>36480</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1380</v>
+        <v>1459</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K135" t="n">
         <v>37000</v>
       </c>
       <c r="L135" t="n">
-        <v>39000</v>
+        <v>38000</v>
       </c>
       <c r="M135" t="n">
-        <v>37960</v>
+        <v>37500</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1518</v>
+        <v>1500</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10149,29 +10149,29 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K136" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L136" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M136" t="n">
-        <v>23000</v>
+        <v>34500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>920</v>
+        <v>1380</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K137" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="L137" t="n">
-        <v>28000</v>
+        <v>39000</v>
       </c>
       <c r="M137" t="n">
-        <v>28000</v>
+        <v>37960</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1120</v>
+        <v>1518</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K138" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L138" t="n">
         <v>23000</v>
       </c>
       <c r="M138" t="n">
-        <v>22571</v>
+        <v>23000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10311,11 +10311,11 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K139" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L139" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M139" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10383,11 +10383,11 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1320</v>
+        <v>1120</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10437,29 +10437,29 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K140" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L140" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="M140" t="n">
-        <v>34000</v>
+        <v>22571</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1360</v>
+        <v>903</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44356</v>
+        <v>44232</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K141" t="n">
         <v>33000</v>
       </c>
       <c r="L141" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="M141" t="n">
-        <v>33500</v>
+        <v>33000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10527,11 +10527,11 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1340</v>
+        <v>1320</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="K142" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L142" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M142" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>880</v>
+        <v>1360</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K143" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L143" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M143" t="n">
-        <v>25000</v>
+        <v>33500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1000</v>
+        <v>1340</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10716,38 +10716,38 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K144" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L144" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M144" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,29 +10797,29 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K145" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L145" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M145" t="n">
-        <v>33500</v>
+        <v>25000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1340</v>
+        <v>1000</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E146" t="n">
         <v>13</v>
@@ -10865,33 +10865,33 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K146" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L146" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M146" t="n">
-        <v>32500</v>
+        <v>20000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10941,20 +10941,20 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K147" t="n">
-        <v>40000</v>
+        <v>33000</v>
       </c>
       <c r="L147" t="n">
-        <v>42000</v>
+        <v>34000</v>
       </c>
       <c r="M147" t="n">
-        <v>40960</v>
+        <v>33500</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1638</v>
+        <v>1340</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44427</v>
+        <v>44454</v>
       </c>
       <c r="E148" t="n">
         <v>13</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11016,17 +11016,17 @@
         <v>16</v>
       </c>
       <c r="K148" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="L148" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="M148" t="n">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1260</v>
+        <v>1300</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44319</v>
+        <v>44467</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11088,13 +11088,13 @@
         <v>25</v>
       </c>
       <c r="K149" t="n">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="L149" t="n">
-        <v>34000</v>
+        <v>42000</v>
       </c>
       <c r="M149" t="n">
-        <v>34000</v>
+        <v>40960</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11103,11 +11103,11 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1360</v>
+        <v>1638</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44473</v>
+        <v>44427</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K150" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="L150" t="n">
-        <v>42000</v>
+        <v>32000</v>
       </c>
       <c r="M150" t="n">
-        <v>40960</v>
+        <v>31500</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1638</v>
+        <v>1260</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44273</v>
+        <v>44319</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,29 +11229,29 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K151" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L151" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M151" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>880</v>
+        <v>1360</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K152" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L152" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="M152" t="n">
-        <v>27000</v>
+        <v>40960</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1080</v>
+        <v>1638</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K153" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L153" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M153" t="n">
-        <v>26040</v>
+        <v>22000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1042</v>
+        <v>880</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,29 +11445,29 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K154" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L154" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M154" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>800</v>
+        <v>1080</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K155" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L155" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="M155" t="n">
-        <v>28000</v>
+        <v>26040</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1120</v>
+        <v>1042</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K156" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="L156" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="M156" t="n">
-        <v>37000</v>
+        <v>20000</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1480</v>
+        <v>800</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E157" t="n">
         <v>13</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K157" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L157" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M157" t="n">
-        <v>34429</v>
+        <v>28000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1377</v>
+        <v>1120</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K158" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="L158" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M158" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1000</v>
+        <v>1480</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E159" t="n">
         <v>13</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11808,26 +11808,26 @@
         <v>70</v>
       </c>
       <c r="K159" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L159" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M159" t="n">
-        <v>30000</v>
+        <v>34429</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1200</v>
+        <v>1377</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,29 +11877,29 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K160" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L160" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M160" t="n">
-        <v>27556</v>
+        <v>25000</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1102</v>
+        <v>1000</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,29 +11949,29 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K161" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L161" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M161" t="n">
-        <v>27500</v>
+        <v>30000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E162" t="n">
         <v>13</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="K162" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L162" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M162" t="n">
-        <v>35500</v>
+        <v>27556</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12039,11 +12039,11 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1420</v>
+        <v>1102</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12093,29 +12093,29 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K163" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L163" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M163" t="n">
-        <v>26000</v>
+        <v>27500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1040</v>
+        <v>1100</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E164" t="n">
         <v>13</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K164" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="L164" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="M164" t="n">
-        <v>26520</v>
+        <v>35500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1061</v>
+        <v>1420</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K165" t="n">
-        <v>44000</v>
+        <v>26000</v>
       </c>
       <c r="L165" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="M165" t="n">
-        <v>44480</v>
+        <v>26000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1779</v>
+        <v>1040</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44168</v>
+        <v>44426</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K166" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="L166" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="M166" t="n">
-        <v>23000</v>
+        <v>26520</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>920</v>
+        <v>1061</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="K167" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="L167" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="M167" t="n">
-        <v>23000</v>
+        <v>44480</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>920</v>
+        <v>1779</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K168" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L168" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M168" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E169" t="n">
         <v>13</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K169" t="n">
-        <v>36000</v>
+        <v>23000</v>
       </c>
       <c r="L169" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M169" t="n">
-        <v>36500</v>
+        <v>23000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1460</v>
+        <v>920</v>
       </c>
       <c r="Q169" t="n">
         <v>25</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K170" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L170" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M170" t="n">
-        <v>27000</v>
+        <v>25500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1080</v>
+        <v>1020</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E171" t="n">
         <v>13</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="K171" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="L171" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M171" t="n">
-        <v>25000</v>
+        <v>36500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1000</v>
+        <v>1460</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K172" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L172" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M172" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K173" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="L173" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M173" t="n">
-        <v>32512</v>
+        <v>25000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44214</v>
+        <v>44161</v>
       </c>
       <c r="E174" t="n">
         <v>13</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,29 +12885,29 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K174" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="L174" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M174" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1480</v>
+        <v>1200</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12957,29 +12957,29 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K175" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L175" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="M175" t="n">
-        <v>24000</v>
+        <v>32512</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>960</v>
+        <v>1300</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13032,26 +13032,26 @@
         <v>50</v>
       </c>
       <c r="K176" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="L176" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M176" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K177" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L177" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M177" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E178" t="n">
         <v>13</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K178" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L178" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M178" t="n">
-        <v>29625</v>
+        <v>27000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,29 +13245,29 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L179" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M179" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1400</v>
+        <v>840</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,29 +13317,29 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K180" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L180" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M180" t="n">
-        <v>27500</v>
+        <v>29625</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1100</v>
+        <v>1185</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E181" t="n">
         <v>13</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="K181" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L181" t="n">
-        <v>41000</v>
+        <v>35000</v>
       </c>
       <c r="M181" t="n">
-        <v>40524</v>
+        <v>35000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13407,11 +13407,11 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1621</v>
+        <v>1400</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K182" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L182" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M182" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>860</v>
+        <v>1100</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E183" t="n">
         <v>13</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K183" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="L183" t="n">
-        <v>27000</v>
+        <v>41000</v>
       </c>
       <c r="M183" t="n">
-        <v>26520</v>
+        <v>40524</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1061</v>
+        <v>1621</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K184" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L184" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="M184" t="n">
-        <v>33488</v>
+        <v>21500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>1340</v>
+        <v>860</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44391</v>
+        <v>44407</v>
       </c>
       <c r="E185" t="n">
         <v>13</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K185" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L185" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M185" t="n">
-        <v>24500</v>
+        <v>26520</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>980</v>
+        <v>1061</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K186" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L186" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M186" t="n">
-        <v>29000</v>
+        <v>33488</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1160</v>
+        <v>1340</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44165</v>
+        <v>44391</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K187" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L187" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M187" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1200</v>
+        <v>980</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,29 +13893,29 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="K188" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L188" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M188" t="n">
-        <v>22545</v>
+        <v>29000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>902</v>
+        <v>1160</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K189" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L189" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M189" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1320</v>
+        <v>1200</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="K190" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L190" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="M190" t="n">
-        <v>32000</v>
+        <v>22545</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1280</v>
+        <v>902</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K191" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L191" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M191" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>800</v>
+        <v>1320</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K192" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L192" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="M192" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1160</v>
+        <v>1280</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14253,29 +14253,29 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K193" t="n">
-        <v>43000</v>
+        <v>20000</v>
       </c>
       <c r="L193" t="n">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="M193" t="n">
-        <v>44023</v>
+        <v>20000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1761</v>
+        <v>800</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E194" t="n">
         <v>13</v>
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K194" t="n">
-        <v>38000</v>
+        <v>29000</v>
       </c>
       <c r="L194" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="M194" t="n">
-        <v>38960</v>
+        <v>29000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14343,11 +14343,11 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1558</v>
+        <v>1160</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14397,7 +14397,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="K195" t="n">
         <v>43000</v>
@@ -14406,7 +14406,7 @@
         <v>45000</v>
       </c>
       <c r="M195" t="n">
-        <v>43984</v>
+        <v>44023</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E196" t="n">
         <v>13</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K196" t="n">
         <v>38000</v>
       </c>
       <c r="L196" t="n">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="M196" t="n">
-        <v>38512</v>
+        <v>38960</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1540</v>
+        <v>1558</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14541,29 +14541,29 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K197" t="n">
-        <v>23000</v>
+        <v>43000</v>
       </c>
       <c r="L197" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="M197" t="n">
-        <v>23000</v>
+        <v>43984</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>920</v>
+        <v>1759</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E198" t="n">
         <v>13</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K198" t="n">
-        <v>30000</v>
+        <v>38000</v>
       </c>
       <c r="L198" t="n">
-        <v>30000</v>
+        <v>39000</v>
       </c>
       <c r="M198" t="n">
-        <v>30000</v>
+        <v>38512</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14631,11 +14631,11 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1200</v>
+        <v>1540</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K199" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L199" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="M199" t="n">
-        <v>34500</v>
+        <v>23000</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1380</v>
+        <v>920</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44300</v>
+        <v>44252</v>
       </c>
       <c r="E200" t="n">
         <v>13</v>
@@ -14760,13 +14760,13 @@
         <v>30</v>
       </c>
       <c r="K200" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L200" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M200" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14775,11 +14775,11 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1360</v>
+        <v>1200</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14829,29 +14829,29 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="K201" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L201" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M201" t="n">
-        <v>30000</v>
+        <v>34500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1200</v>
+        <v>1380</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44349</v>
+        <v>44300</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K202" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L202" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M202" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1300</v>
+        <v>1360</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K203" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L203" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M203" t="n">
-        <v>16500</v>
+        <v>30000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>660</v>
+        <v>1200</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K204" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="L204" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M204" t="n">
-        <v>14000</v>
+        <v>32500</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15063,11 +15063,11 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>560</v>
+        <v>1300</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K205" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L205" t="n">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="M205" t="n">
-        <v>31500</v>
+        <v>16500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1260</v>
+        <v>660</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44448</v>
+        <v>44372</v>
       </c>
       <c r="E206" t="n">
         <v>13</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K206" t="n">
-        <v>37000</v>
+        <v>14000</v>
       </c>
       <c r="L206" t="n">
-        <v>38000</v>
+        <v>14000</v>
       </c>
       <c r="M206" t="n">
-        <v>37500</v>
+        <v>14000</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1500</v>
+        <v>560</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K207" t="n">
-        <v>36000</v>
+        <v>31000</v>
       </c>
       <c r="L207" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M207" t="n">
-        <v>37000</v>
+        <v>31500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1480</v>
+        <v>1260</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,29 +15333,29 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K208" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="L208" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="M208" t="n">
-        <v>16000</v>
+        <v>37500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>640</v>
+        <v>1500</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E209" t="n">
         <v>13</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K209" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="L209" t="n">
-        <v>28000</v>
+        <v>38000</v>
       </c>
       <c r="M209" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15423,11 +15423,11 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1120</v>
+        <v>1480</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K210" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L210" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M210" t="n">
-        <v>24500</v>
+        <v>16000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>980</v>
+        <v>640</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E211" t="n">
         <v>13</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K211" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L211" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M211" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15567,11 +15567,11 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>880</v>
+        <v>1120</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15621,29 +15621,29 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="K212" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L212" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M212" t="n">
-        <v>23111</v>
+        <v>24500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>924</v>
+        <v>980</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E213" t="n">
         <v>13</v>
@@ -15684,25 +15684,25 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="K213" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L213" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M213" t="n">
-        <v>29333</v>
+        <v>22000</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15711,11 +15711,11 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1173</v>
+        <v>880</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15765,29 +15765,29 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K214" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L214" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M214" t="n">
-        <v>34500</v>
+        <v>23111</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1380</v>
+        <v>924</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E215" t="n">
         <v>13</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="K215" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L215" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M215" t="n">
-        <v>33500</v>
+        <v>29333</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15855,11 +15855,11 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1340</v>
+        <v>1173</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K216" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L216" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M216" t="n">
-        <v>26393</v>
+        <v>34500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1056</v>
+        <v>1380</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E217" t="n">
         <v>13</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K217" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L217" t="n">
         <v>34000</v>
       </c>
-      <c r="L217" t="n">
-        <v>37000</v>
-      </c>
       <c r="M217" t="n">
-        <v>35860</v>
+        <v>33500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1434</v>
+        <v>1340</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16053,29 +16053,29 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="K218" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L218" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M218" t="n">
-        <v>23500</v>
+        <v>26393</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P218" t="n">
-        <v>940</v>
+        <v>1056</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E219" t="n">
         <v>13</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K219" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="L219" t="n">
-        <v>18000</v>
+        <v>37000</v>
       </c>
       <c r="M219" t="n">
-        <v>17500</v>
+        <v>35860</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>700</v>
+        <v>1434</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K220" t="n">
-        <v>34000</v>
+        <v>23000</v>
       </c>
       <c r="L220" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M220" t="n">
-        <v>34520</v>
+        <v>23500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1381</v>
+        <v>940</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,29 +16269,29 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K221" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L221" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="M221" t="n">
-        <v>28000</v>
+        <v>17500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1120</v>
+        <v>700</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44159</v>
+        <v>44377</v>
       </c>
       <c r="E222" t="n">
         <v>13</v>
@@ -16341,29 +16341,29 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K222" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L222" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M222" t="n">
-        <v>26857</v>
+        <v>34520</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1074</v>
+        <v>1381</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -16413,29 +16413,29 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K223" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="L223" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M223" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K224" t="n">
         <v>26000</v>
       </c>
       <c r="L224" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M224" t="n">
-        <v>26000</v>
+        <v>26857</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1040</v>
+        <v>1074</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E225" t="n">
         <v>13</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K225" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="L225" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="M225" t="n">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16629,29 +16629,29 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K226" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L226" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M226" t="n">
-        <v>29500</v>
+        <v>26000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1180</v>
+        <v>1040</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E227" t="n">
         <v>13</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K227" t="n">
-        <v>43000</v>
+        <v>35000</v>
       </c>
       <c r="L227" t="n">
-        <v>45000</v>
+        <v>35000</v>
       </c>
       <c r="M227" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16719,11 +16719,11 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1760</v>
+        <v>1400</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16776,13 +16776,13 @@
         <v>34</v>
       </c>
       <c r="K228" t="n">
-        <v>37000</v>
+        <v>29000</v>
       </c>
       <c r="L228" t="n">
-        <v>39000</v>
+        <v>30000</v>
       </c>
       <c r="M228" t="n">
-        <v>38000</v>
+        <v>29500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1520</v>
+        <v>1180</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K229" t="n">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="L229" t="n">
-        <v>25000</v>
+        <v>45000</v>
       </c>
       <c r="M229" t="n">
-        <v>24492</v>
+        <v>44000</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>980</v>
+        <v>1760</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E230" t="n">
         <v>13</v>
@@ -16908,25 +16908,25 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K230" t="n">
-        <v>22000</v>
+        <v>37000</v>
       </c>
       <c r="L230" t="n">
-        <v>22000</v>
+        <v>39000</v>
       </c>
       <c r="M230" t="n">
-        <v>22000</v>
+        <v>38000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>880</v>
+        <v>1520</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16989,7 +16989,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="K231" t="n">
         <v>24000</v>
@@ -16998,7 +16998,7 @@
         <v>25000</v>
       </c>
       <c r="M231" t="n">
-        <v>24500</v>
+        <v>24492</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44363</v>
+        <v>44386</v>
       </c>
       <c r="E232" t="n">
         <v>13</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K232" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="L232" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M232" t="n">
-        <v>34500</v>
+        <v>22000</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17079,11 +17079,11 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1380</v>
+        <v>880</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44306</v>
+        <v>44384</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17133,29 +17133,29 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K233" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="L233" t="n">
         <v>25000</v>
       </c>
       <c r="M233" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17208,13 +17208,13 @@
         <v>34</v>
       </c>
       <c r="K234" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L234" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M234" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>660</v>
+        <v>1380</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44301</v>
+        <v>44306</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K235" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L235" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="M235" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K236" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L236" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="M236" t="n">
-        <v>33000</v>
+        <v>16500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17367,11 +17367,11 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>1320</v>
+        <v>660</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K237" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L237" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="M237" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1240</v>
+        <v>1160</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="L238" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M238" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17511,11 +17511,11 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1000</v>
+        <v>1320</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,29 +17565,29 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K239" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="L239" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M239" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1400</v>
+        <v>1240</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="K240" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L240" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M240" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17655,11 +17655,11 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K241" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L241" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M241" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E242" t="n">
         <v>13</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K242" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="L242" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M242" t="n">
-        <v>20500</v>
+        <v>35000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17799,11 +17799,11 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>820</v>
+        <v>1400</v>
       </c>
       <c r="Q242" t="n">
         <v>25</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17853,29 +17853,29 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K243" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L243" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M243" t="n">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K244" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L244" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="M244" t="n">
-        <v>35500</v>
+        <v>20500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1420</v>
+        <v>820</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,29 +17997,29 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K245" t="n">
         <v>27000</v>
       </c>
       <c r="L245" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M245" t="n">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K246" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="L246" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M246" t="n">
-        <v>30000</v>
+        <v>35500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1200</v>
+        <v>1420</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18141,29 +18141,29 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K247" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L247" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M247" t="n">
-        <v>25500</v>
+        <v>27000</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1020</v>
+        <v>1080</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E248" t="n">
         <v>13</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K248" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="L248" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M248" t="n">
-        <v>35480</v>
+        <v>30000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1419</v>
+        <v>1200</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K249" t="n">
-        <v>39000</v>
+        <v>25000</v>
       </c>
       <c r="L249" t="n">
-        <v>40000</v>
+        <v>26000</v>
       </c>
       <c r="M249" t="n">
-        <v>39500</v>
+        <v>25500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1580</v>
+        <v>1020</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K250" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L250" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M250" t="n">
-        <v>25500</v>
+        <v>35480</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1020</v>
+        <v>1419</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E251" t="n">
         <v>13</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,29 +18429,29 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="K251" t="n">
-        <v>35000</v>
+        <v>39000</v>
       </c>
       <c r="L251" t="n">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="M251" t="n">
-        <v>35588</v>
+        <v>39500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1424</v>
+        <v>1580</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K252" t="n">
-        <v>44000</v>
+        <v>25000</v>
       </c>
       <c r="L252" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="M252" t="n">
-        <v>44429</v>
+        <v>25500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18519,11 +18519,11 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1777</v>
+        <v>1020</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="K253" t="n">
-        <v>38000</v>
+        <v>35000</v>
       </c>
       <c r="L253" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M253" t="n">
-        <v>39000</v>
+        <v>35588</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1560</v>
+        <v>1424</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44201</v>
+        <v>44187</v>
       </c>
       <c r="E254" t="n">
         <v>13</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K254" t="n">
-        <v>27000</v>
+        <v>44000</v>
       </c>
       <c r="L254" t="n">
-        <v>28000</v>
+        <v>45000</v>
       </c>
       <c r="M254" t="n">
-        <v>27455</v>
+        <v>44429</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1098</v>
+        <v>1777</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="K255" t="n">
-        <v>29000</v>
+        <v>38000</v>
       </c>
       <c r="L255" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="M255" t="n">
-        <v>29588</v>
+        <v>39000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1184</v>
+        <v>1560</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,29 +18789,29 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="K256" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L256" t="n">
-        <v>42000</v>
+        <v>28000</v>
       </c>
       <c r="M256" t="n">
-        <v>41040</v>
+        <v>27455</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1642</v>
+        <v>1098</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K257" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="L257" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="M257" t="n">
-        <v>40000</v>
+        <v>29588</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1600</v>
+        <v>1184</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K258" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L258" t="n">
         <v>42000</v>
       </c>
-      <c r="L258" t="n">
-        <v>43000</v>
-      </c>
       <c r="M258" t="n">
-        <v>42400</v>
+        <v>41040</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1696</v>
+        <v>1642</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K259" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="L259" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="M259" t="n">
-        <v>27000</v>
+        <v>40000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1080</v>
+        <v>1600</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E260" t="n">
         <v>13</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K260" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="L260" t="n">
-        <v>27000</v>
+        <v>43000</v>
       </c>
       <c r="M260" t="n">
-        <v>27000</v>
+        <v>42400</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1080</v>
+        <v>1696</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44432</v>
+        <v>44286</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19149,29 +19149,29 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K261" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L261" t="n">
         <v>27000</v>
       </c>
       <c r="M261" t="n">
-        <v>26520</v>
+        <v>27000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,58 +19197,202 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E262" t="n">
+        <v>13</v>
+      </c>
+      <c r="F262" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J262" t="n">
+        <v>30</v>
+      </c>
+      <c r="K262" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L262" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M262" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P262" t="n">
+        <v>1080</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>25</v>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>9</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E262" t="n">
-        <v>13</v>
-      </c>
-      <c r="F262" t="n">
-        <v>100112031</v>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>Poroto verde</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="E263" t="n">
+        <v>13</v>
+      </c>
+      <c r="F263" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J263" t="n">
+        <v>25</v>
+      </c>
+      <c r="K263" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L263" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M263" t="n">
+        <v>26520</v>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P263" t="n">
+        <v>1061</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>25</v>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>9</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E264" t="n">
+        <v>13</v>
+      </c>
+      <c r="F264" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J262" t="n">
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
         <v>16</v>
       </c>
-      <c r="K262" t="n">
+      <c r="K264" t="n">
         <v>34000</v>
       </c>
-      <c r="L262" t="n">
+      <c r="L264" t="n">
         <v>35000</v>
       </c>
-      <c r="M262" t="n">
+      <c r="M264" t="n">
         <v>34500</v>
       </c>
-      <c r="N262" t="inlineStr">
+      <c r="N264" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O262" t="inlineStr">
+      <c r="O264" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P262" t="n">
+      <c r="P264" t="n">
         <v>1380</v>
       </c>
-      <c r="Q262" t="n">
-        <v>25</v>
-      </c>
-      <c r="R262" t="inlineStr">
+      <c r="Q264" t="n">
+        <v>25</v>
+      </c>
+      <c r="R264" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R264"/>
+  <dimension ref="A1:R265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -8064,13 +8064,13 @@
         <v>25</v>
       </c>
       <c r="K107" t="n">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="L107" t="n">
-        <v>38000</v>
+        <v>44000</v>
       </c>
       <c r="M107" t="n">
-        <v>37480</v>
+        <v>43040</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1499</v>
+        <v>1722</v>
       </c>
       <c r="Q107" t="n">
         <v>25</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K108" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="L108" t="n">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="M108" t="n">
-        <v>36500</v>
+        <v>37480</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1460</v>
+        <v>1499</v>
       </c>
       <c r="Q108" t="n">
         <v>25</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K109" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="L109" t="n">
-        <v>28000</v>
+        <v>37000</v>
       </c>
       <c r="M109" t="n">
-        <v>27500</v>
+        <v>36500</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1100</v>
+        <v>1460</v>
       </c>
       <c r="Q109" t="n">
         <v>25</v>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K110" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L110" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M110" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
       <c r="Q110" t="n">
         <v>25</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K111" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="L111" t="n">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="M111" t="n">
-        <v>29000</v>
+        <v>35500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1160</v>
+        <v>1420</v>
       </c>
       <c r="Q111" t="n">
         <v>25</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -8421,29 +8421,29 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K112" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L112" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M112" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>920</v>
+        <v>1160</v>
       </c>
       <c r="Q112" t="n">
         <v>25</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8496,26 +8496,26 @@
         <v>50</v>
       </c>
       <c r="K113" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L113" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M113" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="Q113" t="n">
         <v>25</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K114" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L114" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M114" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8583,11 +8583,11 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q114" t="n">
         <v>25</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K115" t="n">
         <v>30000</v>
       </c>
       <c r="L115" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M115" t="n">
-        <v>30500</v>
+        <v>30000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1220</v>
+        <v>1200</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K116" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L116" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M116" t="n">
-        <v>38960</v>
+        <v>30500</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1558</v>
+        <v>1220</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K117" t="n">
+        <v>38000</v>
+      </c>
+      <c r="L117" t="n">
         <v>40000</v>
       </c>
-      <c r="L117" t="n">
-        <v>41000</v>
-      </c>
       <c r="M117" t="n">
-        <v>40500</v>
+        <v>38960</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1620</v>
+        <v>1558</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K118" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="L118" t="n">
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="M118" t="n">
-        <v>26000</v>
+        <v>40500</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8871,11 +8871,11 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1040</v>
+        <v>1620</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8925,29 +8925,29 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K119" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L119" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M119" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K120" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L120" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M120" t="n">
-        <v>31500</v>
+        <v>22000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1260</v>
+        <v>880</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K121" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="L121" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="M121" t="n">
-        <v>35480</v>
+        <v>31500</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1419</v>
+        <v>1260</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,29 +9141,29 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K122" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L122" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M122" t="n">
-        <v>33000</v>
+        <v>35480</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1320</v>
+        <v>1419</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K123" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L123" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M123" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K124" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L124" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M124" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K125" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L125" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M125" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9375,11 +9375,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K126" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L126" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M126" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,29 +9501,29 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K127" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L127" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M127" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K128" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L128" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M128" t="n">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K129" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L129" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M129" t="n">
-        <v>41000</v>
+        <v>28500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1640</v>
+        <v>1140</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,29 +9717,29 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K130" t="n">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="L130" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="M130" t="n">
-        <v>39500</v>
+        <v>41000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1580</v>
+        <v>1640</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K131" t="n">
-        <v>41000</v>
+        <v>39000</v>
       </c>
       <c r="L131" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="M131" t="n">
-        <v>41500</v>
+        <v>39500</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1660</v>
+        <v>1580</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,29 +9861,29 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K132" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L132" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M132" t="n">
-        <v>29333</v>
+        <v>41500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1173</v>
+        <v>1660</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,29 +9933,29 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K133" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L133" t="n">
         <v>30000</v>
       </c>
-      <c r="L133" t="n">
-        <v>33000</v>
-      </c>
       <c r="M133" t="n">
-        <v>31125</v>
+        <v>29333</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K134" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L134" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="M134" t="n">
-        <v>36480</v>
+        <v>31125</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1459</v>
+        <v>1245</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K135" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L135" t="n">
         <v>37000</v>
       </c>
-      <c r="L135" t="n">
-        <v>38000</v>
-      </c>
       <c r="M135" t="n">
-        <v>37500</v>
+        <v>36480</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1500</v>
+        <v>1459</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K136" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L136" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M136" t="n">
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K137" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="L137" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="M137" t="n">
-        <v>37960</v>
+        <v>34500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1518</v>
+        <v>1380</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,29 +10293,29 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K138" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L138" t="n">
-        <v>23000</v>
+        <v>39000</v>
       </c>
       <c r="M138" t="n">
-        <v>23000</v>
+        <v>37960</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>920</v>
+        <v>1518</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K139" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L139" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M139" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E140" t="n">
         <v>13</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,29 +10437,29 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K140" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L140" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M140" t="n">
-        <v>22571</v>
+        <v>28000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>903</v>
+        <v>1120</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K141" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L141" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="M141" t="n">
-        <v>33000</v>
+        <v>22571</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1320</v>
+        <v>903</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E142" t="n">
         <v>13</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K142" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L142" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="M142" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1360</v>
+        <v>1320</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K143" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L143" t="n">
         <v>34000</v>
       </c>
       <c r="M143" t="n">
-        <v>33500</v>
+        <v>34000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,29 +10725,29 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K144" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L144" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M144" t="n">
-        <v>22000</v>
+        <v>33500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>880</v>
+        <v>1340</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10800,26 +10800,26 @@
         <v>70</v>
       </c>
       <c r="K145" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L145" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M145" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="Q145" t="n">
         <v>25</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K146" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L146" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M146" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q146" t="n">
         <v>25</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E147" t="n">
         <v>13</v>
@@ -10932,38 +10932,38 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K147" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L147" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="M147" t="n">
-        <v>33500</v>
+        <v>20000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1340</v>
+        <v>800</v>
       </c>
       <c r="Q147" t="n">
         <v>25</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K148" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L148" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M148" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>1300</v>
+        <v>1340</v>
       </c>
       <c r="Q148" t="n">
         <v>25</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44467</v>
+        <v>44454</v>
       </c>
       <c r="E149" t="n">
         <v>13</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K149" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="L149" t="n">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="M149" t="n">
-        <v>40960</v>
+        <v>32500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/caja 25 kilos</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1638</v>
+        <v>1300</v>
       </c>
       <c r="Q149" t="n">
         <v>25</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E150" t="n">
         <v>13</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K150" t="n">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="L150" t="n">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="M150" t="n">
-        <v>31500</v>
+        <v>40960</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1260</v>
+        <v>1638</v>
       </c>
       <c r="Q150" t="n">
         <v>25</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E151" t="n">
         <v>13</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K151" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="L151" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M151" t="n">
-        <v>34000</v>
+        <v>31500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11247,11 +11247,11 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1360</v>
+        <v>1260</v>
       </c>
       <c r="Q151" t="n">
         <v>25</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E152" t="n">
         <v>13</v>
@@ -11304,13 +11304,13 @@
         <v>25</v>
       </c>
       <c r="K152" t="n">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="L152" t="n">
-        <v>42000</v>
+        <v>34000</v>
       </c>
       <c r="M152" t="n">
-        <v>40960</v>
+        <v>34000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1638</v>
+        <v>1360</v>
       </c>
       <c r="Q152" t="n">
         <v>25</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E153" t="n">
         <v>13</v>
@@ -11373,29 +11373,29 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K153" t="n">
-        <v>22000</v>
+        <v>40000</v>
       </c>
       <c r="L153" t="n">
-        <v>22000</v>
+        <v>42000</v>
       </c>
       <c r="M153" t="n">
-        <v>22000</v>
+        <v>40960</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>880</v>
+        <v>1638</v>
       </c>
       <c r="Q153" t="n">
         <v>25</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,29 +11445,29 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K154" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L154" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M154" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1080</v>
+        <v>880</v>
       </c>
       <c r="Q154" t="n">
         <v>25</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E155" t="n">
         <v>13</v>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K155" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L155" t="n">
         <v>27000</v>
       </c>
       <c r="M155" t="n">
-        <v>26040</v>
+        <v>27000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1042</v>
+        <v>1080</v>
       </c>
       <c r="Q155" t="n">
         <v>25</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -11589,29 +11589,29 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K156" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L156" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M156" t="n">
-        <v>20000</v>
+        <v>26040</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>800</v>
+        <v>1042</v>
       </c>
       <c r="Q156" t="n">
         <v>25</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,29 +11661,29 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K157" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L157" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="M157" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1120</v>
+        <v>800</v>
       </c>
       <c r="Q157" t="n">
         <v>25</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E158" t="n">
         <v>13</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11736,26 +11736,26 @@
         <v>60</v>
       </c>
       <c r="K158" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="L158" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M158" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1480</v>
+        <v>1120</v>
       </c>
       <c r="Q158" t="n">
         <v>25</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,29 +11805,29 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K159" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L159" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M159" t="n">
-        <v>34429</v>
+        <v>37000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1377</v>
+        <v>1480</v>
       </c>
       <c r="Q159" t="n">
         <v>25</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,29 +11877,29 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K160" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L160" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M160" t="n">
-        <v>25000</v>
+        <v>34429</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1000</v>
+        <v>1377</v>
       </c>
       <c r="Q160" t="n">
         <v>25</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E161" t="n">
         <v>13</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K161" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L161" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M161" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q161" t="n">
         <v>25</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,29 +12021,29 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="K162" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="L162" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M162" t="n">
-        <v>27556</v>
+        <v>30000</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1102</v>
+        <v>1200</v>
       </c>
       <c r="Q162" t="n">
         <v>25</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E163" t="n">
         <v>13</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -12093,7 +12093,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K163" t="n">
         <v>27000</v>
@@ -12102,7 +12102,7 @@
         <v>28000</v>
       </c>
       <c r="M163" t="n">
-        <v>27500</v>
+        <v>27556</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="Q163" t="n">
         <v>25</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K164" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L164" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M164" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
       <c r="Q164" t="n">
         <v>25</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E165" t="n">
         <v>13</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,29 +12237,29 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K165" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="L165" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M165" t="n">
-        <v>26000</v>
+        <v>35500</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>1040</v>
+        <v>1420</v>
       </c>
       <c r="Q165" t="n">
         <v>25</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E166" t="n">
         <v>13</v>
@@ -12309,29 +12309,29 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K166" t="n">
         <v>26000</v>
       </c>
       <c r="L166" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="M166" t="n">
-        <v>26520</v>
+        <v>26000</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="Q166" t="n">
         <v>25</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E167" t="n">
         <v>13</v>
@@ -12384,13 +12384,13 @@
         <v>25</v>
       </c>
       <c r="K167" t="n">
-        <v>44000</v>
+        <v>26000</v>
       </c>
       <c r="L167" t="n">
-        <v>45000</v>
+        <v>27000</v>
       </c>
       <c r="M167" t="n">
-        <v>44480</v>
+        <v>26520</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>1779</v>
+        <v>1061</v>
       </c>
       <c r="Q167" t="n">
         <v>25</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E168" t="n">
         <v>13</v>
@@ -12453,29 +12453,29 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K168" t="n">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="L168" t="n">
-        <v>23000</v>
+        <v>45000</v>
       </c>
       <c r="M168" t="n">
-        <v>23000</v>
+        <v>44480</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>920</v>
+        <v>1779</v>
       </c>
       <c r="Q168" t="n">
         <v>25</v>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12525,7 +12525,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K169" t="n">
         <v>23000</v>
@@ -12538,12 +12538,12 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P169" t="n">
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E170" t="n">
         <v>13</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K170" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="L170" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M170" t="n">
-        <v>25500</v>
+        <v>23000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12615,11 +12615,11 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1020</v>
+        <v>920</v>
       </c>
       <c r="Q170" t="n">
         <v>25</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K171" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L171" t="n">
-        <v>37000</v>
+        <v>26000</v>
       </c>
       <c r="M171" t="n">
-        <v>36500</v>
+        <v>25500</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1460</v>
+        <v>1020</v>
       </c>
       <c r="Q171" t="n">
         <v>25</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E172" t="n">
         <v>13</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K172" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="L172" t="n">
-        <v>27000</v>
+        <v>37000</v>
       </c>
       <c r="M172" t="n">
-        <v>27000</v>
+        <v>36500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12759,11 +12759,11 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1080</v>
+        <v>1460</v>
       </c>
       <c r="Q172" t="n">
         <v>25</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E173" t="n">
         <v>13</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K173" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L173" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M173" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="Q173" t="n">
         <v>25</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K174" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="L174" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M174" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="Q174" t="n">
         <v>25</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E175" t="n">
         <v>13</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="K175" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L175" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M175" t="n">
-        <v>32512</v>
+        <v>30000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q175" t="n">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E176" t="n">
         <v>13</v>
@@ -13029,29 +13029,29 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K176" t="n">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="L176" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="M176" t="n">
-        <v>37000</v>
+        <v>32512</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>1480</v>
+        <v>1300</v>
       </c>
       <c r="Q176" t="n">
         <v>25</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E177" t="n">
         <v>13</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K177" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L177" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M177" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>960</v>
+        <v>1480</v>
       </c>
       <c r="Q177" t="n">
         <v>25</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,29 +13173,29 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K178" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L178" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="M178" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1080</v>
+        <v>960</v>
       </c>
       <c r="Q178" t="n">
         <v>25</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E179" t="n">
         <v>13</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13248,26 +13248,26 @@
         <v>50</v>
       </c>
       <c r="K179" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L179" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M179" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="Q179" t="n">
         <v>25</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E180" t="n">
         <v>13</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K180" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L180" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M180" t="n">
-        <v>29625</v>
+        <v>21000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1185</v>
+        <v>840</v>
       </c>
       <c r="Q180" t="n">
         <v>25</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,29 +13389,29 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K181" t="n">
-        <v>35000</v>
+        <v>29000</v>
       </c>
       <c r="L181" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M181" t="n">
-        <v>35000</v>
+        <v>29625</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1400</v>
+        <v>1185</v>
       </c>
       <c r="Q181" t="n">
         <v>25</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E182" t="n">
         <v>13</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="K182" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L182" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M182" t="n">
-        <v>27500</v>
+        <v>35000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13479,11 +13479,11 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="Q182" t="n">
         <v>25</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K183" t="n">
-        <v>40000</v>
+        <v>27000</v>
       </c>
       <c r="L183" t="n">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="M183" t="n">
-        <v>40524</v>
+        <v>27500</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13551,11 +13551,11 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1621</v>
+        <v>1100</v>
       </c>
       <c r="Q183" t="n">
         <v>25</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E184" t="n">
         <v>13</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="K184" t="n">
-        <v>21000</v>
+        <v>40000</v>
       </c>
       <c r="L184" t="n">
-        <v>22000</v>
+        <v>41000</v>
       </c>
       <c r="M184" t="n">
-        <v>21500</v>
+        <v>40524</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13623,11 +13623,11 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>860</v>
+        <v>1621</v>
       </c>
       <c r="Q184" t="n">
         <v>25</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K185" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L185" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M185" t="n">
-        <v>26520</v>
+        <v>21500</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1061</v>
+        <v>860</v>
       </c>
       <c r="Q185" t="n">
         <v>25</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E186" t="n">
         <v>13</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K186" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L186" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="M186" t="n">
-        <v>33488</v>
+        <v>26520</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13767,11 +13767,11 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1340</v>
+        <v>1061</v>
       </c>
       <c r="Q186" t="n">
         <v>25</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>13</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K187" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L187" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M187" t="n">
-        <v>24500</v>
+        <v>33488</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13839,11 +13839,11 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>980</v>
+        <v>1340</v>
       </c>
       <c r="Q187" t="n">
         <v>25</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K188" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L188" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M188" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1160</v>
+        <v>980</v>
       </c>
       <c r="Q188" t="n">
         <v>25</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E189" t="n">
         <v>13</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K189" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="L189" t="n">
         <v>30000</v>
       </c>
       <c r="M189" t="n">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13983,11 +13983,11 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1200</v>
+        <v>1160</v>
       </c>
       <c r="Q189" t="n">
         <v>25</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E190" t="n">
         <v>13</v>
@@ -14037,29 +14037,29 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K190" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L190" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M190" t="n">
-        <v>22545</v>
+        <v>30000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>902</v>
+        <v>1200</v>
       </c>
       <c r="Q190" t="n">
         <v>25</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,20 +14109,20 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="K191" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L191" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="M191" t="n">
-        <v>33000</v>
+        <v>22545</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1320</v>
+        <v>902</v>
       </c>
       <c r="Q191" t="n">
         <v>25</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E192" t="n">
         <v>13</v>
@@ -14181,16 +14181,16 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="K192" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L192" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="M192" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14199,11 +14199,11 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1280</v>
+        <v>1320</v>
       </c>
       <c r="Q192" t="n">
         <v>25</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E193" t="n">
         <v>13</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,29 +14253,29 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K193" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L193" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="M193" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>800</v>
+        <v>1280</v>
       </c>
       <c r="Q193" t="n">
         <v>25</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,29 +14325,29 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K194" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L194" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="M194" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1160</v>
+        <v>800</v>
       </c>
       <c r="Q194" t="n">
         <v>25</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E195" t="n">
         <v>13</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K195" t="n">
-        <v>43000</v>
+        <v>29000</v>
       </c>
       <c r="L195" t="n">
-        <v>45000</v>
+        <v>29000</v>
       </c>
       <c r="M195" t="n">
-        <v>44023</v>
+        <v>29000</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1761</v>
+        <v>1160</v>
       </c>
       <c r="Q195" t="n">
         <v>25</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="K196" t="n">
-        <v>38000</v>
+        <v>43000</v>
       </c>
       <c r="L196" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M196" t="n">
-        <v>38960</v>
+        <v>44023</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1558</v>
+        <v>1761</v>
       </c>
       <c r="Q196" t="n">
         <v>25</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E197" t="n">
         <v>13</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="K197" t="n">
-        <v>43000</v>
+        <v>38000</v>
       </c>
       <c r="L197" t="n">
-        <v>45000</v>
+        <v>40000</v>
       </c>
       <c r="M197" t="n">
-        <v>43984</v>
+        <v>38960</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1759</v>
+        <v>1558</v>
       </c>
       <c r="Q197" t="n">
         <v>25</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="K198" t="n">
-        <v>38000</v>
+        <v>43000</v>
       </c>
       <c r="L198" t="n">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="M198" t="n">
-        <v>38512</v>
+        <v>43984</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>1540</v>
+        <v>1759</v>
       </c>
       <c r="Q198" t="n">
         <v>25</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E199" t="n">
         <v>13</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,29 +14685,29 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="K199" t="n">
-        <v>23000</v>
+        <v>38000</v>
       </c>
       <c r="L199" t="n">
-        <v>23000</v>
+        <v>39000</v>
       </c>
       <c r="M199" t="n">
-        <v>23000</v>
+        <v>38512</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>920</v>
+        <v>1540</v>
       </c>
       <c r="Q199" t="n">
         <v>25</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -14757,29 +14757,29 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K200" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L200" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M200" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>1200</v>
+        <v>920</v>
       </c>
       <c r="Q200" t="n">
         <v>25</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E201" t="n">
         <v>13</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K201" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L201" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M201" t="n">
-        <v>34500</v>
+        <v>30000</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1380</v>
+        <v>1200</v>
       </c>
       <c r="Q201" t="n">
         <v>25</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E202" t="n">
         <v>13</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K202" t="n">
         <v>34000</v>
       </c>
       <c r="L202" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M202" t="n">
-        <v>34000</v>
+        <v>34500</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="Q202" t="n">
         <v>25</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E203" t="n">
         <v>13</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,29 +14973,29 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K203" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L203" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M203" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1200</v>
+        <v>1360</v>
       </c>
       <c r="Q203" t="n">
         <v>25</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E204" t="n">
         <v>13</v>
@@ -15045,29 +15045,29 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K204" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L204" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M204" t="n">
-        <v>32500</v>
+        <v>30000</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q204" t="n">
         <v>25</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E205" t="n">
         <v>13</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K205" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L205" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M205" t="n">
-        <v>16500</v>
+        <v>32500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>660</v>
+        <v>1300</v>
       </c>
       <c r="Q205" t="n">
         <v>25</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K206" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L206" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M206" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>560</v>
+        <v>660</v>
       </c>
       <c r="Q206" t="n">
         <v>25</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E207" t="n">
         <v>13</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K207" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="L207" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
       <c r="M207" t="n">
-        <v>31500</v>
+        <v>14000</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1260</v>
+        <v>560</v>
       </c>
       <c r="Q207" t="n">
         <v>25</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E208" t="n">
         <v>13</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>37000</v>
+        <v>31000</v>
       </c>
       <c r="L208" t="n">
-        <v>38000</v>
+        <v>32000</v>
       </c>
       <c r="M208" t="n">
-        <v>37500</v>
+        <v>31500</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15351,11 +15351,11 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>1500</v>
+        <v>1260</v>
       </c>
       <c r="Q208" t="n">
         <v>25</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K209" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="L209" t="n">
         <v>38000</v>
       </c>
       <c r="M209" t="n">
-        <v>37000</v>
+        <v>37500</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="Q209" t="n">
         <v>25</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E210" t="n">
         <v>13</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,29 +15477,29 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K210" t="n">
-        <v>16000</v>
+        <v>36000</v>
       </c>
       <c r="L210" t="n">
-        <v>16000</v>
+        <v>38000</v>
       </c>
       <c r="M210" t="n">
-        <v>16000</v>
+        <v>37000</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>640</v>
+        <v>1480</v>
       </c>
       <c r="Q210" t="n">
         <v>25</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,29 +15549,29 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K211" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L211" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="M211" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1120</v>
+        <v>640</v>
       </c>
       <c r="Q211" t="n">
         <v>25</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E212" t="n">
         <v>13</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K212" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L212" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M212" t="n">
-        <v>24500</v>
+        <v>28000</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>980</v>
+        <v>1120</v>
       </c>
       <c r="Q212" t="n">
         <v>25</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="K213" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L213" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M213" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q213" t="n">
         <v>25</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44202</v>
+        <v>44385</v>
       </c>
       <c r="E214" t="n">
         <v>13</v>
@@ -15761,33 +15761,33 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="K214" t="n">
         <v>22000</v>
       </c>
       <c r="L214" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M214" t="n">
-        <v>23111</v>
+        <v>22000</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>924</v>
+        <v>880</v>
       </c>
       <c r="Q214" t="n">
         <v>25</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,29 +15837,29 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="K215" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="L215" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M215" t="n">
-        <v>29333</v>
+        <v>23111</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>1173</v>
+        <v>924</v>
       </c>
       <c r="Q215" t="n">
         <v>25</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E216" t="n">
         <v>13</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="K216" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L216" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M216" t="n">
-        <v>34500</v>
+        <v>29333</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15927,11 +15927,11 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1380</v>
+        <v>1173</v>
       </c>
       <c r="Q216" t="n">
         <v>25</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K217" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L217" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="M217" t="n">
-        <v>33500</v>
+        <v>34500</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="Q217" t="n">
         <v>25</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E218" t="n">
         <v>13</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="K218" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="L218" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="M218" t="n">
-        <v>26393</v>
+        <v>33500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>1056</v>
+        <v>1340</v>
       </c>
       <c r="Q218" t="n">
         <v>25</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="K219" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L219" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M219" t="n">
-        <v>35860</v>
+        <v>26393</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1434</v>
+        <v>1056</v>
       </c>
       <c r="Q219" t="n">
         <v>25</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E220" t="n">
         <v>13</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16197,29 +16197,29 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K220" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L220" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M220" t="n">
-        <v>23500</v>
+        <v>35860</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>940</v>
+        <v>1434</v>
       </c>
       <c r="Q220" t="n">
         <v>25</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E221" t="n">
         <v>13</v>
@@ -16269,29 +16269,29 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K221" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L221" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M221" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>700</v>
+        <v>940</v>
       </c>
       <c r="Q221" t="n">
         <v>25</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K222" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="L222" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M222" t="n">
-        <v>34520</v>
+        <v>17500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16359,11 +16359,11 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P222" t="n">
-        <v>1381</v>
+        <v>700</v>
       </c>
       <c r="Q222" t="n">
         <v>25</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44307</v>
+        <v>44377</v>
       </c>
       <c r="E223" t="n">
         <v>13</v>
@@ -16416,26 +16416,26 @@
         <v>25</v>
       </c>
       <c r="K223" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L223" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M223" t="n">
-        <v>28000</v>
+        <v>34520</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1120</v>
+        <v>1381</v>
       </c>
       <c r="Q223" t="n">
         <v>25</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E224" t="n">
         <v>13</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="K224" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="L224" t="n">
         <v>28000</v>
       </c>
       <c r="M224" t="n">
-        <v>26857</v>
+        <v>28000</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16503,11 +16503,11 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>1074</v>
+        <v>1120</v>
       </c>
       <c r="Q224" t="n">
         <v>25</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,29 +16557,29 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K225" t="n">
-        <v>45000</v>
+        <v>26000</v>
       </c>
       <c r="L225" t="n">
-        <v>45000</v>
+        <v>28000</v>
       </c>
       <c r="M225" t="n">
-        <v>45000</v>
+        <v>26857</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1800</v>
+        <v>1074</v>
       </c>
       <c r="Q225" t="n">
         <v>25</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,29 +16629,29 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K226" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="L226" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="M226" t="n">
-        <v>26000</v>
+        <v>45000</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1040</v>
+        <v>1800</v>
       </c>
       <c r="Q226" t="n">
         <v>25</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,29 +16701,29 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K227" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="L227" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M227" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>1400</v>
+        <v>1040</v>
       </c>
       <c r="Q227" t="n">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E228" t="n">
         <v>13</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K228" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="L228" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M228" t="n">
-        <v>29500</v>
+        <v>35000</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16791,11 +16791,11 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1180</v>
+        <v>1400</v>
       </c>
       <c r="Q228" t="n">
         <v>25</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E229" t="n">
         <v>13</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K229" t="n">
-        <v>43000</v>
+        <v>29000</v>
       </c>
       <c r="L229" t="n">
-        <v>45000</v>
+        <v>30000</v>
       </c>
       <c r="M229" t="n">
-        <v>44000</v>
+        <v>29500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1760</v>
+        <v>1180</v>
       </c>
       <c r="Q229" t="n">
         <v>25</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K230" t="n">
-        <v>37000</v>
+        <v>43000</v>
       </c>
       <c r="L230" t="n">
-        <v>39000</v>
+        <v>45000</v>
       </c>
       <c r="M230" t="n">
-        <v>38000</v>
+        <v>44000</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1520</v>
+        <v>1760</v>
       </c>
       <c r="Q230" t="n">
         <v>25</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E231" t="n">
         <v>13</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="K231" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="L231" t="n">
-        <v>25000</v>
+        <v>39000</v>
       </c>
       <c r="M231" t="n">
-        <v>24492</v>
+        <v>38000</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>980</v>
+        <v>1520</v>
       </c>
       <c r="Q231" t="n">
         <v>25</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K232" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L232" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M232" t="n">
-        <v>22000</v>
+        <v>24492</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="Q232" t="n">
         <v>25</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E233" t="n">
         <v>13</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K233" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L233" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M233" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>980</v>
+        <v>880</v>
       </c>
       <c r="Q233" t="n">
         <v>25</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E234" t="n">
         <v>13</v>
@@ -17208,13 +17208,13 @@
         <v>34</v>
       </c>
       <c r="K234" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L234" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M234" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17223,11 +17223,11 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1380</v>
+        <v>980</v>
       </c>
       <c r="Q234" t="n">
         <v>25</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E235" t="n">
         <v>13</v>
@@ -17277,29 +17277,29 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K235" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M235" t="n">
-        <v>25000</v>
+        <v>34500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1000</v>
+        <v>1380</v>
       </c>
       <c r="Q235" t="n">
         <v>25</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E236" t="n">
         <v>13</v>
@@ -17349,29 +17349,29 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K236" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L236" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M236" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P236" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="Q236" t="n">
         <v>25</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E237" t="n">
         <v>13</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K237" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L237" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="M237" t="n">
-        <v>29000</v>
+        <v>16500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17439,11 +17439,11 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P237" t="n">
-        <v>1160</v>
+        <v>660</v>
       </c>
       <c r="Q237" t="n">
         <v>25</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E238" t="n">
         <v>13</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K238" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L238" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M238" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1320</v>
+        <v>1160</v>
       </c>
       <c r="Q238" t="n">
         <v>25</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E239" t="n">
         <v>13</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K239" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="L239" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="M239" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17583,11 +17583,11 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>1240</v>
+        <v>1320</v>
       </c>
       <c r="Q239" t="n">
         <v>25</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E240" t="n">
         <v>13</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K240" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L240" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M240" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="Q240" t="n">
         <v>25</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E241" t="n">
         <v>13</v>
@@ -17709,29 +17709,29 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K241" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L241" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M241" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P241" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="Q241" t="n">
         <v>25</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,7 +17781,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
         <v>35000</v>
@@ -17794,7 +17794,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E243" t="n">
         <v>13</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17853,20 +17853,20 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K243" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L243" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M243" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="Q243" t="n">
         <v>25</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E244" t="n">
         <v>13</v>
@@ -17925,29 +17925,29 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K244" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L244" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M244" t="n">
-        <v>20500</v>
+        <v>25000</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="Q244" t="n">
         <v>25</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E245" t="n">
         <v>13</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="K245" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L245" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M245" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1100</v>
+        <v>820</v>
       </c>
       <c r="Q245" t="n">
         <v>25</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K246" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L246" t="n">
-        <v>36000</v>
+        <v>28000</v>
       </c>
       <c r="M246" t="n">
-        <v>35500</v>
+        <v>27500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1420</v>
+        <v>1100</v>
       </c>
       <c r="Q246" t="n">
         <v>25</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E247" t="n">
         <v>13</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,29 +18141,29 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K247" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="L247" t="n">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="M247" t="n">
-        <v>27000</v>
+        <v>35500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1080</v>
+        <v>1420</v>
       </c>
       <c r="Q247" t="n">
         <v>25</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,29 +18213,29 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="K248" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L248" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M248" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="Q248" t="n">
         <v>25</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E249" t="n">
         <v>13</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K249" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L249" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M249" t="n">
-        <v>25500</v>
+        <v>30000</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1020</v>
+        <v>1200</v>
       </c>
       <c r="Q249" t="n">
         <v>25</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E250" t="n">
         <v>13</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="K250" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L250" t="n">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="M250" t="n">
-        <v>35480</v>
+        <v>25500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1419</v>
+        <v>1020</v>
       </c>
       <c r="Q250" t="n">
         <v>25</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K251" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="L251" t="n">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="M251" t="n">
-        <v>39500</v>
+        <v>35480</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1580</v>
+        <v>1419</v>
       </c>
       <c r="Q251" t="n">
         <v>25</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E252" t="n">
         <v>13</v>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="K252" t="n">
-        <v>25000</v>
+        <v>39000</v>
       </c>
       <c r="L252" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="M252" t="n">
-        <v>25500</v>
+        <v>39500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>1020</v>
+        <v>1580</v>
       </c>
       <c r="Q252" t="n">
         <v>25</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E253" t="n">
         <v>13</v>
@@ -18573,29 +18573,29 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="K253" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="L253" t="n">
-        <v>36000</v>
+        <v>26000</v>
       </c>
       <c r="M253" t="n">
-        <v>35588</v>
+        <v>25500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P253" t="n">
-        <v>1424</v>
+        <v>1020</v>
       </c>
       <c r="Q253" t="n">
         <v>25</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,29 +18645,29 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K254" t="n">
-        <v>44000</v>
+        <v>35000</v>
       </c>
       <c r="L254" t="n">
-        <v>45000</v>
+        <v>36000</v>
       </c>
       <c r="M254" t="n">
-        <v>44429</v>
+        <v>35588</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1777</v>
+        <v>1424</v>
       </c>
       <c r="Q254" t="n">
         <v>25</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E255" t="n">
         <v>13</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K255" t="n">
-        <v>38000</v>
+        <v>44000</v>
       </c>
       <c r="L255" t="n">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="M255" t="n">
-        <v>39000</v>
+        <v>44429</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1560</v>
+        <v>1777</v>
       </c>
       <c r="Q255" t="n">
         <v>25</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44201</v>
+        <v>44466</v>
       </c>
       <c r="E256" t="n">
         <v>13</v>
@@ -18789,29 +18789,29 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="K256" t="n">
-        <v>27000</v>
+        <v>38000</v>
       </c>
       <c r="L256" t="n">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="M256" t="n">
-        <v>27455</v>
+        <v>39000</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1098</v>
+        <v>1560</v>
       </c>
       <c r="Q256" t="n">
         <v>25</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,29 +18861,29 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K257" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L257" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M257" t="n">
-        <v>29588</v>
+        <v>27455</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1184</v>
+        <v>1098</v>
       </c>
       <c r="Q257" t="n">
         <v>25</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="K258" t="n">
-        <v>40000</v>
+        <v>29000</v>
       </c>
       <c r="L258" t="n">
-        <v>42000</v>
+        <v>30000</v>
       </c>
       <c r="M258" t="n">
-        <v>41040</v>
+        <v>29588</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18951,11 +18951,11 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1642</v>
+        <v>1184</v>
       </c>
       <c r="Q258" t="n">
         <v>25</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E259" t="n">
         <v>13</v>
@@ -19005,29 +19005,29 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K259" t="n">
         <v>40000</v>
       </c>
       <c r="L259" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="M259" t="n">
-        <v>40000</v>
+        <v>41040</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1600</v>
+        <v>1642</v>
       </c>
       <c r="Q259" t="n">
         <v>25</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,29 +19077,29 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K260" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="L260" t="n">
-        <v>43000</v>
+        <v>40000</v>
       </c>
       <c r="M260" t="n">
-        <v>42400</v>
+        <v>40000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1696</v>
+        <v>1600</v>
       </c>
       <c r="Q260" t="n">
         <v>25</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E261" t="n">
         <v>13</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,26 +19152,26 @@
         <v>50</v>
       </c>
       <c r="K261" t="n">
-        <v>27000</v>
+        <v>42000</v>
       </c>
       <c r="L261" t="n">
-        <v>27000</v>
+        <v>43000</v>
       </c>
       <c r="M261" t="n">
-        <v>27000</v>
+        <v>42400</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1080</v>
+        <v>1696</v>
       </c>
       <c r="Q261" t="n">
         <v>25</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E262" t="n">
         <v>13</v>
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K262" t="n">
         <v>27000</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E263" t="n">
         <v>13</v>
@@ -19293,29 +19293,29 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K263" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L263" t="n">
         <v>27000</v>
       </c>
       <c r="M263" t="n">
-        <v>26520</v>
+        <v>27000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="Q263" t="n">
         <v>25</v>
@@ -19356,43 +19356,115 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
+          <t>Magnum</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J264" t="n">
+        <v>25</v>
+      </c>
+      <c r="K264" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L264" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M264" t="n">
+        <v>26520</v>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>$/malla 25 kilos</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P264" t="n">
+        <v>1061</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>25</v>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>9</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Vega Central Mapocho de Santiago</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E265" t="n">
+        <v>13</v>
+      </c>
+      <c r="F265" t="n">
+        <v>100112031</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Poroto verde</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>Primera</t>
-        </is>
-      </c>
-      <c r="J264" t="n">
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J265" t="n">
         <v>16</v>
       </c>
-      <c r="K264" t="n">
+      <c r="K265" t="n">
         <v>34000</v>
       </c>
-      <c r="L264" t="n">
+      <c r="L265" t="n">
         <v>35000</v>
       </c>
-      <c r="M264" t="n">
+      <c r="M265" t="n">
         <v>34500</v>
       </c>
-      <c r="N264" t="inlineStr">
+      <c r="N265" t="inlineStr">
         <is>
           <t>$/malla 25 kilos</t>
         </is>
       </c>
-      <c r="O264" t="inlineStr">
+      <c r="O265" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
       </c>
-      <c r="P264" t="n">
+      <c r="P265" t="n">
         <v>1380</v>
       </c>
-      <c r="Q264" t="n">
-        <v>25</v>
-      </c>
-      <c r="R264" t="inlineStr">
+      <c r="Q265" t="n">
+        <v>25</v>
+      </c>
+      <c r="R265" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Central Mapocho de Santiago - Poroto verde.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R265"/>
+  <dimension ref="A1:R266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="K115" t="n">
-        <v>30000</v>
+        <v>43000</v>
       </c>
       <c r="L115" t="n">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="M115" t="n">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8655,11 +8655,11 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1200</v>
+        <v>1760</v>
       </c>
       <c r="Q115" t="n">
         <v>25</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K116" t="n">
         <v>30000</v>
       </c>
       <c r="L116" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M116" t="n">
-        <v>30500</v>
+        <v>30000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8727,11 +8727,11 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1220</v>
+        <v>1200</v>
       </c>
       <c r="Q116" t="n">
         <v>25</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>38000</v>
+        <v>30000</v>
       </c>
       <c r="L117" t="n">
-        <v>40000</v>
+        <v>31000</v>
       </c>
       <c r="M117" t="n">
-        <v>38960</v>
+        <v>30500</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1558</v>
+        <v>1220</v>
       </c>
       <c r="Q117" t="n">
         <v>25</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K118" t="n">
+        <v>38000</v>
+      </c>
+      <c r="L118" t="n">
         <v>40000</v>
       </c>
-      <c r="L118" t="n">
-        <v>41000</v>
-      </c>
       <c r="M118" t="n">
-        <v>40500</v>
+        <v>38960</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1620</v>
+        <v>1558</v>
       </c>
       <c r="Q118" t="n">
         <v>25</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K119" t="n">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="L119" t="n">
-        <v>26000</v>
+        <v>41000</v>
       </c>
       <c r="M119" t="n">
-        <v>26000</v>
+        <v>40500</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8943,11 +8943,11 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Huasco</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1040</v>
+        <v>1620</v>
       </c>
       <c r="Q119" t="n">
         <v>25</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -8997,29 +8997,29 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K120" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="L120" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M120" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Huasco</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>880</v>
+        <v>1040</v>
       </c>
       <c r="Q120" t="n">
         <v>25</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -9069,29 +9069,29 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K121" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="L121" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M121" t="n">
-        <v>31500</v>
+        <v>22000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1260</v>
+        <v>880</v>
       </c>
       <c r="Q121" t="n">
         <v>25</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K122" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="L122" t="n">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="M122" t="n">
-        <v>35480</v>
+        <v>31500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1419</v>
+        <v>1260</v>
       </c>
       <c r="Q122" t="n">
         <v>25</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9213,29 +9213,29 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K123" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L123" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="M123" t="n">
-        <v>33000</v>
+        <v>35480</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1320</v>
+        <v>1419</v>
       </c>
       <c r="Q123" t="n">
         <v>25</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,29 +9285,29 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K124" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L124" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M124" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q124" t="n">
         <v>25</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9357,29 +9357,29 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K125" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="L125" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M125" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>920</v>
+        <v>1200</v>
       </c>
       <c r="Q125" t="n">
         <v>25</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K126" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L126" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="M126" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9447,11 +9447,11 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1080</v>
+        <v>920</v>
       </c>
       <c r="Q126" t="n">
         <v>25</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K127" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L127" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="M127" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="Q127" t="n">
         <v>25</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,29 +9573,29 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K128" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="L128" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M128" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="Q128" t="n">
         <v>25</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K129" t="n">
-        <v>28000</v>
+        <v>27000</v>
       </c>
       <c r="L129" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M129" t="n">
-        <v>28500</v>
+        <v>27000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="Q129" t="n">
         <v>25</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K130" t="n">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="L130" t="n">
-        <v>42000</v>
+        <v>29000</v>
       </c>
       <c r="M130" t="n">
-        <v>41000</v>
+        <v>28500</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1640</v>
+        <v>1140</v>
       </c>
       <c r="Q130" t="n">
         <v>25</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,29 +9789,29 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K131" t="n">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="L131" t="n">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="M131" t="n">
-        <v>39500</v>
+        <v>41000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1580</v>
+        <v>1640</v>
       </c>
       <c r="Q131" t="n">
         <v>25</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,29 +9861,29 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K132" t="n">
-        <v>41000</v>
+        <v>39000</v>
       </c>
       <c r="L132" t="n">
-        <v>42000</v>
+        <v>40000</v>
       </c>
       <c r="M132" t="n">
-        <v>41500</v>
+        <v>39500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1660</v>
+        <v>1580</v>
       </c>
       <c r="Q132" t="n">
         <v>25</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,29 +9933,29 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K133" t="n">
-        <v>28000</v>
+        <v>41000</v>
       </c>
       <c r="L133" t="n">
-        <v>30000</v>
+        <v>42000</v>
       </c>
       <c r="M133" t="n">
-        <v>29333</v>
+        <v>41500</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1173</v>
+        <v>1660</v>
       </c>
       <c r="Q133" t="n">
         <v>25</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,29 +10005,29 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K134" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L134" t="n">
         <v>30000</v>
       </c>
-      <c r="L134" t="n">
-        <v>33000</v>
-      </c>
       <c r="M134" t="n">
-        <v>31125</v>
+        <v>29333</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1245</v>
+        <v>1173</v>
       </c>
       <c r="Q134" t="n">
         <v>25</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K135" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="L135" t="n">
-        <v>37000</v>
+        <v>33000</v>
       </c>
       <c r="M135" t="n">
-        <v>36480</v>
+        <v>31125</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1459</v>
+        <v>1245</v>
       </c>
       <c r="Q135" t="n">
         <v>25</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K136" t="n">
+        <v>36000</v>
+      </c>
+      <c r="L136" t="n">
         <v>37000</v>
       </c>
-      <c r="L136" t="n">
-        <v>38000</v>
-      </c>
       <c r="M136" t="n">
-        <v>37500</v>
+        <v>36480</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1500</v>
+        <v>1459</v>
       </c>
       <c r="Q136" t="n">
         <v>25</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K137" t="n">
-        <v>34000</v>
+        <v>37000</v>
       </c>
       <c r="L137" t="n">
-        <v>35000</v>
+        <v>38000</v>
       </c>
       <c r="M137" t="n">
-        <v>34500</v>
+        <v>37500</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1380</v>
+        <v>1500</v>
       </c>
       <c r="Q137" t="n">
         <v>25</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K138" t="n">
-        <v>37000</v>
+        <v>34000</v>
       </c>
       <c r="L138" t="n">
-        <v>39000</v>
+        <v>35000</v>
       </c>
       <c r="M138" t="n">
-        <v>37960</v>
+        <v>34500</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1518</v>
+        <v>1380</v>
       </c>
       <c r="Q138" t="n">
         <v>25</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10365,29 +10365,29 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K139" t="n">
-        <v>23000</v>
+        <v>37000</v>
       </c>
       <c r="L139" t="n">
-        <v>23000</v>
+        <v>39000</v>
       </c>
       <c r="M139" t="n">
-        <v>23000</v>
+        <v>37960</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>920</v>
+        <v>1518</v>
       </c>
       <c r="Q139" t="n">
         <v>25</v>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10437,29 +10437,29 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K140" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L140" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M140" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1120</v>
+        <v>920</v>
       </c>
       <c r="Q140" t="n">
         <v>25</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E141" t="n">
         <v>13</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,29 +10509,29 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K141" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L141" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M141" t="n">
-        <v>22571</v>
+        <v>28000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/saco 25 kilos</t>
+          <t>$/malla 25 kilos</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>903</v>
+        <v>1120</v>
       </c>
       <c r="Q141" t="n">
         <v>25</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,29 +10581,29 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K142" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="L142" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="M142" t="n">
-        <v>33000</v>
+        <v>22571</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/malla 25 kilos</t>
+          <t>$/saco 25 kilos</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1320</v>
+        <v>903</v>
       </c>
       <c r="Q142" t="n">
         <v>25</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E143" t="n">
         <v>13</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K143" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L143" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="M143" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10671,11 +10671,11 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1360</v>
+        <v>1320</v>
       </c>
       <c r="Q143" t="n">
         <v>25</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E144" t="n">
         <v>13</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K144" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L144" t="n">
         <v>34000</v>
       </c>
       <c r="M144" t="n">
-        <v>33500</v>
+        <v>34000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="Q144" t="n">
         <v>25</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E145" t="n">
         <v>13</v>
@@ -10797,29 +10797,29 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="K145" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L145" t="n">
-        <v